--- a/src/main/resources/excel/1.1 Vocabulary.xlsx
+++ b/src/main/resources/excel/1.1 Vocabulary.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="8"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Adjectives" sheetId="1" state="visible" r:id="rId3"/>
@@ -7692,17 +7692,17 @@
   </sheetPr>
   <dimension ref="A1:D190"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A190" activeCellId="0" sqref="A190"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E24" activeCellId="0" sqref="E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6796875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="38.31"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="47.37"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="11.52"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="20.12"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="5" style="1" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="3" style="1" width="20.12"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1000" min="5" style="1" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16384" min="16360" style="0" width="11.53"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7712,7 +7712,6 @@
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2"/>
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
@@ -7724,7 +7723,6 @@
       <c r="B2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="2"/>
       <c r="D2" s="1" t="s">
         <v>5</v>
       </c>
@@ -7736,7 +7734,6 @@
       <c r="B3" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="2"/>
       <c r="D3" s="1" t="s">
         <v>8</v>
       </c>
@@ -7748,7 +7745,6 @@
       <c r="B4" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="2"/>
       <c r="D4" s="1" t="s">
         <v>11</v>
       </c>
@@ -7760,7 +7756,6 @@
       <c r="B5" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="2"/>
       <c r="D5" s="1" t="s">
         <v>14</v>
       </c>
@@ -7772,7 +7767,6 @@
       <c r="B6" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C6" s="2"/>
       <c r="D6" s="1" t="s">
         <v>17</v>
       </c>
@@ -7784,7 +7778,6 @@
       <c r="B7" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C7" s="2"/>
       <c r="D7" s="1" t="s">
         <v>20</v>
       </c>
@@ -7796,7 +7789,6 @@
       <c r="B8" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C8" s="2"/>
       <c r="D8" s="1" t="s">
         <v>23</v>
       </c>
@@ -7808,7 +7800,6 @@
       <c r="B9" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C9" s="2"/>
       <c r="D9" s="1" t="s">
         <v>26</v>
       </c>
@@ -7820,7 +7811,6 @@
       <c r="B10" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="C10" s="2"/>
       <c r="D10" s="1" t="s">
         <v>29</v>
       </c>
@@ -7832,7 +7822,6 @@
       <c r="B11" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="C11" s="2"/>
       <c r="D11" s="1" t="s">
         <v>31</v>
       </c>
@@ -7844,7 +7833,6 @@
       <c r="B12" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C12" s="2"/>
       <c r="D12" s="1" t="s">
         <v>33</v>
       </c>
@@ -8670,6 +8658,7 @@
       <c r="B87" s="2" t="s">
         <v>248</v>
       </c>
+      <c r="C87" s="2"/>
       <c r="D87" s="1" t="s">
         <v>249</v>
       </c>
@@ -8714,6 +8703,7 @@
       <c r="B91" s="2" t="s">
         <v>258</v>
       </c>
+      <c r="C91" s="2"/>
       <c r="D91" s="1" t="s">
         <v>259</v>
       </c>
@@ -16119,7 +16109,7 @@
   </sheetPr>
   <dimension ref="A1:D118"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A62" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A62" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="N72" activeCellId="0" sqref="N72"/>
     </sheetView>
   </sheetViews>
@@ -16127,7 +16117,9 @@
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="2" width="27.78"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="2" width="19.31"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="3" style="2" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="2" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="2" width="37.67"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="5" style="2" width="11.52"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/src/main/resources/excel/1.1 Vocabulary.xlsx
+++ b/src/main/resources/excel/1.1 Vocabulary.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="8"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Cardinal Numbers" sheetId="1" state="visible" r:id="rId3"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2597" uniqueCount="1855">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2596" uniqueCount="1855">
   <si>
     <t xml:space="preserve">One</t>
   </si>
@@ -381,16 +381,16 @@
     <t xml:space="preserve">blæk</t>
   </si>
   <si>
+    <t xml:space="preserve">white</t>
+  </si>
+  <si>
+    <t xml:space="preserve">blanco</t>
+  </si>
+  <si>
+    <t xml:space="preserve">waɪt</t>
+  </si>
+  <si>
     <t xml:space="preserve">EXAMPLE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">white</t>
-  </si>
-  <si>
-    <t xml:space="preserve">blanco</t>
-  </si>
-  <si>
-    <t xml:space="preserve">waɪt</t>
   </si>
   <si>
     <t xml:space="preserve">blue</t>
@@ -5866,7 +5866,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -5880,10 +5880,6 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -6546,8 +6542,8 @@
   </sheetPr>
   <dimension ref="A1:F56"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F42" activeCellId="0" sqref="F42"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F1" activeCellId="0" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6796875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -6567,22 +6563,20 @@
       <c r="D1" s="3" t="s">
         <v>116</v>
       </c>
-      <c r="F1" s="4" t="s">
-        <v>117</v>
-      </c>
+      <c r="F1" s="1"/>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="B2" s="3" t="s">
         <v>118</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="D2" s="3" t="s">
         <v>119</v>
       </c>
-      <c r="D2" s="3" t="s">
-        <v>120</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>117</v>
+      <c r="F2" s="1" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6595,8 +6589,8 @@
       <c r="D3" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="F3" s="4" t="s">
-        <v>117</v>
+      <c r="F3" s="1" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6609,8 +6603,8 @@
       <c r="D4" s="3" t="s">
         <v>126</v>
       </c>
-      <c r="F4" s="4" t="s">
-        <v>117</v>
+      <c r="F4" s="1" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6623,8 +6617,8 @@
       <c r="D5" s="3" t="s">
         <v>129</v>
       </c>
-      <c r="F5" s="4" t="s">
-        <v>117</v>
+      <c r="F5" s="1" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6637,8 +6631,8 @@
       <c r="D6" s="3" t="s">
         <v>132</v>
       </c>
-      <c r="F6" s="4" t="s">
-        <v>117</v>
+      <c r="F6" s="1" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6651,8 +6645,8 @@
       <c r="D7" s="3" t="s">
         <v>135</v>
       </c>
-      <c r="F7" s="4" t="s">
-        <v>117</v>
+      <c r="F7" s="1" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6665,8 +6659,8 @@
       <c r="D8" s="3" t="s">
         <v>138</v>
       </c>
-      <c r="F8" s="4" t="s">
-        <v>117</v>
+      <c r="F8" s="1" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6679,8 +6673,8 @@
       <c r="D9" s="3" t="s">
         <v>141</v>
       </c>
-      <c r="F9" s="4" t="s">
-        <v>117</v>
+      <c r="F9" s="1" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6693,8 +6687,8 @@
       <c r="D10" s="3" t="s">
         <v>144</v>
       </c>
-      <c r="F10" s="4" t="s">
-        <v>117</v>
+      <c r="F10" s="1" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6707,8 +6701,8 @@
       <c r="D11" s="3" t="s">
         <v>147</v>
       </c>
-      <c r="F11" s="4" t="s">
-        <v>117</v>
+      <c r="F11" s="1" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6721,8 +6715,8 @@
       <c r="D12" s="3" t="s">
         <v>150</v>
       </c>
-      <c r="F12" s="4" t="s">
-        <v>117</v>
+      <c r="F12" s="1" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6735,8 +6729,8 @@
       <c r="D13" s="3" t="s">
         <v>152</v>
       </c>
-      <c r="F13" s="4" t="s">
-        <v>117</v>
+      <c r="F13" s="1" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6749,8 +6743,8 @@
       <c r="D14" s="3" t="s">
         <v>155</v>
       </c>
-      <c r="F14" s="4" t="s">
-        <v>117</v>
+      <c r="F14" s="1" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6763,8 +6757,8 @@
       <c r="D15" s="3" t="s">
         <v>158</v>
       </c>
-      <c r="F15" s="4" t="s">
-        <v>117</v>
+      <c r="F15" s="1" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6777,8 +6771,8 @@
       <c r="D16" s="3" t="s">
         <v>161</v>
       </c>
-      <c r="F16" s="4" t="s">
-        <v>117</v>
+      <c r="F16" s="1" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6791,8 +6785,8 @@
       <c r="D17" s="3" t="s">
         <v>164</v>
       </c>
-      <c r="F17" s="4" t="s">
-        <v>117</v>
+      <c r="F17" s="1" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6805,8 +6799,8 @@
       <c r="D18" s="3" t="s">
         <v>167</v>
       </c>
-      <c r="F18" s="4" t="s">
-        <v>117</v>
+      <c r="F18" s="1" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6819,8 +6813,8 @@
       <c r="D19" s="3" t="s">
         <v>170</v>
       </c>
-      <c r="F19" s="4" t="s">
-        <v>117</v>
+      <c r="F19" s="1" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6833,7 +6827,7 @@
       <c r="D20" s="3" t="s">
         <v>171</v>
       </c>
-      <c r="F20" s="4"/>
+      <c r="F20" s="1"/>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="3" t="s">
@@ -6845,8 +6839,8 @@
       <c r="D21" s="3" t="s">
         <v>175</v>
       </c>
-      <c r="F21" s="4" t="s">
-        <v>117</v>
+      <c r="F21" s="1" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6859,8 +6853,8 @@
       <c r="D22" s="3" t="s">
         <v>178</v>
       </c>
-      <c r="F22" s="4" t="s">
-        <v>117</v>
+      <c r="F22" s="1" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6873,8 +6867,8 @@
       <c r="D23" s="3" t="s">
         <v>181</v>
       </c>
-      <c r="F23" s="4" t="s">
-        <v>117</v>
+      <c r="F23" s="1" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6887,8 +6881,8 @@
       <c r="D24" s="3" t="s">
         <v>184</v>
       </c>
-      <c r="F24" s="4" t="s">
-        <v>117</v>
+      <c r="F24" s="1" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6901,8 +6895,8 @@
       <c r="D25" s="3" t="s">
         <v>185</v>
       </c>
-      <c r="F25" s="4" t="s">
-        <v>117</v>
+      <c r="F25" s="1" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6915,8 +6909,8 @@
       <c r="D26" s="3" t="s">
         <v>189</v>
       </c>
-      <c r="F26" s="4" t="s">
-        <v>117</v>
+      <c r="F26" s="1" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6929,8 +6923,8 @@
       <c r="D27" s="3" t="s">
         <v>192</v>
       </c>
-      <c r="F27" s="4" t="s">
-        <v>117</v>
+      <c r="F27" s="1" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6943,8 +6937,8 @@
       <c r="D28" s="3" t="s">
         <v>195</v>
       </c>
-      <c r="F28" s="4" t="s">
-        <v>117</v>
+      <c r="F28" s="1" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6957,8 +6951,8 @@
       <c r="D29" s="3" t="s">
         <v>198</v>
       </c>
-      <c r="F29" s="4" t="s">
-        <v>117</v>
+      <c r="F29" s="1" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6971,8 +6965,8 @@
       <c r="D30" s="3" t="s">
         <v>199</v>
       </c>
-      <c r="F30" s="4" t="s">
-        <v>117</v>
+      <c r="F30" s="1" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6985,8 +6979,8 @@
       <c r="D31" s="3" t="s">
         <v>203</v>
       </c>
-      <c r="F31" s="4" t="s">
-        <v>117</v>
+      <c r="F31" s="1" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6999,8 +6993,8 @@
       <c r="D32" s="3" t="s">
         <v>206</v>
       </c>
-      <c r="F32" s="4" t="s">
-        <v>117</v>
+      <c r="F32" s="1" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7013,8 +7007,8 @@
       <c r="D33" s="3" t="s">
         <v>209</v>
       </c>
-      <c r="F33" s="4" t="s">
-        <v>117</v>
+      <c r="F33" s="1" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7027,8 +7021,8 @@
       <c r="D34" s="3" t="s">
         <v>212</v>
       </c>
-      <c r="F34" s="4" t="s">
-        <v>117</v>
+      <c r="F34" s="1" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7041,8 +7035,8 @@
       <c r="D35" s="3" t="s">
         <v>215</v>
       </c>
-      <c r="F35" s="4" t="s">
-        <v>117</v>
+      <c r="F35" s="1" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7055,8 +7049,8 @@
       <c r="D36" s="3" t="s">
         <v>218</v>
       </c>
-      <c r="F36" s="4" t="s">
-        <v>117</v>
+      <c r="F36" s="1" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7069,8 +7063,8 @@
       <c r="D37" s="3" t="s">
         <v>192</v>
       </c>
-      <c r="F37" s="4" t="s">
-        <v>117</v>
+      <c r="F37" s="1" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7083,8 +7077,8 @@
       <c r="D38" s="3" t="s">
         <v>221</v>
       </c>
-      <c r="F38" s="4" t="s">
-        <v>117</v>
+      <c r="F38" s="1" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7097,8 +7091,8 @@
       <c r="D39" s="3" t="s">
         <v>224</v>
       </c>
-      <c r="F39" s="4" t="s">
-        <v>117</v>
+      <c r="F39" s="1" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7111,8 +7105,8 @@
       <c r="D40" s="3" t="s">
         <v>195</v>
       </c>
-      <c r="F40" s="4" t="s">
-        <v>117</v>
+      <c r="F40" s="1" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7125,7 +7119,7 @@
       <c r="D41" s="3" t="s">
         <v>227</v>
       </c>
-      <c r="F41" s="4"/>
+      <c r="F41" s="1"/>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="3" t="s">
@@ -7137,8 +7131,8 @@
       <c r="D42" s="3" t="s">
         <v>230</v>
       </c>
-      <c r="F42" s="4" t="s">
-        <v>117</v>
+      <c r="F42" s="1" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7151,8 +7145,8 @@
       <c r="D43" s="3" t="s">
         <v>233</v>
       </c>
-      <c r="F43" s="4" t="s">
-        <v>117</v>
+      <c r="F43" s="1" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7165,8 +7159,8 @@
       <c r="D44" s="3" t="s">
         <v>236</v>
       </c>
-      <c r="F44" s="4" t="s">
-        <v>117</v>
+      <c r="F44" s="1" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7179,8 +7173,8 @@
       <c r="D45" s="3" t="s">
         <v>239</v>
       </c>
-      <c r="F45" s="4" t="s">
-        <v>117</v>
+      <c r="F45" s="1" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7193,8 +7187,8 @@
       <c r="D46" s="3" t="s">
         <v>242</v>
       </c>
-      <c r="F46" s="4" t="s">
-        <v>117</v>
+      <c r="F46" s="1" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7207,8 +7201,8 @@
       <c r="D47" s="3" t="s">
         <v>245</v>
       </c>
-      <c r="F47" s="4" t="s">
-        <v>117</v>
+      <c r="F47" s="1" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7221,8 +7215,8 @@
       <c r="D48" s="3" t="s">
         <v>248</v>
       </c>
-      <c r="F48" s="4" t="s">
-        <v>117</v>
+      <c r="F48" s="1" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7235,8 +7229,8 @@
       <c r="D49" s="3" t="s">
         <v>251</v>
       </c>
-      <c r="F49" s="4" t="s">
-        <v>117</v>
+      <c r="F49" s="1" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7249,8 +7243,8 @@
       <c r="D50" s="3" t="s">
         <v>254</v>
       </c>
-      <c r="F50" s="4" t="s">
-        <v>117</v>
+      <c r="F50" s="1" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7263,8 +7257,8 @@
       <c r="D51" s="3" t="s">
         <v>257</v>
       </c>
-      <c r="F51" s="4" t="s">
-        <v>117</v>
+      <c r="F51" s="1" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7277,8 +7271,8 @@
       <c r="D52" s="3" t="s">
         <v>260</v>
       </c>
-      <c r="F52" s="4" t="s">
-        <v>117</v>
+      <c r="F52" s="1" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7291,8 +7285,8 @@
       <c r="D53" s="3" t="s">
         <v>263</v>
       </c>
-      <c r="F53" s="4" t="s">
-        <v>117</v>
+      <c r="F53" s="1" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7305,8 +7299,8 @@
       <c r="D54" s="3" t="s">
         <v>266</v>
       </c>
-      <c r="F54" s="4" t="s">
-        <v>117</v>
+      <c r="F54" s="1" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7319,8 +7313,8 @@
       <c r="D55" s="3" t="s">
         <v>269</v>
       </c>
-      <c r="F55" s="4" t="s">
-        <v>117</v>
+      <c r="F55" s="1" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7333,8 +7327,8 @@
       <c r="D56" s="3" t="s">
         <v>272</v>
       </c>
-      <c r="F56" s="4" t="s">
-        <v>117</v>
+      <c r="F56" s="1" t="s">
+        <v>120</v>
       </c>
     </row>
   </sheetData>
@@ -7379,8 +7373,8 @@
       <c r="D1" s="1" t="s">
         <v>275</v>
       </c>
-      <c r="E1" s="4" t="s">
-        <v>117</v>
+      <c r="E1" s="1" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7393,8 +7387,8 @@
       <c r="D2" s="1" t="s">
         <v>278</v>
       </c>
-      <c r="E2" s="4" t="s">
-        <v>117</v>
+      <c r="E2" s="1" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7407,8 +7401,8 @@
       <c r="D3" s="1" t="s">
         <v>281</v>
       </c>
-      <c r="E3" s="4" t="s">
-        <v>117</v>
+      <c r="E3" s="1" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7421,8 +7415,8 @@
       <c r="D4" s="1" t="s">
         <v>284</v>
       </c>
-      <c r="E4" s="4" t="s">
-        <v>117</v>
+      <c r="E4" s="1" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7435,8 +7429,8 @@
       <c r="D5" s="1" t="s">
         <v>287</v>
       </c>
-      <c r="E5" s="4" t="s">
-        <v>117</v>
+      <c r="E5" s="1" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7449,8 +7443,8 @@
       <c r="D6" s="1" t="s">
         <v>290</v>
       </c>
-      <c r="E6" s="4" t="s">
-        <v>117</v>
+      <c r="E6" s="1" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7463,8 +7457,8 @@
       <c r="D7" s="1" t="s">
         <v>293</v>
       </c>
-      <c r="E7" s="4" t="s">
-        <v>117</v>
+      <c r="E7" s="1" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7477,8 +7471,8 @@
       <c r="D8" s="1" t="s">
         <v>296</v>
       </c>
-      <c r="E8" s="4" t="s">
-        <v>117</v>
+      <c r="E8" s="1" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7491,8 +7485,8 @@
       <c r="D9" s="1" t="s">
         <v>299</v>
       </c>
-      <c r="E9" s="4" t="s">
-        <v>117</v>
+      <c r="E9" s="1" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7505,8 +7499,8 @@
       <c r="D10" s="1" t="s">
         <v>302</v>
       </c>
-      <c r="E10" s="4" t="s">
-        <v>117</v>
+      <c r="E10" s="1" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7519,8 +7513,8 @@
       <c r="D11" s="1" t="s">
         <v>305</v>
       </c>
-      <c r="E11" s="4" t="s">
-        <v>117</v>
+      <c r="E11" s="1" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7533,8 +7527,8 @@
       <c r="D12" s="1" t="s">
         <v>308</v>
       </c>
-      <c r="E12" s="4" t="s">
-        <v>117</v>
+      <c r="E12" s="1" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7547,8 +7541,8 @@
       <c r="D13" s="1" t="s">
         <v>311</v>
       </c>
-      <c r="E13" s="4" t="s">
-        <v>117</v>
+      <c r="E13" s="1" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7561,8 +7555,8 @@
       <c r="D14" s="1" t="s">
         <v>314</v>
       </c>
-      <c r="E14" s="4" t="s">
-        <v>117</v>
+      <c r="E14" s="1" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7575,8 +7569,8 @@
       <c r="D15" s="1" t="s">
         <v>317</v>
       </c>
-      <c r="E15" s="4" t="s">
-        <v>117</v>
+      <c r="E15" s="1" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7589,8 +7583,8 @@
       <c r="D16" s="1" t="s">
         <v>320</v>
       </c>
-      <c r="E16" s="4" t="s">
-        <v>117</v>
+      <c r="E16" s="1" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7603,8 +7597,8 @@
       <c r="D17" s="1" t="s">
         <v>323</v>
       </c>
-      <c r="E17" s="4" t="s">
-        <v>117</v>
+      <c r="E17" s="1" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7617,8 +7611,8 @@
       <c r="D18" s="1" t="s">
         <v>326</v>
       </c>
-      <c r="E18" s="4" t="s">
-        <v>117</v>
+      <c r="E18" s="1" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7631,8 +7625,8 @@
       <c r="D19" s="1" t="s">
         <v>329</v>
       </c>
-      <c r="E19" s="4" t="s">
-        <v>117</v>
+      <c r="E19" s="1" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7645,7 +7639,6 @@
       <c r="D20" s="1" t="s">
         <v>332</v>
       </c>
-      <c r="E20" s="4"/>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="2" t="s">
@@ -7657,8 +7650,8 @@
       <c r="D21" s="1" t="s">
         <v>335</v>
       </c>
-      <c r="E21" s="4" t="s">
-        <v>117</v>
+      <c r="E21" s="1" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7671,8 +7664,8 @@
       <c r="D22" s="1" t="s">
         <v>337</v>
       </c>
-      <c r="E22" s="4" t="s">
-        <v>117</v>
+      <c r="E22" s="1" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7685,8 +7678,8 @@
       <c r="D23" s="1" t="s">
         <v>340</v>
       </c>
-      <c r="E23" s="4" t="s">
-        <v>117</v>
+      <c r="E23" s="1" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7699,8 +7692,8 @@
       <c r="D24" s="1" t="s">
         <v>343</v>
       </c>
-      <c r="E24" s="4" t="s">
-        <v>117</v>
+      <c r="E24" s="1" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7713,8 +7706,8 @@
       <c r="D25" s="1" t="s">
         <v>346</v>
       </c>
-      <c r="E25" s="4" t="s">
-        <v>117</v>
+      <c r="E25" s="1" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7727,8 +7720,8 @@
       <c r="D26" s="1" t="s">
         <v>349</v>
       </c>
-      <c r="E26" s="4" t="s">
-        <v>117</v>
+      <c r="E26" s="1" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7741,8 +7734,8 @@
       <c r="D27" s="1" t="s">
         <v>352</v>
       </c>
-      <c r="E27" s="4" t="s">
-        <v>117</v>
+      <c r="E27" s="1" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7755,8 +7748,8 @@
       <c r="D28" s="1" t="s">
         <v>355</v>
       </c>
-      <c r="E28" s="4" t="s">
-        <v>117</v>
+      <c r="E28" s="1" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7769,8 +7762,8 @@
       <c r="D29" s="1" t="s">
         <v>358</v>
       </c>
-      <c r="E29" s="4" t="s">
-        <v>117</v>
+      <c r="E29" s="1" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7783,8 +7776,8 @@
       <c r="D30" s="1" t="s">
         <v>361</v>
       </c>
-      <c r="E30" s="4" t="s">
-        <v>117</v>
+      <c r="E30" s="1" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7797,8 +7790,8 @@
       <c r="D31" s="1" t="s">
         <v>364</v>
       </c>
-      <c r="E31" s="4" t="s">
-        <v>117</v>
+      <c r="E31" s="1" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7811,8 +7804,8 @@
       <c r="D32" s="1" t="s">
         <v>367</v>
       </c>
-      <c r="E32" s="4" t="s">
-        <v>117</v>
+      <c r="E32" s="1" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7825,8 +7818,8 @@
       <c r="D33" s="1" t="s">
         <v>370</v>
       </c>
-      <c r="E33" s="4" t="s">
-        <v>117</v>
+      <c r="E33" s="1" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7839,8 +7832,8 @@
       <c r="D34" s="1" t="s">
         <v>373</v>
       </c>
-      <c r="E34" s="4" t="s">
-        <v>117</v>
+      <c r="E34" s="1" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7853,8 +7846,8 @@
       <c r="D35" s="1" t="s">
         <v>376</v>
       </c>
-      <c r="E35" s="4" t="s">
-        <v>117</v>
+      <c r="E35" s="1" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7867,8 +7860,8 @@
       <c r="D36" s="1" t="s">
         <v>379</v>
       </c>
-      <c r="E36" s="4" t="s">
-        <v>117</v>
+      <c r="E36" s="1" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7881,8 +7874,8 @@
       <c r="D37" s="1" t="s">
         <v>382</v>
       </c>
-      <c r="E37" s="4" t="s">
-        <v>117</v>
+      <c r="E37" s="1" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7895,8 +7888,8 @@
       <c r="D38" s="1" t="s">
         <v>385</v>
       </c>
-      <c r="E38" s="4" t="s">
-        <v>117</v>
+      <c r="E38" s="1" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7909,8 +7902,8 @@
       <c r="D39" s="1" t="s">
         <v>388</v>
       </c>
-      <c r="E39" s="4" t="s">
-        <v>117</v>
+      <c r="E39" s="1" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7923,7 +7916,6 @@
       <c r="D40" s="1" t="s">
         <v>391</v>
       </c>
-      <c r="E40" s="4"/>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="2" t="s">
@@ -7935,8 +7927,8 @@
       <c r="D41" s="1" t="s">
         <v>394</v>
       </c>
-      <c r="E41" s="4" t="s">
-        <v>117</v>
+      <c r="E41" s="1" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7949,8 +7941,8 @@
       <c r="D42" s="1" t="s">
         <v>397</v>
       </c>
-      <c r="E42" s="4" t="s">
-        <v>117</v>
+      <c r="E42" s="1" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7963,8 +7955,8 @@
       <c r="D43" s="1" t="s">
         <v>400</v>
       </c>
-      <c r="E43" s="4" t="s">
-        <v>117</v>
+      <c r="E43" s="1" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7977,8 +7969,8 @@
       <c r="D44" s="1" t="s">
         <v>403</v>
       </c>
-      <c r="E44" s="4" t="s">
-        <v>117</v>
+      <c r="E44" s="1" t="s">
+        <v>120</v>
       </c>
     </row>
   </sheetData>
@@ -8024,10 +8016,10 @@
       <c r="D1" s="1" t="s">
         <v>406</v>
       </c>
-      <c r="F1" s="4" t="s">
-        <v>117</v>
-      </c>
-      <c r="H1" s="5" t="b">
+      <c r="F1" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="H1" s="4" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -8042,8 +8034,8 @@
       <c r="D2" s="1" t="s">
         <v>409</v>
       </c>
-      <c r="F2" s="4" t="s">
-        <v>117</v>
+      <c r="F2" s="1" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8056,8 +8048,8 @@
       <c r="D3" s="1" t="s">
         <v>412</v>
       </c>
-      <c r="F3" s="4" t="s">
-        <v>117</v>
+      <c r="F3" s="1" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8070,8 +8062,8 @@
       <c r="D4" s="1" t="s">
         <v>415</v>
       </c>
-      <c r="F4" s="4" t="s">
-        <v>117</v>
+      <c r="F4" s="1" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8084,8 +8076,8 @@
       <c r="D5" s="1" t="s">
         <v>418</v>
       </c>
-      <c r="F5" s="4" t="s">
-        <v>117</v>
+      <c r="F5" s="1" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8098,8 +8090,8 @@
       <c r="D6" s="1" t="s">
         <v>421</v>
       </c>
-      <c r="F6" s="4" t="s">
-        <v>117</v>
+      <c r="F6" s="1" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8112,8 +8104,8 @@
       <c r="D7" s="1" t="s">
         <v>424</v>
       </c>
-      <c r="F7" s="4" t="s">
-        <v>117</v>
+      <c r="F7" s="1" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8126,8 +8118,8 @@
       <c r="D8" s="1" t="s">
         <v>427</v>
       </c>
-      <c r="F8" s="4" t="s">
-        <v>117</v>
+      <c r="F8" s="1" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8140,8 +8132,8 @@
       <c r="D9" s="1" t="s">
         <v>430</v>
       </c>
-      <c r="F9" s="4" t="s">
-        <v>117</v>
+      <c r="F9" s="1" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8154,8 +8146,8 @@
       <c r="D10" s="1" t="s">
         <v>433</v>
       </c>
-      <c r="F10" s="4" t="s">
-        <v>117</v>
+      <c r="F10" s="1" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8168,8 +8160,8 @@
       <c r="D11" s="1" t="s">
         <v>436</v>
       </c>
-      <c r="F11" s="4" t="s">
-        <v>117</v>
+      <c r="F11" s="1" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8182,8 +8174,8 @@
       <c r="D12" s="1" t="s">
         <v>439</v>
       </c>
-      <c r="F12" s="4" t="s">
-        <v>117</v>
+      <c r="F12" s="1" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8196,8 +8188,8 @@
       <c r="D13" s="1" t="s">
         <v>442</v>
       </c>
-      <c r="F13" s="4" t="s">
-        <v>117</v>
+      <c r="F13" s="1" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8210,8 +8202,8 @@
       <c r="D14" s="1" t="s">
         <v>445</v>
       </c>
-      <c r="F14" s="4" t="s">
-        <v>117</v>
+      <c r="F14" s="1" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8224,8 +8216,8 @@
       <c r="D15" s="1" t="s">
         <v>448</v>
       </c>
-      <c r="F15" s="4" t="s">
-        <v>117</v>
+      <c r="F15" s="1" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8238,8 +8230,8 @@
       <c r="D16" s="1" t="s">
         <v>451</v>
       </c>
-      <c r="F16" s="4" t="s">
-        <v>117</v>
+      <c r="F16" s="1" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8252,8 +8244,8 @@
       <c r="D17" s="1" t="s">
         <v>454</v>
       </c>
-      <c r="F17" s="4" t="s">
-        <v>117</v>
+      <c r="F17" s="1" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8266,8 +8258,8 @@
       <c r="D18" s="1" t="s">
         <v>457</v>
       </c>
-      <c r="F18" s="4" t="s">
-        <v>117</v>
+      <c r="F18" s="1" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8280,8 +8272,8 @@
       <c r="D19" s="1" t="s">
         <v>460</v>
       </c>
-      <c r="F19" s="4" t="s">
-        <v>117</v>
+      <c r="F19" s="1" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8294,7 +8286,6 @@
       <c r="D20" s="1" t="s">
         <v>463</v>
       </c>
-      <c r="F20" s="4"/>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="s">
@@ -8306,8 +8297,8 @@
       <c r="D21" s="1" t="s">
         <v>466</v>
       </c>
-      <c r="F21" s="4" t="s">
-        <v>117</v>
+      <c r="F21" s="1" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8320,8 +8311,8 @@
       <c r="D22" s="1" t="s">
         <v>469</v>
       </c>
-      <c r="F22" s="4" t="s">
-        <v>117</v>
+      <c r="F22" s="1" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8334,8 +8325,8 @@
       <c r="D23" s="1" t="s">
         <v>472</v>
       </c>
-      <c r="F23" s="4" t="s">
-        <v>117</v>
+      <c r="F23" s="1" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8348,8 +8339,8 @@
       <c r="D24" s="1" t="s">
         <v>475</v>
       </c>
-      <c r="F24" s="4" t="s">
-        <v>117</v>
+      <c r="F24" s="1" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8362,8 +8353,8 @@
       <c r="D25" s="1" t="s">
         <v>478</v>
       </c>
-      <c r="F25" s="4" t="s">
-        <v>117</v>
+      <c r="F25" s="1" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8376,8 +8367,8 @@
       <c r="D26" s="1" t="s">
         <v>481</v>
       </c>
-      <c r="F26" s="4" t="s">
-        <v>117</v>
+      <c r="F26" s="1" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8390,8 +8381,8 @@
       <c r="D27" s="1" t="s">
         <v>484</v>
       </c>
-      <c r="F27" s="4" t="s">
-        <v>117</v>
+      <c r="F27" s="1" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8404,8 +8395,8 @@
       <c r="D28" s="1" t="s">
         <v>487</v>
       </c>
-      <c r="F28" s="4" t="s">
-        <v>117</v>
+      <c r="F28" s="1" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8418,8 +8409,8 @@
       <c r="D29" s="1" t="s">
         <v>490</v>
       </c>
-      <c r="F29" s="4" t="s">
-        <v>117</v>
+      <c r="F29" s="1" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8432,8 +8423,8 @@
       <c r="D30" s="1" t="s">
         <v>493</v>
       </c>
-      <c r="F30" s="4" t="s">
-        <v>117</v>
+      <c r="F30" s="1" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8446,8 +8437,8 @@
       <c r="D31" s="1" t="s">
         <v>496</v>
       </c>
-      <c r="F31" s="4" t="s">
-        <v>117</v>
+      <c r="F31" s="1" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8460,8 +8451,8 @@
       <c r="D32" s="1" t="s">
         <v>497</v>
       </c>
-      <c r="F32" s="4" t="s">
-        <v>117</v>
+      <c r="F32" s="1" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8474,8 +8465,8 @@
       <c r="D33" s="1" t="s">
         <v>499</v>
       </c>
-      <c r="F33" s="4" t="s">
-        <v>117</v>
+      <c r="F33" s="1" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8488,8 +8479,8 @@
       <c r="D34" s="1" t="s">
         <v>503</v>
       </c>
-      <c r="F34" s="4" t="s">
-        <v>117</v>
+      <c r="F34" s="1" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8502,8 +8493,8 @@
       <c r="D35" s="1" t="s">
         <v>506</v>
       </c>
-      <c r="F35" s="4" t="s">
-        <v>117</v>
+      <c r="F35" s="1" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8516,8 +8507,8 @@
       <c r="D36" s="1" t="s">
         <v>509</v>
       </c>
-      <c r="F36" s="4" t="s">
-        <v>117</v>
+      <c r="F36" s="1" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8530,8 +8521,8 @@
       <c r="D37" s="1" t="s">
         <v>512</v>
       </c>
-      <c r="F37" s="4" t="s">
-        <v>117</v>
+      <c r="F37" s="1" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8544,8 +8535,8 @@
       <c r="D38" s="1" t="s">
         <v>515</v>
       </c>
-      <c r="F38" s="4" t="s">
-        <v>117</v>
+      <c r="F38" s="1" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8558,8 +8549,8 @@
       <c r="D39" s="1" t="s">
         <v>518</v>
       </c>
-      <c r="F39" s="4" t="s">
-        <v>117</v>
+      <c r="F39" s="1" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8572,7 +8563,6 @@
       <c r="D40" s="1" t="s">
         <v>521</v>
       </c>
-      <c r="F40" s="4"/>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="1" t="s">
@@ -8584,8 +8574,8 @@
       <c r="D41" s="1" t="s">
         <v>524</v>
       </c>
-      <c r="F41" s="4" t="s">
-        <v>117</v>
+      <c r="F41" s="1" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8598,8 +8588,8 @@
       <c r="D42" s="1" t="s">
         <v>527</v>
       </c>
-      <c r="F42" s="4" t="s">
-        <v>117</v>
+      <c r="F42" s="1" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8612,8 +8602,8 @@
       <c r="D43" s="1" t="s">
         <v>530</v>
       </c>
-      <c r="F43" s="4" t="s">
-        <v>117</v>
+      <c r="F43" s="1" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8626,8 +8616,8 @@
       <c r="D44" s="1" t="s">
         <v>533</v>
       </c>
-      <c r="F44" s="4" t="s">
-        <v>117</v>
+      <c r="F44" s="1" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8640,8 +8630,8 @@
       <c r="D45" s="1" t="s">
         <v>536</v>
       </c>
-      <c r="F45" s="4" t="s">
-        <v>117</v>
+      <c r="F45" s="1" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8654,8 +8644,8 @@
       <c r="D46" s="1" t="s">
         <v>539</v>
       </c>
-      <c r="F46" s="4" t="s">
-        <v>117</v>
+      <c r="F46" s="1" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8668,8 +8658,8 @@
       <c r="D47" s="1" t="s">
         <v>542</v>
       </c>
-      <c r="F47" s="4" t="s">
-        <v>117</v>
+      <c r="F47" s="1" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8682,8 +8672,8 @@
       <c r="D48" s="1" t="s">
         <v>545</v>
       </c>
-      <c r="F48" s="4" t="s">
-        <v>117</v>
+      <c r="F48" s="1" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8696,8 +8686,8 @@
       <c r="D49" s="1" t="s">
         <v>548</v>
       </c>
-      <c r="F49" s="4" t="s">
-        <v>117</v>
+      <c r="F49" s="1" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8710,8 +8700,8 @@
       <c r="D50" s="1" t="s">
         <v>551</v>
       </c>
-      <c r="F50" s="4" t="s">
-        <v>117</v>
+      <c r="F50" s="1" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8724,8 +8714,8 @@
       <c r="D51" s="1" t="s">
         <v>554</v>
       </c>
-      <c r="F51" s="4" t="s">
-        <v>117</v>
+      <c r="F51" s="1" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8738,8 +8728,8 @@
       <c r="D52" s="1" t="s">
         <v>557</v>
       </c>
-      <c r="F52" s="4" t="s">
-        <v>117</v>
+      <c r="F52" s="1" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8752,8 +8742,8 @@
       <c r="D53" s="1" t="s">
         <v>560</v>
       </c>
-      <c r="F53" s="4" t="s">
-        <v>117</v>
+      <c r="F53" s="1" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8766,8 +8756,8 @@
       <c r="D54" s="1" t="s">
         <v>563</v>
       </c>
-      <c r="F54" s="4" t="s">
-        <v>117</v>
+      <c r="F54" s="1" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8780,8 +8770,8 @@
       <c r="D55" s="1" t="s">
         <v>566</v>
       </c>
-      <c r="F55" s="4" t="s">
-        <v>117</v>
+      <c r="F55" s="1" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8794,8 +8784,8 @@
       <c r="D56" s="1" t="s">
         <v>569</v>
       </c>
-      <c r="F56" s="4" t="s">
-        <v>117</v>
+      <c r="F56" s="1" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8808,8 +8798,8 @@
       <c r="D57" s="1" t="s">
         <v>572</v>
       </c>
-      <c r="F57" s="4" t="s">
-        <v>117</v>
+      <c r="F57" s="1" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8822,8 +8812,8 @@
       <c r="D58" s="1" t="s">
         <v>575</v>
       </c>
-      <c r="F58" s="4" t="s">
-        <v>117</v>
+      <c r="F58" s="1" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8836,8 +8826,8 @@
       <c r="D59" s="1" t="s">
         <v>578</v>
       </c>
-      <c r="F59" s="4" t="s">
-        <v>117</v>
+      <c r="F59" s="1" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8850,8 +8840,8 @@
       <c r="D60" s="1" t="s">
         <v>581</v>
       </c>
-      <c r="F60" s="4" t="s">
-        <v>117</v>
+      <c r="F60" s="1" t="s">
+        <v>120</v>
       </c>
     </row>
   </sheetData>
@@ -8894,8 +8884,8 @@
       <c r="D1" s="1" t="s">
         <v>584</v>
       </c>
-      <c r="F1" s="4" t="s">
-        <v>117</v>
+      <c r="F1" s="1" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8908,8 +8898,8 @@
       <c r="D2" s="1" t="s">
         <v>587</v>
       </c>
-      <c r="F2" s="4" t="s">
-        <v>117</v>
+      <c r="F2" s="1" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8922,8 +8912,8 @@
       <c r="D3" s="1" t="s">
         <v>590</v>
       </c>
-      <c r="F3" s="4" t="s">
-        <v>117</v>
+      <c r="F3" s="1" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8936,8 +8926,8 @@
       <c r="D4" s="1" t="s">
         <v>263</v>
       </c>
-      <c r="F4" s="4" t="s">
-        <v>117</v>
+      <c r="F4" s="1" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8950,8 +8940,8 @@
       <c r="D5" s="1" t="s">
         <v>595</v>
       </c>
-      <c r="F5" s="4" t="s">
-        <v>117</v>
+      <c r="F5" s="1" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8964,8 +8954,8 @@
       <c r="D6" s="1" t="s">
         <v>598</v>
       </c>
-      <c r="F6" s="4" t="s">
-        <v>117</v>
+      <c r="F6" s="1" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8978,8 +8968,8 @@
       <c r="D7" s="1" t="s">
         <v>601</v>
       </c>
-      <c r="F7" s="4" t="s">
-        <v>117</v>
+      <c r="F7" s="1" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8992,8 +8982,8 @@
       <c r="D8" s="1" t="s">
         <v>604</v>
       </c>
-      <c r="F8" s="4" t="s">
-        <v>117</v>
+      <c r="F8" s="1" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9006,8 +8996,8 @@
       <c r="D9" s="1" t="s">
         <v>607</v>
       </c>
-      <c r="F9" s="4" t="s">
-        <v>117</v>
+      <c r="F9" s="1" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9020,8 +9010,8 @@
       <c r="D10" s="1" t="s">
         <v>610</v>
       </c>
-      <c r="F10" s="4" t="s">
-        <v>117</v>
+      <c r="F10" s="1" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9034,8 +9024,8 @@
       <c r="D11" s="1" t="s">
         <v>613</v>
       </c>
-      <c r="F11" s="4" t="s">
-        <v>117</v>
+      <c r="F11" s="1" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9048,8 +9038,8 @@
       <c r="D12" s="1" t="s">
         <v>616</v>
       </c>
-      <c r="F12" s="4" t="s">
-        <v>117</v>
+      <c r="F12" s="1" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9062,8 +9052,8 @@
       <c r="D13" s="1" t="s">
         <v>617</v>
       </c>
-      <c r="F13" s="4" t="s">
-        <v>117</v>
+      <c r="F13" s="1" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9076,8 +9066,8 @@
       <c r="D14" s="1" t="s">
         <v>621</v>
       </c>
-      <c r="F14" s="4" t="s">
-        <v>117</v>
+      <c r="F14" s="1" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9090,8 +9080,8 @@
       <c r="D15" s="1" t="s">
         <v>624</v>
       </c>
-      <c r="F15" s="4" t="s">
-        <v>117</v>
+      <c r="F15" s="1" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9104,8 +9094,8 @@
       <c r="D16" s="1" t="s">
         <v>625</v>
       </c>
-      <c r="F16" s="4" t="s">
-        <v>117</v>
+      <c r="F16" s="1" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9118,8 +9108,8 @@
       <c r="D17" s="1" t="s">
         <v>629</v>
       </c>
-      <c r="F17" s="4" t="s">
-        <v>117</v>
+      <c r="F17" s="1" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9132,8 +9122,8 @@
       <c r="D18" s="1" t="s">
         <v>632</v>
       </c>
-      <c r="F18" s="4" t="s">
-        <v>117</v>
+      <c r="F18" s="1" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9146,8 +9136,8 @@
       <c r="D19" s="1" t="s">
         <v>635</v>
       </c>
-      <c r="F19" s="4" t="s">
-        <v>117</v>
+      <c r="F19" s="1" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9160,7 +9150,6 @@
       <c r="D20" s="1" t="s">
         <v>638</v>
       </c>
-      <c r="F20" s="4"/>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="s">
@@ -9172,8 +9161,8 @@
       <c r="D21" s="1" t="s">
         <v>641</v>
       </c>
-      <c r="F21" s="4" t="s">
-        <v>117</v>
+      <c r="F21" s="1" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9186,8 +9175,8 @@
       <c r="D22" s="1" t="s">
         <v>644</v>
       </c>
-      <c r="F22" s="4" t="s">
-        <v>117</v>
+      <c r="F22" s="1" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9200,8 +9189,8 @@
       <c r="D23" s="1" t="s">
         <v>647</v>
       </c>
-      <c r="F23" s="4" t="s">
-        <v>117</v>
+      <c r="F23" s="1" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9214,8 +9203,8 @@
       <c r="D24" s="1" t="s">
         <v>650</v>
       </c>
-      <c r="F24" s="4" t="s">
-        <v>117</v>
+      <c r="F24" s="1" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9228,8 +9217,8 @@
       <c r="D25" s="1" t="s">
         <v>653</v>
       </c>
-      <c r="F25" s="4" t="s">
-        <v>117</v>
+      <c r="F25" s="1" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9242,8 +9231,8 @@
       <c r="D26" s="1" t="s">
         <v>656</v>
       </c>
-      <c r="F26" s="4" t="s">
-        <v>117</v>
+      <c r="F26" s="1" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9256,8 +9245,8 @@
       <c r="D27" s="1" t="s">
         <v>657</v>
       </c>
-      <c r="F27" s="4" t="s">
-        <v>117</v>
+      <c r="F27" s="1" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9270,8 +9259,8 @@
       <c r="D28" s="1" t="s">
         <v>661</v>
       </c>
-      <c r="F28" s="4" t="s">
-        <v>117</v>
+      <c r="F28" s="1" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9284,8 +9273,8 @@
       <c r="D29" s="1" t="s">
         <v>664</v>
       </c>
-      <c r="F29" s="4" t="s">
-        <v>117</v>
+      <c r="F29" s="1" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9298,8 +9287,8 @@
       <c r="D30" s="1" t="s">
         <v>667</v>
       </c>
-      <c r="F30" s="4" t="s">
-        <v>117</v>
+      <c r="F30" s="1" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9312,8 +9301,8 @@
       <c r="D31" s="1" t="s">
         <v>670</v>
       </c>
-      <c r="F31" s="4" t="s">
-        <v>117</v>
+      <c r="F31" s="1" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9326,8 +9315,8 @@
       <c r="D32" s="1" t="s">
         <v>673</v>
       </c>
-      <c r="F32" s="4" t="s">
-        <v>117</v>
+      <c r="F32" s="1" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9340,8 +9329,8 @@
       <c r="D33" s="1" t="s">
         <v>674</v>
       </c>
-      <c r="F33" s="4" t="s">
-        <v>117</v>
+      <c r="F33" s="1" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9354,8 +9343,8 @@
       <c r="D34" s="1" t="s">
         <v>678</v>
       </c>
-      <c r="F34" s="4" t="s">
-        <v>117</v>
+      <c r="F34" s="1" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9368,8 +9357,8 @@
       <c r="D35" s="1" t="s">
         <v>681</v>
       </c>
-      <c r="F35" s="4" t="s">
-        <v>117</v>
+      <c r="F35" s="1" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9382,8 +9371,8 @@
       <c r="D36" s="1" t="s">
         <v>684</v>
       </c>
-      <c r="F36" s="4" t="s">
-        <v>117</v>
+      <c r="F36" s="1" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9396,8 +9385,8 @@
       <c r="D37" s="1" t="s">
         <v>686</v>
       </c>
-      <c r="F37" s="4" t="s">
-        <v>117</v>
+      <c r="F37" s="1" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9410,8 +9399,8 @@
       <c r="D38" s="1" t="s">
         <v>689</v>
       </c>
-      <c r="F38" s="4" t="s">
-        <v>117</v>
+      <c r="F38" s="1" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9424,8 +9413,8 @@
       <c r="D39" s="1" t="s">
         <v>692</v>
       </c>
-      <c r="F39" s="4" t="s">
-        <v>117</v>
+      <c r="F39" s="1" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9438,7 +9427,6 @@
       <c r="D40" s="1" t="s">
         <v>695</v>
       </c>
-      <c r="F40" s="4"/>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="1" t="s">
@@ -9450,8 +9438,8 @@
       <c r="D41" s="1" t="s">
         <v>698</v>
       </c>
-      <c r="F41" s="4" t="s">
-        <v>117</v>
+      <c r="F41" s="1" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9464,8 +9452,8 @@
       <c r="D42" s="1" t="s">
         <v>701</v>
       </c>
-      <c r="F42" s="4" t="s">
-        <v>117</v>
+      <c r="F42" s="1" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9478,8 +9466,8 @@
       <c r="D43" s="1" t="s">
         <v>704</v>
       </c>
-      <c r="F43" s="4" t="s">
-        <v>117</v>
+      <c r="F43" s="1" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9492,8 +9480,8 @@
       <c r="D44" s="1" t="s">
         <v>707</v>
       </c>
-      <c r="F44" s="4" t="s">
-        <v>117</v>
+      <c r="F44" s="1" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9506,8 +9494,8 @@
       <c r="D45" s="1" t="s">
         <v>710</v>
       </c>
-      <c r="F45" s="4" t="s">
-        <v>117</v>
+      <c r="F45" s="1" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9520,8 +9508,8 @@
       <c r="D46" s="1" t="s">
         <v>713</v>
       </c>
-      <c r="F46" s="4" t="s">
-        <v>117</v>
+      <c r="F46" s="1" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9534,8 +9522,8 @@
       <c r="D47" s="1" t="s">
         <v>716</v>
       </c>
-      <c r="F47" s="4" t="s">
-        <v>117</v>
+      <c r="F47" s="1" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9548,8 +9536,8 @@
       <c r="D48" s="1" t="s">
         <v>719</v>
       </c>
-      <c r="F48" s="4" t="s">
-        <v>117</v>
+      <c r="F48" s="1" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9562,8 +9550,8 @@
       <c r="D49" s="1" t="s">
         <v>722</v>
       </c>
-      <c r="F49" s="4" t="s">
-        <v>117</v>
+      <c r="F49" s="1" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9576,8 +9564,8 @@
       <c r="D50" s="1" t="s">
         <v>725</v>
       </c>
-      <c r="F50" s="4" t="s">
-        <v>117</v>
+      <c r="F50" s="1" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9590,8 +9578,8 @@
       <c r="D51" s="1" t="s">
         <v>728</v>
       </c>
-      <c r="F51" s="4" t="s">
-        <v>117</v>
+      <c r="F51" s="1" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9604,8 +9592,8 @@
       <c r="D52" s="1" t="s">
         <v>731</v>
       </c>
-      <c r="F52" s="4" t="s">
-        <v>117</v>
+      <c r="F52" s="1" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9618,8 +9606,8 @@
       <c r="D53" s="1" t="s">
         <v>734</v>
       </c>
-      <c r="F53" s="4" t="s">
-        <v>117</v>
+      <c r="F53" s="1" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9632,8 +9620,8 @@
       <c r="D54" s="1" t="s">
         <v>737</v>
       </c>
-      <c r="F54" s="4" t="s">
-        <v>117</v>
+      <c r="F54" s="1" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9646,8 +9634,8 @@
       <c r="D55" s="1" t="s">
         <v>740</v>
       </c>
-      <c r="F55" s="4" t="s">
-        <v>117</v>
+      <c r="F55" s="1" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9660,8 +9648,8 @@
       <c r="D56" s="1" t="s">
         <v>743</v>
       </c>
-      <c r="F56" s="4" t="s">
-        <v>117</v>
+      <c r="F56" s="1" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9674,8 +9662,8 @@
       <c r="D57" s="1" t="s">
         <v>746</v>
       </c>
-      <c r="F57" s="4" t="s">
-        <v>117</v>
+      <c r="F57" s="1" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9688,8 +9676,8 @@
       <c r="D58" s="1" t="s">
         <v>749</v>
       </c>
-      <c r="F58" s="4" t="s">
-        <v>117</v>
+      <c r="F58" s="1" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9702,8 +9690,8 @@
       <c r="D59" s="1" t="s">
         <v>752</v>
       </c>
-      <c r="F59" s="4" t="s">
-        <v>117</v>
+      <c r="F59" s="1" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9716,7 +9704,6 @@
       <c r="D60" s="1" t="s">
         <v>755</v>
       </c>
-      <c r="F60" s="4"/>
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="1" t="s">
@@ -9728,8 +9715,8 @@
       <c r="D61" s="1" t="s">
         <v>756</v>
       </c>
-      <c r="F61" s="4" t="s">
-        <v>117</v>
+      <c r="F61" s="1" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9742,8 +9729,8 @@
       <c r="D62" s="1" t="s">
         <v>760</v>
       </c>
-      <c r="F62" s="4" t="s">
-        <v>117</v>
+      <c r="F62" s="1" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9756,8 +9743,8 @@
       <c r="D63" s="1" t="s">
         <v>763</v>
       </c>
-      <c r="F63" s="4" t="s">
-        <v>117</v>
+      <c r="F63" s="1" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9770,8 +9757,8 @@
       <c r="D64" s="1" t="s">
         <v>766</v>
       </c>
-      <c r="F64" s="4" t="s">
-        <v>117</v>
+      <c r="F64" s="1" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9784,8 +9771,8 @@
       <c r="D65" s="1" t="s">
         <v>767</v>
       </c>
-      <c r="F65" s="4" t="s">
-        <v>117</v>
+      <c r="F65" s="1" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9798,8 +9785,8 @@
       <c r="D66" s="1" t="s">
         <v>771</v>
       </c>
-      <c r="F66" s="4" t="s">
-        <v>117</v>
+      <c r="F66" s="1" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9812,8 +9799,8 @@
       <c r="D67" s="1" t="s">
         <v>774</v>
       </c>
-      <c r="F67" s="4" t="s">
-        <v>117</v>
+      <c r="F67" s="1" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9826,8 +9813,8 @@
       <c r="D68" s="1" t="s">
         <v>777</v>
       </c>
-      <c r="F68" s="4" t="s">
-        <v>117</v>
+      <c r="F68" s="1" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9840,8 +9827,8 @@
       <c r="D69" s="1" t="s">
         <v>780</v>
       </c>
-      <c r="F69" s="4" t="s">
-        <v>117</v>
+      <c r="F69" s="1" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9854,8 +9841,8 @@
       <c r="D70" s="1" t="s">
         <v>782</v>
       </c>
-      <c r="F70" s="4" t="s">
-        <v>117</v>
+      <c r="F70" s="1" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9868,8 +9855,8 @@
       <c r="D71" s="1" t="s">
         <v>785</v>
       </c>
-      <c r="F71" s="4" t="s">
-        <v>117</v>
+      <c r="F71" s="1" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9882,8 +9869,8 @@
       <c r="D72" s="1" t="s">
         <v>788</v>
       </c>
-      <c r="F72" s="4" t="s">
-        <v>117</v>
+      <c r="F72" s="1" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9896,8 +9883,8 @@
       <c r="D73" s="1" t="s">
         <v>791</v>
       </c>
-      <c r="F73" s="4" t="s">
-        <v>117</v>
+      <c r="F73" s="1" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9910,8 +9897,8 @@
       <c r="D74" s="1" t="s">
         <v>794</v>
       </c>
-      <c r="F74" s="4" t="s">
-        <v>117</v>
+      <c r="F74" s="1" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9924,8 +9911,8 @@
       <c r="D75" s="1" t="s">
         <v>797</v>
       </c>
-      <c r="F75" s="4" t="s">
-        <v>117</v>
+      <c r="F75" s="1" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9938,8 +9925,8 @@
       <c r="D76" s="1" t="s">
         <v>800</v>
       </c>
-      <c r="F76" s="4" t="s">
-        <v>117</v>
+      <c r="F76" s="1" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9952,8 +9939,8 @@
       <c r="D77" s="1" t="s">
         <v>198</v>
       </c>
-      <c r="F77" s="4" t="s">
-        <v>117</v>
+      <c r="F77" s="1" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9966,8 +9953,8 @@
       <c r="D78" s="1" t="s">
         <v>805</v>
       </c>
-      <c r="F78" s="4" t="s">
-        <v>117</v>
+      <c r="F78" s="1" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9980,8 +9967,8 @@
       <c r="D79" s="1" t="s">
         <v>808</v>
       </c>
-      <c r="F79" s="4" t="s">
-        <v>117</v>
+      <c r="F79" s="1" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9994,7 +9981,6 @@
       <c r="D80" s="1" t="s">
         <v>811</v>
       </c>
-      <c r="F80" s="4"/>
     </row>
     <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="1" t="s">
@@ -10006,8 +9992,8 @@
       <c r="D81" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="F81" s="4" t="s">
-        <v>117</v>
+      <c r="F81" s="1" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10020,8 +10006,8 @@
       <c r="D82" s="1" t="s">
         <v>815</v>
       </c>
-      <c r="F82" s="4" t="s">
-        <v>117</v>
+      <c r="F82" s="1" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10034,8 +10020,8 @@
       <c r="D83" s="1" t="s">
         <v>817</v>
       </c>
-      <c r="F83" s="4" t="s">
-        <v>117</v>
+      <c r="F83" s="1" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10048,8 +10034,8 @@
       <c r="D84" s="1" t="s">
         <v>819</v>
       </c>
-      <c r="F84" s="4" t="s">
-        <v>117</v>
+      <c r="F84" s="1" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10062,8 +10048,8 @@
       <c r="D85" s="1" t="s">
         <v>822</v>
       </c>
-      <c r="F85" s="4" t="s">
-        <v>117</v>
+      <c r="F85" s="1" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10076,8 +10062,8 @@
       <c r="D86" s="1" t="s">
         <v>206</v>
       </c>
-      <c r="F86" s="4" t="s">
-        <v>117</v>
+      <c r="F86" s="1" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10090,8 +10076,8 @@
       <c r="D87" s="1" t="s">
         <v>826</v>
       </c>
-      <c r="F87" s="4" t="s">
-        <v>117</v>
+      <c r="F87" s="1" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10104,8 +10090,8 @@
       <c r="D88" s="1" t="s">
         <v>829</v>
       </c>
-      <c r="F88" s="4" t="s">
-        <v>117</v>
+      <c r="F88" s="1" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10118,8 +10104,8 @@
       <c r="D89" s="1" t="s">
         <v>832</v>
       </c>
-      <c r="F89" s="4" t="s">
-        <v>117</v>
+      <c r="F89" s="1" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10132,8 +10118,8 @@
       <c r="D90" s="1" t="s">
         <v>834</v>
       </c>
-      <c r="F90" s="4" t="s">
-        <v>117</v>
+      <c r="F90" s="1" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10146,8 +10132,8 @@
       <c r="D91" s="1" t="s">
         <v>266</v>
       </c>
-      <c r="F91" s="4" t="s">
-        <v>117</v>
+      <c r="F91" s="1" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10160,8 +10146,8 @@
       <c r="D92" s="1" t="s">
         <v>839</v>
       </c>
-      <c r="F92" s="4" t="s">
-        <v>117</v>
+      <c r="F92" s="1" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10174,8 +10160,8 @@
       <c r="D93" s="1" t="s">
         <v>842</v>
       </c>
-      <c r="F93" s="4" t="s">
-        <v>117</v>
+      <c r="F93" s="1" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10188,8 +10174,8 @@
       <c r="D94" s="1" t="s">
         <v>845</v>
       </c>
-      <c r="F94" s="4" t="s">
-        <v>117</v>
+      <c r="F94" s="1" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10202,8 +10188,8 @@
       <c r="D95" s="1" t="s">
         <v>848</v>
       </c>
-      <c r="F95" s="4" t="s">
-        <v>117</v>
+      <c r="F95" s="1" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10216,8 +10202,8 @@
       <c r="D96" s="1" t="s">
         <v>851</v>
       </c>
-      <c r="F96" s="4" t="s">
-        <v>117</v>
+      <c r="F96" s="1" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10230,8 +10216,8 @@
       <c r="D97" s="1" t="s">
         <v>854</v>
       </c>
-      <c r="F97" s="4" t="s">
-        <v>117</v>
+      <c r="F97" s="1" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10244,8 +10230,8 @@
       <c r="D98" s="1" t="s">
         <v>857</v>
       </c>
-      <c r="F98" s="4" t="s">
-        <v>117</v>
+      <c r="F98" s="1" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10258,8 +10244,8 @@
       <c r="D99" s="1" t="s">
         <v>860</v>
       </c>
-      <c r="F99" s="4" t="s">
-        <v>117</v>
+      <c r="F99" s="1" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10272,7 +10258,6 @@
       <c r="D100" s="1" t="s">
         <v>863</v>
       </c>
-      <c r="F100" s="4"/>
     </row>
     <row r="101" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="1" t="s">
@@ -10284,8 +10269,8 @@
       <c r="D101" s="1" t="s">
         <v>866</v>
       </c>
-      <c r="F101" s="4" t="s">
-        <v>117</v>
+      <c r="F101" s="1" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10298,8 +10283,8 @@
       <c r="D102" s="1" t="s">
         <v>868</v>
       </c>
-      <c r="F102" s="4" t="s">
-        <v>117</v>
+      <c r="F102" s="1" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10312,8 +10297,8 @@
       <c r="D103" s="1" t="s">
         <v>871</v>
       </c>
-      <c r="F103" s="4" t="s">
-        <v>117</v>
+      <c r="F103" s="1" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="104" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10326,8 +10311,8 @@
       <c r="D104" s="1" t="s">
         <v>874</v>
       </c>
-      <c r="F104" s="4" t="s">
-        <v>117</v>
+      <c r="F104" s="1" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="105" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10340,8 +10325,8 @@
       <c r="D105" s="1" t="s">
         <v>877</v>
       </c>
-      <c r="F105" s="4" t="s">
-        <v>117</v>
+      <c r="F105" s="1" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="106" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10354,8 +10339,8 @@
       <c r="D106" s="1" t="s">
         <v>880</v>
       </c>
-      <c r="F106" s="4" t="s">
-        <v>117</v>
+      <c r="F106" s="1" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="107" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10368,8 +10353,8 @@
       <c r="D107" s="1" t="s">
         <v>883</v>
       </c>
-      <c r="F107" s="4" t="s">
-        <v>117</v>
+      <c r="F107" s="1" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="108" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10382,8 +10367,8 @@
       <c r="D108" s="1" t="s">
         <v>886</v>
       </c>
-      <c r="F108" s="4" t="s">
-        <v>117</v>
+      <c r="F108" s="1" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="109" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10396,8 +10381,8 @@
       <c r="D109" s="1" t="s">
         <v>887</v>
       </c>
-      <c r="F109" s="4" t="s">
-        <v>117</v>
+      <c r="F109" s="1" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="110" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10410,8 +10395,8 @@
       <c r="D110" s="1" t="s">
         <v>889</v>
       </c>
-      <c r="F110" s="4" t="s">
-        <v>117</v>
+      <c r="F110" s="1" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="111" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10424,8 +10409,8 @@
       <c r="D111" s="1" t="s">
         <v>893</v>
       </c>
-      <c r="F111" s="4" t="s">
-        <v>117</v>
+      <c r="F111" s="1" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="112" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10438,8 +10423,8 @@
       <c r="D112" s="1" t="s">
         <v>896</v>
       </c>
-      <c r="F112" s="4" t="s">
-        <v>117</v>
+      <c r="F112" s="1" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="113" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10452,8 +10437,8 @@
       <c r="D113" s="1" t="s">
         <v>899</v>
       </c>
-      <c r="F113" s="4" t="s">
-        <v>117</v>
+      <c r="F113" s="1" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="114" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10466,8 +10451,8 @@
       <c r="D114" s="1" t="s">
         <v>902</v>
       </c>
-      <c r="F114" s="4" t="s">
-        <v>117</v>
+      <c r="F114" s="1" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="115" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10480,8 +10465,8 @@
       <c r="D115" s="1" t="s">
         <v>905</v>
       </c>
-      <c r="F115" s="4" t="s">
-        <v>117</v>
+      <c r="F115" s="1" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="116" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10494,8 +10479,8 @@
       <c r="D116" s="1" t="s">
         <v>908</v>
       </c>
-      <c r="F116" s="4" t="s">
-        <v>117</v>
+      <c r="F116" s="1" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="117" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10508,8 +10493,8 @@
       <c r="D117" s="1" t="s">
         <v>911</v>
       </c>
-      <c r="F117" s="4" t="s">
-        <v>117</v>
+      <c r="F117" s="1" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="118" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10522,8 +10507,8 @@
       <c r="D118" s="1" t="s">
         <v>913</v>
       </c>
-      <c r="F118" s="4" t="s">
-        <v>117</v>
+      <c r="F118" s="1" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="119" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10536,8 +10521,8 @@
       <c r="D119" s="1" t="s">
         <v>916</v>
       </c>
-      <c r="F119" s="4" t="s">
-        <v>117</v>
+      <c r="F119" s="1" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="120" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10550,7 +10535,6 @@
       <c r="D120" s="1" t="s">
         <v>919</v>
       </c>
-      <c r="F120" s="4"/>
     </row>
     <row r="121" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A121" s="1" t="s">
@@ -10562,8 +10546,8 @@
       <c r="D121" s="1" t="s">
         <v>922</v>
       </c>
-      <c r="F121" s="4" t="s">
-        <v>117</v>
+      <c r="F121" s="1" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="122" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10576,8 +10560,8 @@
       <c r="D122" s="1" t="s">
         <v>925</v>
       </c>
-      <c r="F122" s="4" t="s">
-        <v>117</v>
+      <c r="F122" s="1" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="123" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10590,8 +10574,8 @@
       <c r="D123" s="1" t="s">
         <v>928</v>
       </c>
-      <c r="F123" s="4" t="s">
-        <v>117</v>
+      <c r="F123" s="1" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="124" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10604,8 +10588,8 @@
       <c r="D124" s="1" t="s">
         <v>929</v>
       </c>
-      <c r="F124" s="4" t="s">
-        <v>117</v>
+      <c r="F124" s="1" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="125" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10618,8 +10602,8 @@
       <c r="D125" s="1" t="s">
         <v>933</v>
       </c>
-      <c r="F125" s="4" t="s">
-        <v>117</v>
+      <c r="F125" s="1" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="126" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10632,8 +10616,8 @@
       <c r="D126" s="1" t="s">
         <v>936</v>
       </c>
-      <c r="F126" s="4" t="s">
-        <v>117</v>
+      <c r="F126" s="1" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="127" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10646,8 +10630,8 @@
       <c r="D127" s="1" t="s">
         <v>939</v>
       </c>
-      <c r="F127" s="4" t="s">
-        <v>117</v>
+      <c r="F127" s="1" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="128" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10660,8 +10644,8 @@
       <c r="D128" s="1" t="s">
         <v>942</v>
       </c>
-      <c r="F128" s="4" t="s">
-        <v>117</v>
+      <c r="F128" s="1" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="129" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10674,8 +10658,8 @@
       <c r="D129" s="1" t="s">
         <v>945</v>
       </c>
-      <c r="F129" s="4" t="s">
-        <v>117</v>
+      <c r="F129" s="1" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="130" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10688,8 +10672,8 @@
       <c r="D130" s="1" t="s">
         <v>948</v>
       </c>
-      <c r="F130" s="4" t="s">
-        <v>117</v>
+      <c r="F130" s="1" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="131" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10702,8 +10686,8 @@
       <c r="D131" s="1" t="s">
         <v>951</v>
       </c>
-      <c r="F131" s="4" t="s">
-        <v>117</v>
+      <c r="F131" s="1" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="132" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10716,8 +10700,8 @@
       <c r="D132" s="1" t="s">
         <v>954</v>
       </c>
-      <c r="F132" s="4" t="s">
-        <v>117</v>
+      <c r="F132" s="1" t="s">
+        <v>120</v>
       </c>
     </row>
   </sheetData>
@@ -10763,8 +10747,8 @@
       <c r="D1" s="1" t="s">
         <v>957</v>
       </c>
-      <c r="F1" s="4" t="s">
-        <v>117</v>
+      <c r="F1" s="1" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10777,8 +10761,8 @@
       <c r="D2" s="1" t="s">
         <v>960</v>
       </c>
-      <c r="F2" s="4" t="s">
-        <v>117</v>
+      <c r="F2" s="1" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10791,8 +10775,8 @@
       <c r="D3" s="1" t="s">
         <v>963</v>
       </c>
-      <c r="F3" s="4" t="s">
-        <v>117</v>
+      <c r="F3" s="1" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10805,8 +10789,8 @@
       <c r="D4" s="1" t="s">
         <v>966</v>
       </c>
-      <c r="F4" s="4" t="s">
-        <v>117</v>
+      <c r="F4" s="1" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10819,8 +10803,8 @@
       <c r="D5" s="1" t="s">
         <v>969</v>
       </c>
-      <c r="F5" s="4" t="s">
-        <v>117</v>
+      <c r="F5" s="1" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10833,8 +10817,8 @@
       <c r="D6" s="1" t="s">
         <v>972</v>
       </c>
-      <c r="F6" s="4" t="s">
-        <v>117</v>
+      <c r="F6" s="1" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10847,8 +10831,8 @@
       <c r="D7" s="1" t="s">
         <v>975</v>
       </c>
-      <c r="F7" s="4" t="s">
-        <v>117</v>
+      <c r="F7" s="1" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10861,8 +10845,8 @@
       <c r="D8" s="1" t="s">
         <v>978</v>
       </c>
-      <c r="F8" s="4" t="s">
-        <v>117</v>
+      <c r="F8" s="1" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10875,8 +10859,8 @@
       <c r="D9" s="1" t="s">
         <v>981</v>
       </c>
-      <c r="F9" s="4" t="s">
-        <v>117</v>
+      <c r="F9" s="1" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10889,8 +10873,8 @@
       <c r="D10" s="1" t="s">
         <v>983</v>
       </c>
-      <c r="F10" s="4" t="s">
-        <v>117</v>
+      <c r="F10" s="1" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10903,8 +10887,8 @@
       <c r="D11" s="1" t="s">
         <v>986</v>
       </c>
-      <c r="F11" s="4" t="s">
-        <v>117</v>
+      <c r="F11" s="1" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10917,8 +10901,8 @@
       <c r="D12" s="1" t="s">
         <v>989</v>
       </c>
-      <c r="F12" s="4" t="s">
-        <v>117</v>
+      <c r="F12" s="1" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10931,8 +10915,8 @@
       <c r="D13" s="1" t="s">
         <v>992</v>
       </c>
-      <c r="F13" s="4" t="s">
-        <v>117</v>
+      <c r="F13" s="1" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10945,8 +10929,8 @@
       <c r="D14" s="1" t="s">
         <v>995</v>
       </c>
-      <c r="F14" s="4" t="s">
-        <v>117</v>
+      <c r="F14" s="1" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10959,8 +10943,8 @@
       <c r="D15" s="1" t="s">
         <v>997</v>
       </c>
-      <c r="F15" s="4" t="s">
-        <v>117</v>
+      <c r="F15" s="1" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10973,8 +10957,8 @@
       <c r="D16" s="1" t="s">
         <v>999</v>
       </c>
-      <c r="F16" s="4" t="s">
-        <v>117</v>
+      <c r="F16" s="1" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10987,8 +10971,8 @@
       <c r="D17" s="1" t="s">
         <v>1002</v>
       </c>
-      <c r="F17" s="4" t="s">
-        <v>117</v>
+      <c r="F17" s="1" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11001,8 +10985,8 @@
       <c r="D18" s="1" t="s">
         <v>997</v>
       </c>
-      <c r="F18" s="4" t="s">
-        <v>117</v>
+      <c r="F18" s="1" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11015,8 +10999,8 @@
       <c r="D19" s="1" t="s">
         <v>1006</v>
       </c>
-      <c r="F19" s="4" t="s">
-        <v>117</v>
+      <c r="F19" s="1" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11029,7 +11013,6 @@
       <c r="D20" s="1" t="s">
         <v>1009</v>
       </c>
-      <c r="F20" s="4"/>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="s">
@@ -11041,8 +11024,8 @@
       <c r="D21" s="1" t="s">
         <v>1011</v>
       </c>
-      <c r="F21" s="4" t="s">
-        <v>117</v>
+      <c r="F21" s="1" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11055,8 +11038,8 @@
       <c r="D22" s="1" t="s">
         <v>1014</v>
       </c>
-      <c r="F22" s="4" t="s">
-        <v>117</v>
+      <c r="F22" s="1" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11069,8 +11052,8 @@
       <c r="D23" s="1" t="s">
         <v>1017</v>
       </c>
-      <c r="F23" s="4" t="s">
-        <v>117</v>
+      <c r="F23" s="1" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11083,8 +11066,8 @@
       <c r="D24" s="1" t="s">
         <v>1020</v>
       </c>
-      <c r="F24" s="4" t="s">
-        <v>117</v>
+      <c r="F24" s="1" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11097,8 +11080,8 @@
       <c r="D25" s="1" t="s">
         <v>1023</v>
       </c>
-      <c r="F25" s="4" t="s">
-        <v>117</v>
+      <c r="F25" s="1" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11111,8 +11094,8 @@
       <c r="D26" s="1" t="s">
         <v>1026</v>
       </c>
-      <c r="F26" s="4" t="s">
-        <v>117</v>
+      <c r="F26" s="1" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11125,8 +11108,8 @@
       <c r="D27" s="1" t="s">
         <v>1029</v>
       </c>
-      <c r="F27" s="4" t="s">
-        <v>117</v>
+      <c r="F27" s="1" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11139,8 +11122,8 @@
       <c r="D28" s="1" t="s">
         <v>1032</v>
       </c>
-      <c r="F28" s="4" t="s">
-        <v>117</v>
+      <c r="F28" s="1" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11153,8 +11136,8 @@
       <c r="D29" s="1" t="s">
         <v>1035</v>
       </c>
-      <c r="F29" s="4" t="s">
-        <v>117</v>
+      <c r="F29" s="1" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11167,8 +11150,8 @@
       <c r="D30" s="1" t="s">
         <v>1038</v>
       </c>
-      <c r="F30" s="4" t="s">
-        <v>117</v>
+      <c r="F30" s="1" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11181,8 +11164,8 @@
       <c r="D31" s="1" t="s">
         <v>1041</v>
       </c>
-      <c r="F31" s="4" t="s">
-        <v>117</v>
+      <c r="F31" s="1" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11195,8 +11178,8 @@
       <c r="D32" s="1" t="s">
         <v>1043</v>
       </c>
-      <c r="F32" s="4" t="s">
-        <v>117</v>
+      <c r="F32" s="1" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11209,8 +11192,8 @@
       <c r="D33" s="1" t="s">
         <v>1046</v>
       </c>
-      <c r="F33" s="4" t="s">
-        <v>117</v>
+      <c r="F33" s="1" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11223,8 +11206,8 @@
       <c r="D34" s="1" t="s">
         <v>1049</v>
       </c>
-      <c r="F34" s="4" t="s">
-        <v>117</v>
+      <c r="F34" s="1" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11237,8 +11220,8 @@
       <c r="D35" s="1" t="s">
         <v>1052</v>
       </c>
-      <c r="F35" s="4" t="s">
-        <v>117</v>
+      <c r="F35" s="1" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11251,8 +11234,8 @@
       <c r="D36" s="1" t="s">
         <v>1055</v>
       </c>
-      <c r="F36" s="4" t="s">
-        <v>117</v>
+      <c r="F36" s="1" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11265,8 +11248,8 @@
       <c r="D37" s="1" t="s">
         <v>1058</v>
       </c>
-      <c r="F37" s="4" t="s">
-        <v>117</v>
+      <c r="F37" s="1" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11279,8 +11262,8 @@
       <c r="D38" s="1" t="s">
         <v>1061</v>
       </c>
-      <c r="F38" s="4" t="s">
-        <v>117</v>
+      <c r="F38" s="1" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11293,8 +11276,8 @@
       <c r="D39" s="1" t="s">
         <v>1064</v>
       </c>
-      <c r="F39" s="4" t="s">
-        <v>117</v>
+      <c r="F39" s="1" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11307,7 +11290,6 @@
       <c r="D40" s="1" t="s">
         <v>1067</v>
       </c>
-      <c r="F40" s="4"/>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="1" t="s">
@@ -11319,8 +11301,8 @@
       <c r="D41" s="1" t="s">
         <v>1070</v>
       </c>
-      <c r="F41" s="4" t="s">
-        <v>117</v>
+      <c r="F41" s="1" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11333,8 +11315,8 @@
       <c r="D42" s="1" t="s">
         <v>1073</v>
       </c>
-      <c r="F42" s="4" t="s">
-        <v>117</v>
+      <c r="F42" s="1" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11347,8 +11329,8 @@
       <c r="D43" s="1" t="s">
         <v>1075</v>
       </c>
-      <c r="F43" s="4" t="s">
-        <v>117</v>
+      <c r="F43" s="1" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11361,8 +11343,8 @@
       <c r="D44" s="1" t="s">
         <v>1078</v>
       </c>
-      <c r="F44" s="4" t="s">
-        <v>117</v>
+      <c r="F44" s="1" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11375,8 +11357,8 @@
       <c r="D45" s="1" t="s">
         <v>1081</v>
       </c>
-      <c r="F45" s="4" t="s">
-        <v>117</v>
+      <c r="F45" s="1" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11389,8 +11371,8 @@
       <c r="D46" s="1" t="s">
         <v>1084</v>
       </c>
-      <c r="F46" s="4" t="s">
-        <v>117</v>
+      <c r="F46" s="1" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11403,8 +11385,8 @@
       <c r="D47" s="1" t="s">
         <v>1087</v>
       </c>
-      <c r="F47" s="4" t="s">
-        <v>117</v>
+      <c r="F47" s="1" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11417,8 +11399,8 @@
       <c r="D48" s="1" t="s">
         <v>1090</v>
       </c>
-      <c r="F48" s="4" t="s">
-        <v>117</v>
+      <c r="F48" s="1" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11431,8 +11413,8 @@
       <c r="D49" s="1" t="s">
         <v>1093</v>
       </c>
-      <c r="F49" s="4" t="s">
-        <v>117</v>
+      <c r="F49" s="1" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11445,8 +11427,8 @@
       <c r="D50" s="1" t="s">
         <v>1096</v>
       </c>
-      <c r="F50" s="4" t="s">
-        <v>117</v>
+      <c r="F50" s="1" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11459,8 +11441,8 @@
       <c r="D51" s="1" t="s">
         <v>1098</v>
       </c>
-      <c r="F51" s="4" t="s">
-        <v>117</v>
+      <c r="F51" s="1" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11473,8 +11455,8 @@
       <c r="D52" s="1" t="s">
         <v>1100</v>
       </c>
-      <c r="F52" s="4" t="s">
-        <v>117</v>
+      <c r="F52" s="1" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11487,8 +11469,8 @@
       <c r="D53" s="1" t="s">
         <v>1103</v>
       </c>
-      <c r="F53" s="4" t="s">
-        <v>117</v>
+      <c r="F53" s="1" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11501,8 +11483,8 @@
       <c r="D54" s="1" t="s">
         <v>1106</v>
       </c>
-      <c r="F54" s="4" t="s">
-        <v>117</v>
+      <c r="F54" s="1" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11515,8 +11497,8 @@
       <c r="D55" s="1" t="s">
         <v>1109</v>
       </c>
-      <c r="F55" s="4" t="s">
-        <v>117</v>
+      <c r="F55" s="1" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11529,8 +11511,8 @@
       <c r="D56" s="1" t="s">
         <v>1112</v>
       </c>
-      <c r="F56" s="4" t="s">
-        <v>117</v>
+      <c r="F56" s="1" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11543,8 +11525,8 @@
       <c r="D57" s="1" t="s">
         <v>1115</v>
       </c>
-      <c r="F57" s="4" t="s">
-        <v>117</v>
+      <c r="F57" s="1" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11557,8 +11539,8 @@
       <c r="D58" s="1" t="s">
         <v>1118</v>
       </c>
-      <c r="F58" s="4" t="s">
-        <v>117</v>
+      <c r="F58" s="1" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11571,8 +11553,8 @@
       <c r="D59" s="1" t="s">
         <v>1120</v>
       </c>
-      <c r="F59" s="4" t="s">
-        <v>117</v>
+      <c r="F59" s="1" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11585,7 +11567,6 @@
       <c r="D60" s="1" t="s">
         <v>1123</v>
       </c>
-      <c r="F60" s="4"/>
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="1" t="s">
@@ -11597,8 +11578,8 @@
       <c r="D61" s="1" t="s">
         <v>1126</v>
       </c>
-      <c r="F61" s="4" t="s">
-        <v>117</v>
+      <c r="F61" s="1" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11611,8 +11592,8 @@
       <c r="D62" s="1" t="s">
         <v>1128</v>
       </c>
-      <c r="F62" s="4" t="s">
-        <v>117</v>
+      <c r="F62" s="1" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11625,8 +11606,8 @@
       <c r="D63" s="1" t="s">
         <v>1131</v>
       </c>
-      <c r="F63" s="4" t="s">
-        <v>117</v>
+      <c r="F63" s="1" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11639,8 +11620,8 @@
       <c r="D64" s="1" t="s">
         <v>1134</v>
       </c>
-      <c r="F64" s="4" t="s">
-        <v>117</v>
+      <c r="F64" s="1" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11653,8 +11634,8 @@
       <c r="D65" s="1" t="s">
         <v>1137</v>
       </c>
-      <c r="F65" s="4" t="s">
-        <v>117</v>
+      <c r="F65" s="1" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11667,8 +11648,8 @@
       <c r="D66" s="1" t="s">
         <v>1140</v>
       </c>
-      <c r="F66" s="4" t="s">
-        <v>117</v>
+      <c r="F66" s="1" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11681,8 +11662,8 @@
       <c r="D67" s="1" t="s">
         <v>1143</v>
       </c>
-      <c r="F67" s="4" t="s">
-        <v>117</v>
+      <c r="F67" s="1" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11695,8 +11676,8 @@
       <c r="D68" s="1" t="s">
         <v>1146</v>
       </c>
-      <c r="F68" s="4" t="s">
-        <v>117</v>
+      <c r="F68" s="1" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11709,8 +11690,8 @@
       <c r="D69" s="1" t="s">
         <v>1149</v>
       </c>
-      <c r="F69" s="4" t="s">
-        <v>117</v>
+      <c r="F69" s="1" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11723,8 +11704,8 @@
       <c r="D70" s="1" t="s">
         <v>1152</v>
       </c>
-      <c r="F70" s="4" t="s">
-        <v>117</v>
+      <c r="F70" s="1" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11737,8 +11718,8 @@
       <c r="D71" s="1" t="s">
         <v>1155</v>
       </c>
-      <c r="F71" s="4" t="s">
-        <v>117</v>
+      <c r="F71" s="1" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11751,8 +11732,8 @@
       <c r="D72" s="1" t="s">
         <v>1158</v>
       </c>
-      <c r="F72" s="4" t="s">
-        <v>117</v>
+      <c r="F72" s="1" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11765,8 +11746,8 @@
       <c r="D73" s="1" t="s">
         <v>1128</v>
       </c>
-      <c r="F73" s="4" t="s">
-        <v>117</v>
+      <c r="F73" s="1" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11779,8 +11760,8 @@
       <c r="D74" s="1" t="s">
         <v>1161</v>
       </c>
-      <c r="F74" s="4" t="s">
-        <v>117</v>
+      <c r="F74" s="1" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11793,8 +11774,8 @@
       <c r="D75" s="1" t="s">
         <v>1164</v>
       </c>
-      <c r="F75" s="4" t="s">
-        <v>117</v>
+      <c r="F75" s="1" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11807,8 +11788,8 @@
       <c r="D76" s="1" t="s">
         <v>1167</v>
       </c>
-      <c r="F76" s="4" t="s">
-        <v>117</v>
+      <c r="F76" s="1" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11821,8 +11802,8 @@
       <c r="D77" s="1" t="s">
         <v>1128</v>
       </c>
-      <c r="F77" s="4" t="s">
-        <v>117</v>
+      <c r="F77" s="1" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11835,8 +11816,8 @@
       <c r="D78" s="1" t="s">
         <v>1170</v>
       </c>
-      <c r="F78" s="4" t="s">
-        <v>117</v>
+      <c r="F78" s="1" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11849,8 +11830,8 @@
       <c r="D79" s="1" t="s">
         <v>1173</v>
       </c>
-      <c r="F79" s="4" t="s">
-        <v>117</v>
+      <c r="F79" s="1" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11863,7 +11844,6 @@
       <c r="D80" s="1" t="s">
         <v>1176</v>
       </c>
-      <c r="F80" s="4"/>
     </row>
     <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="1" t="s">
@@ -11875,8 +11855,8 @@
       <c r="D81" s="1" t="s">
         <v>1179</v>
       </c>
-      <c r="F81" s="4" t="s">
-        <v>117</v>
+      <c r="F81" s="1" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11889,8 +11869,8 @@
       <c r="D82" s="1" t="s">
         <v>1182</v>
       </c>
-      <c r="F82" s="4" t="s">
-        <v>117</v>
+      <c r="F82" s="1" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11903,8 +11883,8 @@
       <c r="D83" s="1" t="s">
         <v>1185</v>
       </c>
-      <c r="F83" s="4" t="s">
-        <v>117</v>
+      <c r="F83" s="1" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11917,8 +11897,8 @@
       <c r="D84" s="1" t="s">
         <v>1188</v>
       </c>
-      <c r="F84" s="4" t="s">
-        <v>117</v>
+      <c r="F84" s="1" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11931,8 +11911,8 @@
       <c r="D85" s="1" t="s">
         <v>1191</v>
       </c>
-      <c r="F85" s="4" t="s">
-        <v>117</v>
+      <c r="F85" s="1" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11945,8 +11925,8 @@
       <c r="D86" s="1" t="s">
         <v>1194</v>
       </c>
-      <c r="F86" s="4" t="s">
-        <v>117</v>
+      <c r="F86" s="1" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11959,8 +11939,8 @@
       <c r="D87" s="1" t="s">
         <v>1197</v>
       </c>
-      <c r="F87" s="4" t="s">
-        <v>117</v>
+      <c r="F87" s="1" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11973,8 +11953,8 @@
       <c r="D88" s="1" t="s">
         <v>1200</v>
       </c>
-      <c r="F88" s="4" t="s">
-        <v>117</v>
+      <c r="F88" s="1" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11987,8 +11967,8 @@
       <c r="D89" s="1" t="s">
         <v>1115</v>
       </c>
-      <c r="F89" s="4" t="s">
-        <v>117</v>
+      <c r="F89" s="1" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12001,8 +11981,8 @@
       <c r="D90" s="1" t="s">
         <v>1203</v>
       </c>
-      <c r="F90" s="4" t="s">
-        <v>117</v>
+      <c r="F90" s="1" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12015,8 +11995,8 @@
       <c r="D91" s="1" t="s">
         <v>1206</v>
       </c>
-      <c r="F91" s="4" t="s">
-        <v>117</v>
+      <c r="F91" s="1" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12029,8 +12009,8 @@
       <c r="D92" s="1" t="s">
         <v>1209</v>
       </c>
-      <c r="F92" s="4" t="s">
-        <v>117</v>
+      <c r="F92" s="1" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12043,8 +12023,8 @@
       <c r="D93" s="1" t="s">
         <v>1210</v>
       </c>
-      <c r="F93" s="4" t="s">
-        <v>117</v>
+      <c r="F93" s="1" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12057,8 +12037,8 @@
       <c r="D94" s="1" t="s">
         <v>1213</v>
       </c>
-      <c r="F94" s="4" t="s">
-        <v>117</v>
+      <c r="F94" s="1" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12071,8 +12051,8 @@
       <c r="D95" s="1" t="s">
         <v>1216</v>
       </c>
-      <c r="F95" s="4" t="s">
-        <v>117</v>
+      <c r="F95" s="1" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12085,8 +12065,8 @@
       <c r="D96" s="1" t="s">
         <v>1219</v>
       </c>
-      <c r="F96" s="4" t="s">
-        <v>117</v>
+      <c r="F96" s="1" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12099,8 +12079,8 @@
       <c r="D97" s="1" t="s">
         <v>1222</v>
       </c>
-      <c r="F97" s="4" t="s">
-        <v>117</v>
+      <c r="F97" s="1" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12113,8 +12093,8 @@
       <c r="D98" s="1" t="s">
         <v>1225</v>
       </c>
-      <c r="F98" s="4" t="s">
-        <v>117</v>
+      <c r="F98" s="1" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12127,8 +12107,8 @@
       <c r="D99" s="1" t="s">
         <v>1227</v>
       </c>
-      <c r="F99" s="4" t="s">
-        <v>117</v>
+      <c r="F99" s="1" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12141,7 +12121,6 @@
       <c r="D100" s="1" t="s">
         <v>1230</v>
       </c>
-      <c r="F100" s="4"/>
     </row>
     <row r="101" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="1" t="s">
@@ -12153,8 +12132,8 @@
       <c r="D101" s="1" t="s">
         <v>1232</v>
       </c>
-      <c r="F101" s="4" t="s">
-        <v>117</v>
+      <c r="F101" s="1" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12167,8 +12146,8 @@
       <c r="D102" s="1" t="s">
         <v>1233</v>
       </c>
-      <c r="F102" s="4" t="s">
-        <v>117</v>
+      <c r="F102" s="1" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12181,8 +12160,8 @@
       <c r="D103" s="1" t="s">
         <v>1237</v>
       </c>
-      <c r="F103" s="4" t="s">
-        <v>117</v>
+      <c r="F103" s="1" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="104" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12195,8 +12174,8 @@
       <c r="D104" s="1" t="s">
         <v>1239</v>
       </c>
-      <c r="F104" s="4" t="s">
-        <v>117</v>
+      <c r="F104" s="1" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="105" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12209,8 +12188,8 @@
       <c r="D105" s="1" t="s">
         <v>1240</v>
       </c>
-      <c r="F105" s="4" t="s">
-        <v>117</v>
+      <c r="F105" s="1" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="106" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12223,8 +12202,8 @@
       <c r="D106" s="1" t="s">
         <v>1243</v>
       </c>
-      <c r="F106" s="4" t="s">
-        <v>117</v>
+      <c r="F106" s="1" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="107" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12237,8 +12216,8 @@
       <c r="D107" s="1" t="s">
         <v>1246</v>
       </c>
-      <c r="F107" s="4" t="s">
-        <v>117</v>
+      <c r="F107" s="1" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="108" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12251,8 +12230,8 @@
       <c r="D108" s="1" t="s">
         <v>1249</v>
       </c>
-      <c r="F108" s="4" t="s">
-        <v>117</v>
+      <c r="F108" s="1" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="109" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12265,8 +12244,8 @@
       <c r="D109" s="1" t="s">
         <v>1252</v>
       </c>
-      <c r="F109" s="4" t="s">
-        <v>117</v>
+      <c r="F109" s="1" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="110" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12279,8 +12258,8 @@
       <c r="D110" s="1" t="s">
         <v>1255</v>
       </c>
-      <c r="F110" s="4" t="s">
-        <v>117</v>
+      <c r="F110" s="1" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="111" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12293,8 +12272,8 @@
       <c r="D111" s="1" t="s">
         <v>1258</v>
       </c>
-      <c r="F111" s="4" t="s">
-        <v>117</v>
+      <c r="F111" s="1" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="112" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12307,8 +12286,8 @@
       <c r="D112" s="1" t="s">
         <v>1261</v>
       </c>
-      <c r="F112" s="4" t="s">
-        <v>117</v>
+      <c r="F112" s="1" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="113" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12321,8 +12300,8 @@
       <c r="D113" s="1" t="s">
         <v>1264</v>
       </c>
-      <c r="F113" s="4" t="s">
-        <v>117</v>
+      <c r="F113" s="1" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="114" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12335,8 +12314,8 @@
       <c r="D114" s="1" t="s">
         <v>1267</v>
       </c>
-      <c r="F114" s="4" t="s">
-        <v>117</v>
+      <c r="F114" s="1" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="115" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12349,8 +12328,8 @@
       <c r="D115" s="1" t="s">
         <v>1270</v>
       </c>
-      <c r="F115" s="4" t="s">
-        <v>117</v>
+      <c r="F115" s="1" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="116" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12363,8 +12342,8 @@
       <c r="D116" s="1" t="s">
         <v>1176</v>
       </c>
-      <c r="F116" s="4" t="s">
-        <v>117</v>
+      <c r="F116" s="1" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="117" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12377,8 +12356,8 @@
       <c r="D117" s="1" t="s">
         <v>1273</v>
       </c>
-      <c r="F117" s="4" t="s">
-        <v>117</v>
+      <c r="F117" s="1" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="118" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12391,8 +12370,8 @@
       <c r="D118" s="1" t="s">
         <v>1276</v>
       </c>
-      <c r="F118" s="4" t="s">
-        <v>117</v>
+      <c r="F118" s="1" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="119" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12405,8 +12384,8 @@
       <c r="D119" s="1" t="s">
         <v>1279</v>
       </c>
-      <c r="F119" s="4" t="s">
-        <v>117</v>
+      <c r="F119" s="1" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="120" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12419,7 +12398,6 @@
       <c r="D120" s="1" t="s">
         <v>1282</v>
       </c>
-      <c r="F120" s="4"/>
     </row>
     <row r="121" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A121" s="1" t="s">
@@ -12431,8 +12409,8 @@
       <c r="D121" s="1" t="s">
         <v>1285</v>
       </c>
-      <c r="F121" s="4" t="s">
-        <v>117</v>
+      <c r="F121" s="1" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="122" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12445,8 +12423,8 @@
       <c r="D122" s="1" t="s">
         <v>1288</v>
       </c>
-      <c r="F122" s="4" t="s">
-        <v>117</v>
+      <c r="F122" s="1" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="123" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12459,8 +12437,8 @@
       <c r="D123" s="1" t="s">
         <v>1290</v>
       </c>
-      <c r="F123" s="4" t="s">
-        <v>117</v>
+      <c r="F123" s="1" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="124" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12473,8 +12451,8 @@
       <c r="D124" s="1" t="s">
         <v>1009</v>
       </c>
-      <c r="F124" s="4" t="s">
-        <v>117</v>
+      <c r="F124" s="1" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="125" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12487,8 +12465,8 @@
       <c r="D125" s="1" t="s">
         <v>1293</v>
       </c>
-      <c r="F125" s="4" t="s">
-        <v>117</v>
+      <c r="F125" s="1" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="126" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12501,8 +12479,8 @@
       <c r="D126" s="1" t="s">
         <v>1296</v>
       </c>
-      <c r="F126" s="4" t="s">
-        <v>117</v>
+      <c r="F126" s="1" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="127" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12515,8 +12493,8 @@
       <c r="D127" s="1" t="s">
         <v>1299</v>
       </c>
-      <c r="F127" s="4" t="s">
-        <v>117</v>
+      <c r="F127" s="1" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="128" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12529,8 +12507,8 @@
       <c r="D128" s="1" t="s">
         <v>1302</v>
       </c>
-      <c r="F128" s="4" t="s">
-        <v>117</v>
+      <c r="F128" s="1" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="129" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12543,8 +12521,8 @@
       <c r="D129" s="1" t="s">
         <v>1305</v>
       </c>
-      <c r="F129" s="4" t="s">
-        <v>117</v>
+      <c r="F129" s="1" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="130" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12557,8 +12535,8 @@
       <c r="D130" s="1" t="s">
         <v>1307</v>
       </c>
-      <c r="F130" s="4" t="s">
-        <v>117</v>
+      <c r="F130" s="1" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="131" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12571,8 +12549,8 @@
       <c r="D131" s="1" t="s">
         <v>1308</v>
       </c>
-      <c r="F131" s="4" t="s">
-        <v>117</v>
+      <c r="F131" s="1" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="132" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12585,8 +12563,8 @@
       <c r="D132" s="1" t="s">
         <v>1312</v>
       </c>
-      <c r="F132" s="4" t="s">
-        <v>117</v>
+      <c r="F132" s="1" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="133" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12599,8 +12577,8 @@
       <c r="D133" s="1" t="s">
         <v>1314</v>
       </c>
-      <c r="F133" s="4" t="s">
-        <v>117</v>
+      <c r="F133" s="1" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="134" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12613,8 +12591,8 @@
       <c r="D134" s="1" t="s">
         <v>1315</v>
       </c>
-      <c r="F134" s="4" t="s">
-        <v>117</v>
+      <c r="F134" s="1" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="135" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12627,8 +12605,8 @@
       <c r="D135" s="1" t="s">
         <v>1318</v>
       </c>
-      <c r="F135" s="4" t="s">
-        <v>117</v>
+      <c r="F135" s="1" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="136" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12641,8 +12619,8 @@
       <c r="D136" s="1" t="s">
         <v>1321</v>
       </c>
-      <c r="F136" s="4" t="s">
-        <v>117</v>
+      <c r="F136" s="1" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="137" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12655,8 +12633,8 @@
       <c r="D137" s="1" t="s">
         <v>1324</v>
       </c>
-      <c r="F137" s="4" t="s">
-        <v>117</v>
+      <c r="F137" s="1" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="138" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12669,8 +12647,8 @@
       <c r="D138" s="1" t="s">
         <v>1327</v>
       </c>
-      <c r="F138" s="4" t="s">
-        <v>117</v>
+      <c r="F138" s="1" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="139" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12683,8 +12661,8 @@
       <c r="D139" s="1" t="s">
         <v>1330</v>
       </c>
-      <c r="F139" s="4" t="s">
-        <v>117</v>
+      <c r="F139" s="1" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="140" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12697,7 +12675,6 @@
       <c r="D140" s="1" t="s">
         <v>1333</v>
       </c>
-      <c r="F140" s="4"/>
     </row>
     <row r="141" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A141" s="1" t="s">
@@ -12709,8 +12686,8 @@
       <c r="D141" s="1" t="s">
         <v>1336</v>
       </c>
-      <c r="F141" s="4" t="s">
-        <v>117</v>
+      <c r="F141" s="1" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="142" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12723,8 +12700,8 @@
       <c r="D142" s="1" t="s">
         <v>1339</v>
       </c>
-      <c r="F142" s="4" t="s">
-        <v>117</v>
+      <c r="F142" s="1" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="143" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12737,8 +12714,8 @@
       <c r="D143" s="1" t="s">
         <v>1342</v>
       </c>
-      <c r="F143" s="4" t="s">
-        <v>117</v>
+      <c r="F143" s="1" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="144" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12751,8 +12728,8 @@
       <c r="D144" s="1" t="s">
         <v>1345</v>
       </c>
-      <c r="F144" s="4" t="s">
-        <v>117</v>
+      <c r="F144" s="1" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="145" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12765,8 +12742,8 @@
       <c r="D145" s="1" t="s">
         <v>1348</v>
       </c>
-      <c r="F145" s="4" t="s">
-        <v>117</v>
+      <c r="F145" s="1" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="146" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12779,8 +12756,8 @@
       <c r="D146" s="1" t="s">
         <v>1351</v>
       </c>
-      <c r="F146" s="4" t="s">
-        <v>117</v>
+      <c r="F146" s="1" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="147" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12793,8 +12770,8 @@
       <c r="D147" s="1" t="s">
         <v>1354</v>
       </c>
-      <c r="F147" s="4" t="s">
-        <v>117</v>
+      <c r="F147" s="1" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="148" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12807,8 +12784,8 @@
       <c r="D148" s="1" t="s">
         <v>1357</v>
       </c>
-      <c r="F148" s="4" t="s">
-        <v>117</v>
+      <c r="F148" s="1" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="149" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12821,8 +12798,8 @@
       <c r="D149" s="1" t="s">
         <v>1360</v>
       </c>
-      <c r="F149" s="4" t="s">
-        <v>117</v>
+      <c r="F149" s="1" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="150" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12835,8 +12812,8 @@
       <c r="D150" s="1" t="s">
         <v>983</v>
       </c>
-      <c r="F150" s="4" t="s">
-        <v>117</v>
+      <c r="F150" s="1" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="151" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12849,8 +12826,8 @@
       <c r="D151" s="1" t="s">
         <v>986</v>
       </c>
-      <c r="F151" s="4" t="s">
-        <v>117</v>
+      <c r="F151" s="1" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="152" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12863,8 +12840,8 @@
       <c r="D152" s="1" t="s">
         <v>1364</v>
       </c>
-      <c r="F152" s="4" t="s">
-        <v>117</v>
+      <c r="F152" s="1" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="153" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12877,8 +12854,8 @@
       <c r="D153" s="1" t="s">
         <v>1367</v>
       </c>
-      <c r="F153" s="4" t="s">
-        <v>117</v>
+      <c r="F153" s="1" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="154" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12891,8 +12868,8 @@
       <c r="D154" s="1" t="s">
         <v>1370</v>
       </c>
-      <c r="F154" s="4" t="s">
-        <v>117</v>
+      <c r="F154" s="1" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="155" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12905,8 +12882,8 @@
       <c r="D155" s="1" t="s">
         <v>1373</v>
       </c>
-      <c r="F155" s="4" t="s">
-        <v>117</v>
+      <c r="F155" s="1" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="156" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12919,8 +12896,8 @@
       <c r="D156" s="1" t="s">
         <v>1376</v>
       </c>
-      <c r="F156" s="4" t="s">
-        <v>117</v>
+      <c r="F156" s="1" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="157" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12933,8 +12910,8 @@
       <c r="D157" s="1" t="s">
         <v>1379</v>
       </c>
-      <c r="F157" s="4" t="s">
-        <v>117</v>
+      <c r="F157" s="1" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="158" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12947,8 +12924,8 @@
       <c r="D158" s="1" t="s">
         <v>1382</v>
       </c>
-      <c r="F158" s="4" t="s">
-        <v>117</v>
+      <c r="F158" s="1" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="159" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12961,8 +12938,8 @@
       <c r="D159" s="1" t="s">
         <v>1383</v>
       </c>
-      <c r="F159" s="4" t="s">
-        <v>117</v>
+      <c r="F159" s="1" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="160" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12975,7 +12952,6 @@
       <c r="D160" s="1" t="s">
         <v>1387</v>
       </c>
-      <c r="F160" s="4"/>
     </row>
     <row r="161" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A161" s="1" t="s">
@@ -12987,8 +12963,8 @@
       <c r="D161" s="1" t="s">
         <v>1389</v>
       </c>
-      <c r="F161" s="4" t="s">
-        <v>117</v>
+      <c r="F161" s="1" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="162" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13001,8 +12977,8 @@
       <c r="D162" s="1" t="s">
         <v>1392</v>
       </c>
-      <c r="F162" s="4" t="s">
-        <v>117</v>
+      <c r="F162" s="1" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="163" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13015,8 +12991,8 @@
       <c r="D163" s="1" t="s">
         <v>1395</v>
       </c>
-      <c r="F163" s="4" t="s">
-        <v>117</v>
+      <c r="F163" s="1" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="164" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13029,8 +13005,8 @@
       <c r="D164" s="1" t="s">
         <v>1397</v>
       </c>
-      <c r="F164" s="4" t="s">
-        <v>117</v>
+      <c r="F164" s="1" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="165" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13043,8 +13019,8 @@
       <c r="D165" s="1" t="s">
         <v>1400</v>
       </c>
-      <c r="F165" s="4" t="s">
-        <v>117</v>
+      <c r="F165" s="1" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="166" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13057,8 +13033,8 @@
       <c r="D166" s="1" t="s">
         <v>1403</v>
       </c>
-      <c r="F166" s="4" t="s">
-        <v>117</v>
+      <c r="F166" s="1" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="167" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13071,8 +13047,8 @@
       <c r="D167" s="1" t="s">
         <v>1406</v>
       </c>
-      <c r="F167" s="4" t="s">
-        <v>117</v>
+      <c r="F167" s="1" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="168" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13085,8 +13061,8 @@
       <c r="D168" s="1" t="s">
         <v>1409</v>
       </c>
-      <c r="F168" s="4" t="s">
-        <v>117</v>
+      <c r="F168" s="1" t="s">
+        <v>120</v>
       </c>
     </row>
   </sheetData>
@@ -13215,8 +13191,8 @@
       <c r="D1" s="1" t="s">
         <v>1425</v>
       </c>
-      <c r="F1" s="4" t="s">
-        <v>117</v>
+      <c r="F1" s="1" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13229,8 +13205,8 @@
       <c r="D2" s="1" t="s">
         <v>1428</v>
       </c>
-      <c r="F2" s="4" t="s">
-        <v>117</v>
+      <c r="F2" s="1" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13243,8 +13219,8 @@
       <c r="D3" s="1" t="s">
         <v>1431</v>
       </c>
-      <c r="F3" s="4" t="s">
-        <v>117</v>
+      <c r="F3" s="1" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13257,8 +13233,8 @@
       <c r="D4" s="1" t="s">
         <v>1434</v>
       </c>
-      <c r="F4" s="4" t="s">
-        <v>117</v>
+      <c r="F4" s="1" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13271,8 +13247,8 @@
       <c r="D5" s="1" t="s">
         <v>1435</v>
       </c>
-      <c r="F5" s="4" t="s">
-        <v>117</v>
+      <c r="F5" s="1" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13285,8 +13261,8 @@
       <c r="D6" s="1" t="s">
         <v>1439</v>
       </c>
-      <c r="F6" s="4" t="s">
-        <v>117</v>
+      <c r="F6" s="1" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13299,8 +13275,8 @@
       <c r="D7" s="1" t="s">
         <v>1442</v>
       </c>
-      <c r="F7" s="4" t="s">
-        <v>117</v>
+      <c r="F7" s="1" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13313,8 +13289,8 @@
       <c r="D8" s="1" t="s">
         <v>1445</v>
       </c>
-      <c r="F8" s="4" t="s">
-        <v>117</v>
+      <c r="F8" s="1" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13327,8 +13303,8 @@
       <c r="D9" s="1" t="s">
         <v>1448</v>
       </c>
-      <c r="F9" s="4" t="s">
-        <v>117</v>
+      <c r="F9" s="1" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13341,8 +13317,8 @@
       <c r="D10" s="1" t="s">
         <v>1451</v>
       </c>
-      <c r="F10" s="4" t="s">
-        <v>117</v>
+      <c r="F10" s="1" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13355,8 +13331,8 @@
       <c r="D11" s="1" t="s">
         <v>1452</v>
       </c>
-      <c r="F11" s="4" t="s">
-        <v>117</v>
+      <c r="F11" s="1" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13369,8 +13345,8 @@
       <c r="D12" s="1" t="s">
         <v>1456</v>
       </c>
-      <c r="F12" s="4" t="s">
-        <v>117</v>
+      <c r="F12" s="1" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13383,8 +13359,8 @@
       <c r="D13" s="1" t="s">
         <v>1459</v>
       </c>
-      <c r="F13" s="4" t="s">
-        <v>117</v>
+      <c r="F13" s="1" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13397,8 +13373,8 @@
       <c r="D14" s="1" t="s">
         <v>1462</v>
       </c>
-      <c r="F14" s="4" t="s">
-        <v>117</v>
+      <c r="F14" s="1" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13411,8 +13387,8 @@
       <c r="D15" s="1" t="s">
         <v>1465</v>
       </c>
-      <c r="F15" s="4" t="s">
-        <v>117</v>
+      <c r="F15" s="1" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13425,8 +13401,8 @@
       <c r="D16" s="1" t="s">
         <v>1468</v>
       </c>
-      <c r="F16" s="4" t="s">
-        <v>117</v>
+      <c r="F16" s="1" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13439,8 +13415,8 @@
       <c r="D17" s="1" t="s">
         <v>1470</v>
       </c>
-      <c r="F17" s="4" t="s">
-        <v>117</v>
+      <c r="F17" s="1" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13453,8 +13429,8 @@
       <c r="D18" s="1" t="s">
         <v>1473</v>
       </c>
-      <c r="F18" s="4" t="s">
-        <v>117</v>
+      <c r="F18" s="1" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13467,8 +13443,8 @@
       <c r="D19" s="1" t="s">
         <v>1476</v>
       </c>
-      <c r="F19" s="4" t="s">
-        <v>117</v>
+      <c r="F19" s="1" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13481,7 +13457,6 @@
       <c r="D20" s="1" t="s">
         <v>1479</v>
       </c>
-      <c r="F20" s="4"/>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="s">
@@ -13493,8 +13468,8 @@
       <c r="D21" s="1" t="s">
         <v>1482</v>
       </c>
-      <c r="F21" s="4" t="s">
-        <v>117</v>
+      <c r="F21" s="1" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13507,8 +13482,8 @@
       <c r="D22" s="1" t="s">
         <v>1485</v>
       </c>
-      <c r="F22" s="4" t="s">
-        <v>117</v>
+      <c r="F22" s="1" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13521,8 +13496,8 @@
       <c r="D23" s="1" t="s">
         <v>1439</v>
       </c>
-      <c r="F23" s="4" t="s">
-        <v>117</v>
+      <c r="F23" s="1" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13535,8 +13510,8 @@
       <c r="D24" s="1" t="s">
         <v>1488</v>
       </c>
-      <c r="F24" s="4" t="s">
-        <v>117</v>
+      <c r="F24" s="1" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13549,8 +13524,8 @@
       <c r="D25" s="1" t="s">
         <v>1491</v>
       </c>
-      <c r="F25" s="4" t="s">
-        <v>117</v>
+      <c r="F25" s="1" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13563,8 +13538,8 @@
       <c r="D26" s="1" t="s">
         <v>1494</v>
       </c>
-      <c r="F26" s="4" t="s">
-        <v>117</v>
+      <c r="F26" s="1" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13577,8 +13552,8 @@
       <c r="D27" s="1" t="s">
         <v>1497</v>
       </c>
-      <c r="F27" s="4" t="s">
-        <v>117</v>
+      <c r="F27" s="1" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13591,8 +13566,8 @@
       <c r="D28" s="1" t="s">
         <v>1500</v>
       </c>
-      <c r="F28" s="4" t="s">
-        <v>117</v>
+      <c r="F28" s="1" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13605,8 +13580,8 @@
       <c r="D29" s="1" t="s">
         <v>1503</v>
       </c>
-      <c r="F29" s="4" t="s">
-        <v>117</v>
+      <c r="F29" s="1" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13619,8 +13594,8 @@
       <c r="D30" s="1" t="s">
         <v>1506</v>
       </c>
-      <c r="F30" s="4" t="s">
-        <v>117</v>
+      <c r="F30" s="1" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13633,8 +13608,8 @@
       <c r="D31" s="1" t="s">
         <v>1509</v>
       </c>
-      <c r="F31" s="4" t="s">
-        <v>117</v>
+      <c r="F31" s="1" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13647,8 +13622,8 @@
       <c r="D32" s="1" t="s">
         <v>1512</v>
       </c>
-      <c r="F32" s="4" t="s">
-        <v>117</v>
+      <c r="F32" s="1" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13661,8 +13636,8 @@
       <c r="D33" s="1" t="s">
         <v>1514</v>
       </c>
-      <c r="F33" s="4" t="s">
-        <v>117</v>
+      <c r="F33" s="1" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13675,8 +13650,8 @@
       <c r="D34" s="1" t="s">
         <v>1517</v>
       </c>
-      <c r="F34" s="4" t="s">
-        <v>117</v>
+      <c r="F34" s="1" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13689,8 +13664,8 @@
       <c r="D35" s="1" t="s">
         <v>1520</v>
       </c>
-      <c r="F35" s="4" t="s">
-        <v>117</v>
+      <c r="F35" s="1" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13703,8 +13678,8 @@
       <c r="D36" s="1" t="s">
         <v>1523</v>
       </c>
-      <c r="F36" s="4" t="s">
-        <v>117</v>
+      <c r="F36" s="1" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13717,8 +13692,8 @@
       <c r="D37" s="1" t="s">
         <v>1525</v>
       </c>
-      <c r="F37" s="4" t="s">
-        <v>117</v>
+      <c r="F37" s="1" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13731,8 +13706,8 @@
       <c r="D38" s="1" t="s">
         <v>1527</v>
       </c>
-      <c r="F38" s="4" t="s">
-        <v>117</v>
+      <c r="F38" s="1" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13745,8 +13720,8 @@
       <c r="D39" s="1" t="s">
         <v>1530</v>
       </c>
-      <c r="F39" s="4" t="s">
-        <v>117</v>
+      <c r="F39" s="1" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13759,7 +13734,6 @@
       <c r="D40" s="1" t="s">
         <v>1531</v>
       </c>
-      <c r="F40" s="4"/>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="1" t="s">
@@ -13771,8 +13745,8 @@
       <c r="D41" s="1" t="s">
         <v>1535</v>
       </c>
-      <c r="F41" s="4" t="s">
-        <v>117</v>
+      <c r="F41" s="1" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13785,8 +13759,8 @@
       <c r="D42" s="1" t="s">
         <v>1538</v>
       </c>
-      <c r="F42" s="4" t="s">
-        <v>117</v>
+      <c r="F42" s="1" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13799,8 +13773,8 @@
       <c r="D43" s="1" t="s">
         <v>1541</v>
       </c>
-      <c r="F43" s="4" t="s">
-        <v>117</v>
+      <c r="F43" s="1" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13813,8 +13787,8 @@
       <c r="D44" s="1" t="s">
         <v>1544</v>
       </c>
-      <c r="F44" s="4" t="s">
-        <v>117</v>
+      <c r="F44" s="1" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13827,8 +13801,8 @@
       <c r="D45" s="1" t="s">
         <v>1547</v>
       </c>
-      <c r="F45" s="4" t="s">
-        <v>117</v>
+      <c r="F45" s="1" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13841,8 +13815,8 @@
       <c r="D46" s="1" t="s">
         <v>1550</v>
       </c>
-      <c r="F46" s="4" t="s">
-        <v>117</v>
+      <c r="F46" s="1" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13855,8 +13829,8 @@
       <c r="D47" s="1" t="s">
         <v>1553</v>
       </c>
-      <c r="F47" s="4" t="s">
-        <v>117</v>
+      <c r="F47" s="1" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13869,8 +13843,8 @@
       <c r="D48" s="1" t="s">
         <v>1556</v>
       </c>
-      <c r="F48" s="4" t="s">
-        <v>117</v>
+      <c r="F48" s="1" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13883,8 +13857,8 @@
       <c r="D49" s="1" t="s">
         <v>1558</v>
       </c>
-      <c r="F49" s="4" t="s">
-        <v>117</v>
+      <c r="F49" s="1" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13897,8 +13871,8 @@
       <c r="D50" s="1" t="s">
         <v>1560</v>
       </c>
-      <c r="F50" s="4" t="s">
-        <v>117</v>
+      <c r="F50" s="1" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13911,8 +13885,8 @@
       <c r="D51" s="1" t="s">
         <v>1563</v>
       </c>
-      <c r="F51" s="4" t="s">
-        <v>117</v>
+      <c r="F51" s="1" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13925,8 +13899,8 @@
       <c r="D52" s="1" t="s">
         <v>1566</v>
       </c>
-      <c r="F52" s="4" t="s">
-        <v>117</v>
+      <c r="F52" s="1" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13939,8 +13913,8 @@
       <c r="D53" s="1" t="s">
         <v>1569</v>
       </c>
-      <c r="F53" s="4" t="s">
-        <v>117</v>
+      <c r="F53" s="1" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13953,8 +13927,8 @@
       <c r="D54" s="1" t="s">
         <v>1572</v>
       </c>
-      <c r="F54" s="4" t="s">
-        <v>117</v>
+      <c r="F54" s="1" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13967,8 +13941,8 @@
       <c r="D55" s="1" t="s">
         <v>1575</v>
       </c>
-      <c r="F55" s="4" t="s">
-        <v>117</v>
+      <c r="F55" s="1" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13981,8 +13955,8 @@
       <c r="D56" s="1" t="s">
         <v>1578</v>
       </c>
-      <c r="F56" s="4" t="s">
-        <v>117</v>
+      <c r="F56" s="1" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13995,8 +13969,8 @@
       <c r="D57" s="1" t="s">
         <v>1581</v>
       </c>
-      <c r="F57" s="4" t="s">
-        <v>117</v>
+      <c r="F57" s="1" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14009,8 +13983,8 @@
       <c r="D58" s="1" t="s">
         <v>1583</v>
       </c>
-      <c r="F58" s="4" t="s">
-        <v>117</v>
+      <c r="F58" s="1" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14023,8 +13997,8 @@
       <c r="D59" s="1" t="s">
         <v>1585</v>
       </c>
-      <c r="F59" s="4" t="s">
-        <v>117</v>
+      <c r="F59" s="1" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14037,7 +14011,6 @@
       <c r="D60" s="1" t="s">
         <v>1588</v>
       </c>
-      <c r="F60" s="4"/>
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="1" t="s">
@@ -14049,8 +14022,8 @@
       <c r="D61" s="1" t="s">
         <v>1590</v>
       </c>
-      <c r="F61" s="4" t="s">
-        <v>117</v>
+      <c r="F61" s="1" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14063,8 +14036,8 @@
       <c r="D62" s="1" t="s">
         <v>1592</v>
       </c>
-      <c r="F62" s="4" t="s">
-        <v>117</v>
+      <c r="F62" s="1" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14077,8 +14050,8 @@
       <c r="D63" s="1" t="s">
         <v>1595</v>
       </c>
-      <c r="F63" s="4" t="s">
-        <v>117</v>
+      <c r="F63" s="1" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14091,8 +14064,8 @@
       <c r="D64" s="1" t="s">
         <v>1598</v>
       </c>
-      <c r="F64" s="4" t="s">
-        <v>117</v>
+      <c r="F64" s="1" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14105,8 +14078,8 @@
       <c r="D65" s="1" t="s">
         <v>1601</v>
       </c>
-      <c r="F65" s="4" t="s">
-        <v>117</v>
+      <c r="F65" s="1" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14119,8 +14092,8 @@
       <c r="D66" s="1" t="s">
         <v>1604</v>
       </c>
-      <c r="F66" s="4" t="s">
-        <v>117</v>
+      <c r="F66" s="1" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14133,8 +14106,8 @@
       <c r="D67" s="1" t="s">
         <v>1607</v>
       </c>
-      <c r="F67" s="4" t="s">
-        <v>117</v>
+      <c r="F67" s="1" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14147,8 +14120,8 @@
       <c r="D68" s="1" t="s">
         <v>1610</v>
       </c>
-      <c r="F68" s="4" t="s">
-        <v>117</v>
+      <c r="F68" s="1" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14161,8 +14134,8 @@
       <c r="D69" s="1" t="s">
         <v>1612</v>
       </c>
-      <c r="F69" s="4" t="s">
-        <v>117</v>
+      <c r="F69" s="1" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14175,8 +14148,8 @@
       <c r="D70" s="1" t="s">
         <v>1615</v>
       </c>
-      <c r="F70" s="4" t="s">
-        <v>117</v>
+      <c r="F70" s="1" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14189,8 +14162,8 @@
       <c r="D71" s="1" t="s">
         <v>1618</v>
       </c>
-      <c r="F71" s="4" t="s">
-        <v>117</v>
+      <c r="F71" s="1" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14203,8 +14176,8 @@
       <c r="D72" s="1" t="s">
         <v>1620</v>
       </c>
-      <c r="F72" s="4" t="s">
-        <v>117</v>
+      <c r="F72" s="1" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14217,8 +14190,8 @@
       <c r="D73" s="1" t="s">
         <v>1623</v>
       </c>
-      <c r="F73" s="4" t="s">
-        <v>117</v>
+      <c r="F73" s="1" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14231,8 +14204,8 @@
       <c r="D74" s="1" t="s">
         <v>1625</v>
       </c>
-      <c r="F74" s="4" t="s">
-        <v>117</v>
+      <c r="F74" s="1" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14245,8 +14218,8 @@
       <c r="D75" s="1" t="s">
         <v>1628</v>
       </c>
-      <c r="F75" s="4" t="s">
-        <v>117</v>
+      <c r="F75" s="1" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14259,8 +14232,8 @@
       <c r="D76" s="1" t="s">
         <v>1631</v>
       </c>
-      <c r="F76" s="4" t="s">
-        <v>117</v>
+      <c r="F76" s="1" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14273,8 +14246,8 @@
       <c r="D77" s="1" t="s">
         <v>1634</v>
       </c>
-      <c r="F77" s="4" t="s">
-        <v>117</v>
+      <c r="F77" s="1" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14287,8 +14260,8 @@
       <c r="D78" s="1" t="s">
         <v>1636</v>
       </c>
-      <c r="F78" s="4" t="s">
-        <v>117</v>
+      <c r="F78" s="1" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14301,8 +14274,8 @@
       <c r="D79" s="1" t="s">
         <v>1639</v>
       </c>
-      <c r="F79" s="4" t="s">
-        <v>117</v>
+      <c r="F79" s="1" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14315,7 +14288,6 @@
       <c r="D80" s="1" t="s">
         <v>1642</v>
       </c>
-      <c r="F80" s="4"/>
     </row>
     <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="1" t="s">
@@ -14327,8 +14299,8 @@
       <c r="D81" s="1" t="s">
         <v>1645</v>
       </c>
-      <c r="F81" s="4" t="s">
-        <v>117</v>
+      <c r="F81" s="1" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14341,8 +14313,8 @@
       <c r="D82" s="1" t="s">
         <v>1648</v>
       </c>
-      <c r="F82" s="4" t="s">
-        <v>117</v>
+      <c r="F82" s="1" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14355,8 +14327,8 @@
       <c r="D83" s="1" t="s">
         <v>1651</v>
       </c>
-      <c r="F83" s="4" t="s">
-        <v>117</v>
+      <c r="F83" s="1" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14369,8 +14341,8 @@
       <c r="D84" s="1" t="s">
         <v>1654</v>
       </c>
-      <c r="F84" s="4" t="s">
-        <v>117</v>
+      <c r="F84" s="1" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14383,8 +14355,8 @@
       <c r="D85" s="1" t="s">
         <v>1657</v>
       </c>
-      <c r="F85" s="4" t="s">
-        <v>117</v>
+      <c r="F85" s="1" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14397,8 +14369,8 @@
       <c r="D86" s="1" t="s">
         <v>1660</v>
       </c>
-      <c r="F86" s="4" t="s">
-        <v>117</v>
+      <c r="F86" s="1" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14411,8 +14383,8 @@
       <c r="D87" s="1" t="s">
         <v>1663</v>
       </c>
-      <c r="F87" s="4" t="s">
-        <v>117</v>
+      <c r="F87" s="1" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14425,8 +14397,8 @@
       <c r="D88" s="1" t="s">
         <v>1666</v>
       </c>
-      <c r="F88" s="4" t="s">
-        <v>117</v>
+      <c r="F88" s="1" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14439,8 +14411,8 @@
       <c r="D89" s="1" t="s">
         <v>1668</v>
       </c>
-      <c r="F89" s="4" t="s">
-        <v>117</v>
+      <c r="F89" s="1" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14453,8 +14425,8 @@
       <c r="D90" s="1" t="s">
         <v>1671</v>
       </c>
-      <c r="F90" s="4" t="s">
-        <v>117</v>
+      <c r="F90" s="1" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14467,8 +14439,8 @@
       <c r="D91" s="1" t="s">
         <v>1674</v>
       </c>
-      <c r="F91" s="4" t="s">
-        <v>117</v>
+      <c r="F91" s="1" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14481,8 +14453,8 @@
       <c r="D92" s="1" t="s">
         <v>1677</v>
       </c>
-      <c r="F92" s="4" t="s">
-        <v>117</v>
+      <c r="F92" s="1" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14495,8 +14467,8 @@
       <c r="D93" s="1" t="s">
         <v>1680</v>
       </c>
-      <c r="F93" s="4" t="s">
-        <v>117</v>
+      <c r="F93" s="1" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14509,8 +14481,8 @@
       <c r="D94" s="1" t="s">
         <v>1683</v>
       </c>
-      <c r="F94" s="4" t="s">
-        <v>117</v>
+      <c r="F94" s="1" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14523,8 +14495,8 @@
       <c r="D95" s="1" t="s">
         <v>1685</v>
       </c>
-      <c r="F95" s="4" t="s">
-        <v>117</v>
+      <c r="F95" s="1" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14537,8 +14509,8 @@
       <c r="D96" s="1" t="s">
         <v>1688</v>
       </c>
-      <c r="F96" s="4" t="s">
-        <v>117</v>
+      <c r="F96" s="1" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14551,8 +14523,8 @@
       <c r="D97" s="1" t="s">
         <v>1691</v>
       </c>
-      <c r="F97" s="4" t="s">
-        <v>117</v>
+      <c r="F97" s="1" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14565,8 +14537,8 @@
       <c r="D98" s="1" t="s">
         <v>1694</v>
       </c>
-      <c r="F98" s="4" t="s">
-        <v>117</v>
+      <c r="F98" s="1" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14579,8 +14551,8 @@
       <c r="D99" s="1" t="s">
         <v>1696</v>
       </c>
-      <c r="F99" s="4" t="s">
-        <v>117</v>
+      <c r="F99" s="1" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14593,7 +14565,6 @@
       <c r="D100" s="1" t="s">
         <v>1699</v>
       </c>
-      <c r="F100" s="4"/>
     </row>
     <row r="101" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="1" t="s">
@@ -14605,8 +14576,8 @@
       <c r="D101" s="1" t="s">
         <v>1702</v>
       </c>
-      <c r="F101" s="4" t="s">
-        <v>117</v>
+      <c r="F101" s="1" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14619,8 +14590,8 @@
       <c r="D102" s="1" t="s">
         <v>1705</v>
       </c>
-      <c r="F102" s="4" t="s">
-        <v>117</v>
+      <c r="F102" s="1" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14633,8 +14604,8 @@
       <c r="D103" s="1" t="s">
         <v>1708</v>
       </c>
-      <c r="F103" s="4" t="s">
-        <v>117</v>
+      <c r="F103" s="1" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="104" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14647,8 +14618,8 @@
       <c r="D104" s="1" t="s">
         <v>1711</v>
       </c>
-      <c r="F104" s="4" t="s">
-        <v>117</v>
+      <c r="F104" s="1" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="105" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14661,8 +14632,8 @@
       <c r="D105" s="1" t="s">
         <v>1714</v>
       </c>
-      <c r="F105" s="4" t="s">
-        <v>117</v>
+      <c r="F105" s="1" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="106" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14675,8 +14646,8 @@
       <c r="D106" s="1" t="s">
         <v>1716</v>
       </c>
-      <c r="F106" s="4" t="s">
-        <v>117</v>
+      <c r="F106" s="1" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="107" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14689,8 +14660,8 @@
       <c r="D107" s="1" t="s">
         <v>1719</v>
       </c>
-      <c r="F107" s="4" t="s">
-        <v>117</v>
+      <c r="F107" s="1" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="108" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14703,8 +14674,8 @@
       <c r="D108" s="1" t="s">
         <v>1722</v>
       </c>
-      <c r="F108" s="4" t="s">
-        <v>117</v>
+      <c r="F108" s="1" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="109" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14717,8 +14688,8 @@
       <c r="D109" s="1" t="s">
         <v>1724</v>
       </c>
-      <c r="F109" s="4" t="s">
-        <v>117</v>
+      <c r="F109" s="1" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="110" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14731,8 +14702,8 @@
       <c r="D110" s="1" t="s">
         <v>1726</v>
       </c>
-      <c r="F110" s="4" t="s">
-        <v>117</v>
+      <c r="F110" s="1" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="111" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14745,8 +14716,8 @@
       <c r="D111" s="1" t="s">
         <v>1729</v>
       </c>
-      <c r="F111" s="4" t="s">
-        <v>117</v>
+      <c r="F111" s="1" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="112" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14759,8 +14730,8 @@
       <c r="D112" s="1" t="s">
         <v>1732</v>
       </c>
-      <c r="F112" s="4" t="s">
-        <v>117</v>
+      <c r="F112" s="1" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="113" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14773,8 +14744,8 @@
       <c r="D113" s="1" t="s">
         <v>1735</v>
       </c>
-      <c r="F113" s="4" t="s">
-        <v>117</v>
+      <c r="F113" s="1" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="114" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14787,8 +14758,8 @@
       <c r="D114" s="1" t="s">
         <v>1737</v>
       </c>
-      <c r="F114" s="4" t="s">
-        <v>117</v>
+      <c r="F114" s="1" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="115" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14801,8 +14772,8 @@
       <c r="D115" s="1" t="s">
         <v>1740</v>
       </c>
-      <c r="F115" s="4" t="s">
-        <v>117</v>
+      <c r="F115" s="1" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="116" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14815,8 +14786,8 @@
       <c r="D116" s="1" t="s">
         <v>1743</v>
       </c>
-      <c r="F116" s="4" t="s">
-        <v>117</v>
+      <c r="F116" s="1" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="117" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14829,8 +14800,8 @@
       <c r="D117" s="1" t="s">
         <v>1745</v>
       </c>
-      <c r="F117" s="4" t="s">
-        <v>117</v>
+      <c r="F117" s="1" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="118" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14843,8 +14814,8 @@
       <c r="D118" s="1" t="s">
         <v>1748</v>
       </c>
-      <c r="F118" s="4" t="s">
-        <v>117</v>
+      <c r="F118" s="1" t="s">
+        <v>120</v>
       </c>
     </row>
   </sheetData>
@@ -14865,7 +14836,7 @@
   </sheetPr>
   <dimension ref="A1:F46"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="F41" activeCellId="0" sqref="F41"/>
     </sheetView>
   </sheetViews>
@@ -14877,7 +14848,7 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="5" t="s">
         <v>1749</v>
       </c>
       <c r="B1" s="3" t="s">
@@ -14886,12 +14857,12 @@
       <c r="D1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="0" t="s">
-        <v>117</v>
+      <c r="F1" s="3" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="5" t="s">
         <v>1751</v>
       </c>
       <c r="B2" s="3" t="s">
@@ -14900,12 +14871,12 @@
       <c r="D2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="0" t="s">
-        <v>117</v>
+      <c r="F2" s="3" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="6" t="s">
+      <c r="A3" s="5" t="s">
         <v>1753</v>
       </c>
       <c r="B3" s="3" t="s">
@@ -14914,12 +14885,12 @@
       <c r="D3" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F3" s="0" t="s">
-        <v>117</v>
+      <c r="F3" s="3" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="6" t="s">
+      <c r="A4" s="5" t="s">
         <v>1755</v>
       </c>
       <c r="B4" s="3" t="s">
@@ -14928,12 +14899,12 @@
       <c r="D4" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="F4" s="0" t="s">
-        <v>117</v>
+      <c r="F4" s="3" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="6" t="s">
+      <c r="A5" s="5" t="s">
         <v>1757</v>
       </c>
       <c r="B5" s="3" t="s">
@@ -14942,12 +14913,12 @@
       <c r="D5" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="F5" s="0" t="s">
-        <v>117</v>
+      <c r="F5" s="3" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="6" t="s">
+      <c r="A6" s="5" t="s">
         <v>1759</v>
       </c>
       <c r="B6" s="3" t="s">
@@ -14956,12 +14927,12 @@
       <c r="D6" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="F6" s="0" t="s">
-        <v>117</v>
+      <c r="F6" s="3" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="6" t="s">
+      <c r="A7" s="5" t="s">
         <v>1761</v>
       </c>
       <c r="B7" s="3" t="s">
@@ -14970,12 +14941,12 @@
       <c r="D7" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="F7" s="0" t="s">
-        <v>117</v>
+      <c r="F7" s="3" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="6" t="s">
+      <c r="A8" s="5" t="s">
         <v>1762</v>
       </c>
       <c r="B8" s="3" t="s">
@@ -14984,12 +14955,12 @@
       <c r="D8" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="F8" s="0" t="s">
-        <v>117</v>
+      <c r="F8" s="3" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="6" t="s">
+      <c r="A9" s="5" t="s">
         <v>1764</v>
       </c>
       <c r="B9" s="3" t="s">
@@ -14998,12 +14969,12 @@
       <c r="D9" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="F9" s="0" t="s">
-        <v>117</v>
+      <c r="F9" s="3" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="6" t="s">
+      <c r="A10" s="5" t="s">
         <v>1766</v>
       </c>
       <c r="B10" s="3" t="s">
@@ -15012,12 +14983,12 @@
       <c r="D10" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="F10" s="0" t="s">
-        <v>117</v>
+      <c r="F10" s="3" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="6" t="s">
+      <c r="A11" s="5" t="s">
         <v>1768</v>
       </c>
       <c r="B11" s="3" t="s">
@@ -15026,12 +14997,12 @@
       <c r="D11" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="F11" s="0" t="s">
-        <v>117</v>
+      <c r="F11" s="3" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="6" t="s">
+      <c r="A12" s="5" t="s">
         <v>1770</v>
       </c>
       <c r="B12" s="3" t="s">
@@ -15040,12 +15011,12 @@
       <c r="D12" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="F12" s="0" t="s">
-        <v>117</v>
+      <c r="F12" s="3" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="6" t="s">
+      <c r="A13" s="5" t="s">
         <v>1772</v>
       </c>
       <c r="B13" s="3" t="s">
@@ -15054,12 +15025,12 @@
       <c r="D13" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="F13" s="0" t="s">
-        <v>117</v>
+      <c r="F13" s="3" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="6" t="s">
+      <c r="A14" s="5" t="s">
         <v>1774</v>
       </c>
       <c r="B14" s="3" t="s">
@@ -15068,12 +15039,12 @@
       <c r="D14" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="F14" s="0" t="s">
-        <v>117</v>
+      <c r="F14" s="3" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="6" t="s">
+      <c r="A15" s="5" t="s">
         <v>1776</v>
       </c>
       <c r="B15" s="3" t="s">
@@ -15082,12 +15053,12 @@
       <c r="D15" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="F15" s="0" t="s">
-        <v>117</v>
+      <c r="F15" s="3" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="6" t="s">
+      <c r="A16" s="5" t="s">
         <v>1778</v>
       </c>
       <c r="B16" s="3" t="s">
@@ -15096,12 +15067,12 @@
       <c r="D16" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="F16" s="0" t="s">
-        <v>117</v>
+      <c r="F16" s="3" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="6" t="s">
+      <c r="A17" s="5" t="s">
         <v>1780</v>
       </c>
       <c r="B17" s="3" t="s">
@@ -15110,12 +15081,12 @@
       <c r="D17" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="F17" s="0" t="s">
-        <v>117</v>
+      <c r="F17" s="3" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="6" t="s">
+      <c r="A18" s="5" t="s">
         <v>1782</v>
       </c>
       <c r="B18" s="3" t="s">
@@ -15124,12 +15095,12 @@
       <c r="D18" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="F18" s="0" t="s">
-        <v>117</v>
+      <c r="F18" s="3" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="6" t="s">
+      <c r="A19" s="5" t="s">
         <v>1784</v>
       </c>
       <c r="B19" s="3" t="s">
@@ -15138,12 +15109,12 @@
       <c r="D19" s="3" t="s">
         <v>1784</v>
       </c>
-      <c r="F19" s="0" t="s">
-        <v>117</v>
+      <c r="F19" s="3" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="6" t="s">
+      <c r="A20" s="5" t="s">
         <v>1786</v>
       </c>
       <c r="B20" s="3" t="s">
@@ -15154,7 +15125,7 @@
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="6" t="s">
+      <c r="A21" s="5" t="s">
         <v>1788</v>
       </c>
       <c r="B21" s="3" t="s">
@@ -15163,12 +15134,12 @@
       <c r="D21" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="F21" s="0" t="s">
-        <v>117</v>
+      <c r="F21" s="3" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="6" t="s">
+      <c r="A22" s="5" t="s">
         <v>1790</v>
       </c>
       <c r="B22" s="3" t="s">
@@ -15177,12 +15148,12 @@
       <c r="D22" s="3" t="s">
         <v>1790</v>
       </c>
-      <c r="F22" s="0" t="s">
-        <v>117</v>
+      <c r="F22" s="3" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="6" t="s">
+      <c r="A23" s="5" t="s">
         <v>1792</v>
       </c>
       <c r="B23" s="3" t="s">
@@ -15191,12 +15162,12 @@
       <c r="D23" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="F23" s="0" t="s">
-        <v>117</v>
+      <c r="F23" s="3" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="6" t="s">
+      <c r="A24" s="5" t="s">
         <v>1794</v>
       </c>
       <c r="B24" s="3" t="s">
@@ -15205,12 +15176,12 @@
       <c r="D24" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="F24" s="0" t="s">
-        <v>117</v>
+      <c r="F24" s="3" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="6" t="s">
+      <c r="A25" s="5" t="s">
         <v>1796</v>
       </c>
       <c r="B25" s="3" t="s">
@@ -15219,12 +15190,12 @@
       <c r="D25" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="F25" s="0" t="s">
-        <v>117</v>
+      <c r="F25" s="3" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="6" t="s">
+      <c r="A26" s="5" t="s">
         <v>1798</v>
       </c>
       <c r="B26" s="3" t="s">
@@ -15233,12 +15204,12 @@
       <c r="D26" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="F26" s="0" t="s">
-        <v>117</v>
+      <c r="F26" s="3" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="6" t="s">
+      <c r="A27" s="5" t="s">
         <v>1800</v>
       </c>
       <c r="B27" s="3" t="s">
@@ -15247,12 +15218,12 @@
       <c r="D27" s="3" t="s">
         <v>1800</v>
       </c>
-      <c r="F27" s="0" t="s">
-        <v>117</v>
+      <c r="F27" s="3" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="6" t="s">
+      <c r="A28" s="5" t="s">
         <v>1802</v>
       </c>
       <c r="B28" s="3" t="s">
@@ -15261,12 +15232,12 @@
       <c r="D28" s="3" t="s">
         <v>1804</v>
       </c>
-      <c r="F28" s="0" t="s">
-        <v>117</v>
+      <c r="F28" s="3" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="6" t="s">
+      <c r="A29" s="5" t="s">
         <v>1805</v>
       </c>
       <c r="B29" s="3" t="s">
@@ -15275,12 +15246,12 @@
       <c r="D29" s="3" t="s">
         <v>1807</v>
       </c>
-      <c r="F29" s="0" t="s">
-        <v>117</v>
+      <c r="F29" s="3" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="6" t="s">
+      <c r="A30" s="5" t="s">
         <v>1808</v>
       </c>
       <c r="B30" s="3" t="s">
@@ -15289,12 +15260,12 @@
       <c r="D30" s="3" t="s">
         <v>1810</v>
       </c>
-      <c r="F30" s="0" t="s">
-        <v>117</v>
+      <c r="F30" s="3" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="6" t="s">
+      <c r="A31" s="5" t="s">
         <v>1811</v>
       </c>
       <c r="B31" s="1" t="s">
@@ -15303,12 +15274,12 @@
       <c r="D31" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="F31" s="0" t="s">
-        <v>117</v>
+      <c r="F31" s="3" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="6" t="s">
+      <c r="A32" s="5" t="s">
         <v>1812</v>
       </c>
       <c r="B32" s="1" t="s">
@@ -15317,12 +15288,12 @@
       <c r="D32" s="1" t="s">
         <v>1814</v>
       </c>
-      <c r="F32" s="0" t="s">
-        <v>117</v>
+      <c r="F32" s="3" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="6" t="s">
+      <c r="A33" s="5" t="s">
         <v>1815</v>
       </c>
       <c r="B33" s="1" t="s">
@@ -15331,12 +15302,12 @@
       <c r="D33" s="1" t="s">
         <v>1817</v>
       </c>
-      <c r="F33" s="0" t="s">
-        <v>117</v>
+      <c r="F33" s="3" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="6" t="s">
+      <c r="A34" s="5" t="s">
         <v>1818</v>
       </c>
       <c r="B34" s="1" t="s">
@@ -15345,12 +15316,12 @@
       <c r="D34" s="1" t="s">
         <v>1820</v>
       </c>
-      <c r="F34" s="0" t="s">
-        <v>117</v>
+      <c r="F34" s="3" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="6" t="s">
+      <c r="A35" s="5" t="s">
         <v>1821</v>
       </c>
       <c r="B35" s="1" t="s">
@@ -15359,12 +15330,12 @@
       <c r="D35" s="1" t="s">
         <v>1823</v>
       </c>
-      <c r="F35" s="0" t="s">
-        <v>117</v>
+      <c r="F35" s="3" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="6" t="s">
+      <c r="A36" s="5" t="s">
         <v>1824</v>
       </c>
       <c r="B36" s="1" t="s">
@@ -15373,12 +15344,12 @@
       <c r="D36" s="1" t="s">
         <v>1826</v>
       </c>
-      <c r="F36" s="0" t="s">
-        <v>117</v>
+      <c r="F36" s="3" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="6" t="s">
+      <c r="A37" s="5" t="s">
         <v>1827</v>
       </c>
       <c r="B37" s="1" t="s">
@@ -15387,12 +15358,12 @@
       <c r="D37" s="1" t="s">
         <v>1829</v>
       </c>
-      <c r="F37" s="0" t="s">
-        <v>117</v>
+      <c r="F37" s="3" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="6" t="s">
+      <c r="A38" s="5" t="s">
         <v>1830</v>
       </c>
       <c r="B38" s="1" t="s">
@@ -15401,12 +15372,12 @@
       <c r="D38" s="1" t="s">
         <v>1832</v>
       </c>
-      <c r="F38" s="0" t="s">
-        <v>117</v>
+      <c r="F38" s="3" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="6" t="s">
+      <c r="A39" s="5" t="s">
         <v>1833</v>
       </c>
       <c r="B39" s="1" t="s">
@@ -15415,12 +15386,12 @@
       <c r="D39" s="1" t="s">
         <v>1835</v>
       </c>
-      <c r="F39" s="0" t="s">
-        <v>117</v>
+      <c r="F39" s="3" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="6" t="s">
+      <c r="A40" s="5" t="s">
         <v>1836</v>
       </c>
       <c r="B40" s="1" t="s">
@@ -15431,7 +15402,7 @@
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="6" t="s">
+      <c r="A41" s="5" t="s">
         <v>1839</v>
       </c>
       <c r="B41" s="1" t="s">
@@ -15440,12 +15411,12 @@
       <c r="D41" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="F41" s="0" t="s">
-        <v>117</v>
+      <c r="F41" s="3" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="6" t="s">
+      <c r="A42" s="5" t="s">
         <v>1840</v>
       </c>
       <c r="B42" s="1" t="s">
@@ -15454,12 +15425,12 @@
       <c r="D42" s="1" t="s">
         <v>1842</v>
       </c>
-      <c r="F42" s="0" t="s">
-        <v>117</v>
+      <c r="F42" s="3" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="6" t="s">
+      <c r="A43" s="5" t="s">
         <v>1843</v>
       </c>
       <c r="B43" s="1" t="s">
@@ -15468,12 +15439,12 @@
       <c r="D43" s="1" t="s">
         <v>1845</v>
       </c>
-      <c r="F43" s="0" t="s">
-        <v>117</v>
+      <c r="F43" s="3" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="6" t="s">
+      <c r="A44" s="5" t="s">
         <v>1846</v>
       </c>
       <c r="B44" s="1" t="s">
@@ -15482,12 +15453,12 @@
       <c r="D44" s="1" t="s">
         <v>1848</v>
       </c>
-      <c r="F44" s="0" t="s">
-        <v>117</v>
+      <c r="F44" s="3" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="6" t="s">
+      <c r="A45" s="5" t="s">
         <v>1849</v>
       </c>
       <c r="B45" s="1" t="s">
@@ -15496,12 +15467,12 @@
       <c r="D45" s="1" t="s">
         <v>1851</v>
       </c>
-      <c r="F45" s="0" t="s">
-        <v>117</v>
+      <c r="F45" s="3" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="6" t="s">
+      <c r="A46" s="5" t="s">
         <v>1852</v>
       </c>
       <c r="B46" s="1" t="s">
@@ -15510,8 +15481,8 @@
       <c r="D46" s="1" t="s">
         <v>1854</v>
       </c>
-      <c r="F46" s="0" t="s">
-        <v>117</v>
+      <c r="F46" s="3" t="s">
+        <v>120</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/excel/1.1 Vocabulary.xlsx
+++ b/src/main/resources/excel/1.1 Vocabulary.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Cardinal Numbers" sheetId="1" state="visible" r:id="rId3"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2596" uniqueCount="1855">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2628" uniqueCount="1855">
   <si>
     <t xml:space="preserve">One</t>
   </si>
@@ -39,6 +39,9 @@
     <t xml:space="preserve">wʌn</t>
   </si>
   <si>
+    <t xml:space="preserve">EXAMPLE</t>
+  </si>
+  <si>
     <t xml:space="preserve">Two</t>
   </si>
   <si>
@@ -388,9 +391,6 @@
   </si>
   <si>
     <t xml:space="preserve">waɪt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EXAMPLE</t>
   </si>
   <si>
     <t xml:space="preserve">blue</t>
@@ -6092,10 +6092,10 @@
     <tabColor rgb="FFFFFFFF"/>
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D38"/>
+  <dimension ref="A1:F38"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D1" activeCellId="0" sqref="D1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D63" activeCellId="0" sqref="D63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6796875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -6115,412 +6115,520 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="F1" s="1" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
+      </c>
+      <c r="F31" s="1" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>95</v>
+        <v>96</v>
+      </c>
+      <c r="F32" s="1" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>98</v>
+        <v>99</v>
+      </c>
+      <c r="F33" s="1" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>101</v>
+        <v>102</v>
+      </c>
+      <c r="F34" s="1" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>104</v>
+        <v>105</v>
+      </c>
+      <c r="F35" s="1" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>107</v>
+        <v>108</v>
+      </c>
+      <c r="F36" s="1" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>110</v>
+        <v>111</v>
+      </c>
+      <c r="F37" s="1" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>113</v>
+        <v>114</v>
+      </c>
+      <c r="F38" s="1" t="s">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -6542,8 +6650,8 @@
   </sheetPr>
   <dimension ref="A1:F56"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F1" activeCellId="0" sqref="F1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F48" activeCellId="0" sqref="F48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6796875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -6555,28 +6663,28 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="F1" s="1"/>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>120</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6590,7 +6698,7 @@
         <v>123</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>120</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6604,7 +6712,7 @@
         <v>126</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>120</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6618,7 +6726,7 @@
         <v>129</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>120</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6632,7 +6740,7 @@
         <v>132</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>120</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6646,7 +6754,7 @@
         <v>135</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>120</v>
+        <v>3</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6660,7 +6768,7 @@
         <v>138</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>120</v>
+        <v>3</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6674,7 +6782,7 @@
         <v>141</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>120</v>
+        <v>3</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6688,7 +6796,7 @@
         <v>144</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>120</v>
+        <v>3</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6702,7 +6810,7 @@
         <v>147</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>120</v>
+        <v>3</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6716,7 +6824,7 @@
         <v>150</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>120</v>
+        <v>3</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6730,7 +6838,7 @@
         <v>152</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>120</v>
+        <v>3</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6744,7 +6852,7 @@
         <v>155</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>120</v>
+        <v>3</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6758,7 +6866,7 @@
         <v>158</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>120</v>
+        <v>3</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6772,7 +6880,7 @@
         <v>161</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>120</v>
+        <v>3</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6786,7 +6894,7 @@
         <v>164</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>120</v>
+        <v>3</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6800,7 +6908,7 @@
         <v>167</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>120</v>
+        <v>3</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6814,7 +6922,7 @@
         <v>170</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>120</v>
+        <v>3</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6840,7 +6948,7 @@
         <v>175</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>120</v>
+        <v>3</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6854,7 +6962,7 @@
         <v>178</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>120</v>
+        <v>3</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6868,7 +6976,7 @@
         <v>181</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>120</v>
+        <v>3</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6882,7 +6990,7 @@
         <v>184</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>120</v>
+        <v>3</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6896,7 +7004,7 @@
         <v>185</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>120</v>
+        <v>3</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6910,7 +7018,7 @@
         <v>189</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>120</v>
+        <v>3</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6924,7 +7032,7 @@
         <v>192</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>120</v>
+        <v>3</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6938,7 +7046,7 @@
         <v>195</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>120</v>
+        <v>3</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6952,7 +7060,7 @@
         <v>198</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>120</v>
+        <v>3</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6966,7 +7074,7 @@
         <v>199</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>120</v>
+        <v>3</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6980,7 +7088,7 @@
         <v>203</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>120</v>
+        <v>3</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6994,7 +7102,7 @@
         <v>206</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>120</v>
+        <v>3</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7008,7 +7116,7 @@
         <v>209</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>120</v>
+        <v>3</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7022,7 +7130,7 @@
         <v>212</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>120</v>
+        <v>3</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7036,7 +7144,7 @@
         <v>215</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>120</v>
+        <v>3</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7050,7 +7158,7 @@
         <v>218</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>120</v>
+        <v>3</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7064,7 +7172,7 @@
         <v>192</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>120</v>
+        <v>3</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7078,7 +7186,7 @@
         <v>221</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>120</v>
+        <v>3</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7092,7 +7200,7 @@
         <v>224</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>120</v>
+        <v>3</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7106,7 +7214,7 @@
         <v>195</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>120</v>
+        <v>3</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7132,7 +7240,7 @@
         <v>230</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>120</v>
+        <v>3</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7146,7 +7254,7 @@
         <v>233</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>120</v>
+        <v>3</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7160,7 +7268,7 @@
         <v>236</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>120</v>
+        <v>3</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7174,7 +7282,7 @@
         <v>239</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>120</v>
+        <v>3</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7188,7 +7296,7 @@
         <v>242</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>120</v>
+        <v>3</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7202,7 +7310,7 @@
         <v>245</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>120</v>
+        <v>3</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7216,7 +7324,7 @@
         <v>248</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>120</v>
+        <v>3</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7230,7 +7338,7 @@
         <v>251</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>120</v>
+        <v>3</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7244,7 +7352,7 @@
         <v>254</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>120</v>
+        <v>3</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7258,7 +7366,7 @@
         <v>257</v>
       </c>
       <c r="F51" s="1" t="s">
-        <v>120</v>
+        <v>3</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7272,7 +7380,7 @@
         <v>260</v>
       </c>
       <c r="F52" s="1" t="s">
-        <v>120</v>
+        <v>3</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7286,7 +7394,7 @@
         <v>263</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>120</v>
+        <v>3</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7300,7 +7408,7 @@
         <v>266</v>
       </c>
       <c r="F54" s="1" t="s">
-        <v>120</v>
+        <v>3</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7314,7 +7422,7 @@
         <v>269</v>
       </c>
       <c r="F55" s="1" t="s">
-        <v>120</v>
+        <v>3</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7328,7 +7436,7 @@
         <v>272</v>
       </c>
       <c r="F56" s="1" t="s">
-        <v>120</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -7351,7 +7459,7 @@
   <dimension ref="A1:E44"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E41" activeCellId="0" sqref="E41"/>
+      <selection pane="topLeft" activeCell="E1" activeCellId="0" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6796875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -7373,9 +7481,6 @@
       <c r="D1" s="1" t="s">
         <v>275</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>120</v>
-      </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="s">
@@ -7388,7 +7493,7 @@
         <v>278</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>120</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7402,7 +7507,7 @@
         <v>281</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>120</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7416,7 +7521,7 @@
         <v>284</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>120</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7430,7 +7535,7 @@
         <v>287</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>120</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7444,7 +7549,7 @@
         <v>290</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>120</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7458,7 +7563,7 @@
         <v>293</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>120</v>
+        <v>3</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7472,7 +7577,7 @@
         <v>296</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>120</v>
+        <v>3</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7486,7 +7591,7 @@
         <v>299</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>120</v>
+        <v>3</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7500,7 +7605,7 @@
         <v>302</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>120</v>
+        <v>3</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7514,7 +7619,7 @@
         <v>305</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>120</v>
+        <v>3</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7528,7 +7633,7 @@
         <v>308</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>120</v>
+        <v>3</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7542,7 +7647,7 @@
         <v>311</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>120</v>
+        <v>3</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7556,7 +7661,7 @@
         <v>314</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>120</v>
+        <v>3</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7570,7 +7675,7 @@
         <v>317</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>120</v>
+        <v>3</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7584,7 +7689,7 @@
         <v>320</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>120</v>
+        <v>3</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7598,7 +7703,7 @@
         <v>323</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>120</v>
+        <v>3</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7612,7 +7717,7 @@
         <v>326</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>120</v>
+        <v>3</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7626,7 +7731,7 @@
         <v>329</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>120</v>
+        <v>3</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7651,7 +7756,7 @@
         <v>335</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>120</v>
+        <v>3</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7665,7 +7770,7 @@
         <v>337</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>120</v>
+        <v>3</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7679,7 +7784,7 @@
         <v>340</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>120</v>
+        <v>3</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7693,7 +7798,7 @@
         <v>343</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>120</v>
+        <v>3</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7707,7 +7812,7 @@
         <v>346</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>120</v>
+        <v>3</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7721,7 +7826,7 @@
         <v>349</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>120</v>
+        <v>3</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7735,7 +7840,7 @@
         <v>352</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>120</v>
+        <v>3</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7749,7 +7854,7 @@
         <v>355</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>120</v>
+        <v>3</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7763,7 +7868,7 @@
         <v>358</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>120</v>
+        <v>3</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7777,7 +7882,7 @@
         <v>361</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>120</v>
+        <v>3</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7791,7 +7896,7 @@
         <v>364</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>120</v>
+        <v>3</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7805,7 +7910,7 @@
         <v>367</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>120</v>
+        <v>3</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7819,7 +7924,7 @@
         <v>370</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>120</v>
+        <v>3</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7833,7 +7938,7 @@
         <v>373</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>120</v>
+        <v>3</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7847,7 +7952,7 @@
         <v>376</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>120</v>
+        <v>3</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7861,7 +7966,7 @@
         <v>379</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>120</v>
+        <v>3</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7875,7 +7980,7 @@
         <v>382</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>120</v>
+        <v>3</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7889,7 +7994,7 @@
         <v>385</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>120</v>
+        <v>3</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7903,7 +8008,7 @@
         <v>388</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>120</v>
+        <v>3</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7928,7 +8033,7 @@
         <v>394</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>120</v>
+        <v>3</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7942,7 +8047,7 @@
         <v>397</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>120</v>
+        <v>3</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7956,7 +8061,7 @@
         <v>400</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>120</v>
+        <v>3</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7970,7 +8075,7 @@
         <v>403</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>120</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -7993,7 +8098,7 @@
   <dimension ref="A1:H60"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F59" activeCellId="0" sqref="F59"/>
+      <selection pane="topLeft" activeCell="F1" activeCellId="0" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6796875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -8016,9 +8121,6 @@
       <c r="D1" s="1" t="s">
         <v>406</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>120</v>
-      </c>
       <c r="H1" s="4" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
@@ -8035,7 +8137,7 @@
         <v>409</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>120</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8049,7 +8151,7 @@
         <v>412</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>120</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8063,7 +8165,7 @@
         <v>415</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>120</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8077,7 +8179,7 @@
         <v>418</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>120</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8091,7 +8193,7 @@
         <v>421</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>120</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8105,7 +8207,7 @@
         <v>424</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>120</v>
+        <v>3</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8119,7 +8221,7 @@
         <v>427</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>120</v>
+        <v>3</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8133,7 +8235,7 @@
         <v>430</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>120</v>
+        <v>3</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8147,7 +8249,7 @@
         <v>433</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>120</v>
+        <v>3</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8161,7 +8263,7 @@
         <v>436</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>120</v>
+        <v>3</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8175,7 +8277,7 @@
         <v>439</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>120</v>
+        <v>3</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8189,7 +8291,7 @@
         <v>442</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>120</v>
+        <v>3</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8203,7 +8305,7 @@
         <v>445</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>120</v>
+        <v>3</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8217,7 +8319,7 @@
         <v>448</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>120</v>
+        <v>3</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8231,7 +8333,7 @@
         <v>451</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>120</v>
+        <v>3</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8245,7 +8347,7 @@
         <v>454</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>120</v>
+        <v>3</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8259,7 +8361,7 @@
         <v>457</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>120</v>
+        <v>3</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8273,7 +8375,7 @@
         <v>460</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>120</v>
+        <v>3</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8298,7 +8400,7 @@
         <v>466</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>120</v>
+        <v>3</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8312,7 +8414,7 @@
         <v>469</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>120</v>
+        <v>3</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8326,7 +8428,7 @@
         <v>472</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>120</v>
+        <v>3</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8340,7 +8442,7 @@
         <v>475</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>120</v>
+        <v>3</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8354,7 +8456,7 @@
         <v>478</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>120</v>
+        <v>3</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8368,7 +8470,7 @@
         <v>481</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>120</v>
+        <v>3</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8382,7 +8484,7 @@
         <v>484</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>120</v>
+        <v>3</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8396,7 +8498,7 @@
         <v>487</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>120</v>
+        <v>3</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8410,7 +8512,7 @@
         <v>490</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>120</v>
+        <v>3</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8424,7 +8526,7 @@
         <v>493</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>120</v>
+        <v>3</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8438,7 +8540,7 @@
         <v>496</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>120</v>
+        <v>3</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8452,7 +8554,7 @@
         <v>497</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>120</v>
+        <v>3</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8466,7 +8568,7 @@
         <v>499</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>120</v>
+        <v>3</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8480,7 +8582,7 @@
         <v>503</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>120</v>
+        <v>3</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8494,7 +8596,7 @@
         <v>506</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>120</v>
+        <v>3</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8508,7 +8610,7 @@
         <v>509</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>120</v>
+        <v>3</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8522,7 +8624,7 @@
         <v>512</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>120</v>
+        <v>3</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8536,7 +8638,7 @@
         <v>515</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>120</v>
+        <v>3</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8550,7 +8652,7 @@
         <v>518</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>120</v>
+        <v>3</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8575,7 +8677,7 @@
         <v>524</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>120</v>
+        <v>3</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8589,7 +8691,7 @@
         <v>527</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>120</v>
+        <v>3</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8603,7 +8705,7 @@
         <v>530</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>120</v>
+        <v>3</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8617,7 +8719,7 @@
         <v>533</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>120</v>
+        <v>3</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8631,7 +8733,7 @@
         <v>536</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>120</v>
+        <v>3</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8645,7 +8747,7 @@
         <v>539</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>120</v>
+        <v>3</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8659,7 +8761,7 @@
         <v>542</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>120</v>
+        <v>3</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8673,7 +8775,7 @@
         <v>545</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>120</v>
+        <v>3</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8687,7 +8789,7 @@
         <v>548</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>120</v>
+        <v>3</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8701,7 +8803,7 @@
         <v>551</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>120</v>
+        <v>3</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8715,7 +8817,7 @@
         <v>554</v>
       </c>
       <c r="F51" s="1" t="s">
-        <v>120</v>
+        <v>3</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8729,7 +8831,7 @@
         <v>557</v>
       </c>
       <c r="F52" s="1" t="s">
-        <v>120</v>
+        <v>3</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8743,7 +8845,7 @@
         <v>560</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>120</v>
+        <v>3</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8757,7 +8859,7 @@
         <v>563</v>
       </c>
       <c r="F54" s="1" t="s">
-        <v>120</v>
+        <v>3</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8771,7 +8873,7 @@
         <v>566</v>
       </c>
       <c r="F55" s="1" t="s">
-        <v>120</v>
+        <v>3</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8785,7 +8887,7 @@
         <v>569</v>
       </c>
       <c r="F56" s="1" t="s">
-        <v>120</v>
+        <v>3</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8799,7 +8901,7 @@
         <v>572</v>
       </c>
       <c r="F57" s="1" t="s">
-        <v>120</v>
+        <v>3</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8813,7 +8915,7 @@
         <v>575</v>
       </c>
       <c r="F58" s="1" t="s">
-        <v>120</v>
+        <v>3</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8827,7 +8929,7 @@
         <v>578</v>
       </c>
       <c r="F59" s="1" t="s">
-        <v>120</v>
+        <v>3</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8841,7 +8943,7 @@
         <v>581</v>
       </c>
       <c r="F60" s="1" t="s">
-        <v>120</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -8863,8 +8965,8 @@
   </sheetPr>
   <dimension ref="A1:F132"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A69" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F136" activeCellId="0" sqref="F136"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F1" activeCellId="0" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6796875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -8884,9 +8986,6 @@
       <c r="D1" s="1" t="s">
         <v>584</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>120</v>
-      </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
@@ -8899,7 +8998,7 @@
         <v>587</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>120</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8913,7 +9012,7 @@
         <v>590</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>120</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8927,7 +9026,7 @@
         <v>263</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>120</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8941,7 +9040,7 @@
         <v>595</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>120</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8955,7 +9054,7 @@
         <v>598</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>120</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8969,7 +9068,7 @@
         <v>601</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>120</v>
+        <v>3</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8983,7 +9082,7 @@
         <v>604</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>120</v>
+        <v>3</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8997,7 +9096,7 @@
         <v>607</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>120</v>
+        <v>3</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9011,7 +9110,7 @@
         <v>610</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>120</v>
+        <v>3</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9025,7 +9124,7 @@
         <v>613</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>120</v>
+        <v>3</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9039,7 +9138,7 @@
         <v>616</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>120</v>
+        <v>3</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9053,7 +9152,7 @@
         <v>617</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>120</v>
+        <v>3</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9067,7 +9166,7 @@
         <v>621</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>120</v>
+        <v>3</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9081,7 +9180,7 @@
         <v>624</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>120</v>
+        <v>3</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9095,7 +9194,7 @@
         <v>625</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>120</v>
+        <v>3</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9109,7 +9208,7 @@
         <v>629</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>120</v>
+        <v>3</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9123,7 +9222,7 @@
         <v>632</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>120</v>
+        <v>3</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9137,7 +9236,7 @@
         <v>635</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>120</v>
+        <v>3</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9162,7 +9261,7 @@
         <v>641</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>120</v>
+        <v>3</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9176,7 +9275,7 @@
         <v>644</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>120</v>
+        <v>3</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9190,7 +9289,7 @@
         <v>647</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>120</v>
+        <v>3</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9204,7 +9303,7 @@
         <v>650</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>120</v>
+        <v>3</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9218,7 +9317,7 @@
         <v>653</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>120</v>
+        <v>3</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9232,7 +9331,7 @@
         <v>656</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>120</v>
+        <v>3</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9246,7 +9345,7 @@
         <v>657</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>120</v>
+        <v>3</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9260,7 +9359,7 @@
         <v>661</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>120</v>
+        <v>3</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9274,7 +9373,7 @@
         <v>664</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>120</v>
+        <v>3</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9288,7 +9387,7 @@
         <v>667</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>120</v>
+        <v>3</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9302,7 +9401,7 @@
         <v>670</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>120</v>
+        <v>3</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9316,7 +9415,7 @@
         <v>673</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>120</v>
+        <v>3</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9330,7 +9429,7 @@
         <v>674</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>120</v>
+        <v>3</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9344,7 +9443,7 @@
         <v>678</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>120</v>
+        <v>3</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9358,7 +9457,7 @@
         <v>681</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>120</v>
+        <v>3</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9372,7 +9471,7 @@
         <v>684</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>120</v>
+        <v>3</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9386,7 +9485,7 @@
         <v>686</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>120</v>
+        <v>3</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9400,7 +9499,7 @@
         <v>689</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>120</v>
+        <v>3</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9414,7 +9513,7 @@
         <v>692</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>120</v>
+        <v>3</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9439,7 +9538,7 @@
         <v>698</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>120</v>
+        <v>3</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9453,7 +9552,7 @@
         <v>701</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>120</v>
+        <v>3</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9467,7 +9566,7 @@
         <v>704</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>120</v>
+        <v>3</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9481,7 +9580,7 @@
         <v>707</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>120</v>
+        <v>3</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9495,7 +9594,7 @@
         <v>710</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>120</v>
+        <v>3</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9509,7 +9608,7 @@
         <v>713</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>120</v>
+        <v>3</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9523,7 +9622,7 @@
         <v>716</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>120</v>
+        <v>3</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9537,7 +9636,7 @@
         <v>719</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>120</v>
+        <v>3</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9551,7 +9650,7 @@
         <v>722</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>120</v>
+        <v>3</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9565,7 +9664,7 @@
         <v>725</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>120</v>
+        <v>3</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9579,7 +9678,7 @@
         <v>728</v>
       </c>
       <c r="F51" s="1" t="s">
-        <v>120</v>
+        <v>3</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9593,7 +9692,7 @@
         <v>731</v>
       </c>
       <c r="F52" s="1" t="s">
-        <v>120</v>
+        <v>3</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9607,7 +9706,7 @@
         <v>734</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>120</v>
+        <v>3</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9621,7 +9720,7 @@
         <v>737</v>
       </c>
       <c r="F54" s="1" t="s">
-        <v>120</v>
+        <v>3</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9635,7 +9734,7 @@
         <v>740</v>
       </c>
       <c r="F55" s="1" t="s">
-        <v>120</v>
+        <v>3</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9649,7 +9748,7 @@
         <v>743</v>
       </c>
       <c r="F56" s="1" t="s">
-        <v>120</v>
+        <v>3</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9663,7 +9762,7 @@
         <v>746</v>
       </c>
       <c r="F57" s="1" t="s">
-        <v>120</v>
+        <v>3</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9677,7 +9776,7 @@
         <v>749</v>
       </c>
       <c r="F58" s="1" t="s">
-        <v>120</v>
+        <v>3</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9691,7 +9790,7 @@
         <v>752</v>
       </c>
       <c r="F59" s="1" t="s">
-        <v>120</v>
+        <v>3</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9716,7 +9815,7 @@
         <v>756</v>
       </c>
       <c r="F61" s="1" t="s">
-        <v>120</v>
+        <v>3</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9730,7 +9829,7 @@
         <v>760</v>
       </c>
       <c r="F62" s="1" t="s">
-        <v>120</v>
+        <v>3</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9744,7 +9843,7 @@
         <v>763</v>
       </c>
       <c r="F63" s="1" t="s">
-        <v>120</v>
+        <v>3</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9758,7 +9857,7 @@
         <v>766</v>
       </c>
       <c r="F64" s="1" t="s">
-        <v>120</v>
+        <v>3</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9772,7 +9871,7 @@
         <v>767</v>
       </c>
       <c r="F65" s="1" t="s">
-        <v>120</v>
+        <v>3</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9786,7 +9885,7 @@
         <v>771</v>
       </c>
       <c r="F66" s="1" t="s">
-        <v>120</v>
+        <v>3</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9800,7 +9899,7 @@
         <v>774</v>
       </c>
       <c r="F67" s="1" t="s">
-        <v>120</v>
+        <v>3</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9814,7 +9913,7 @@
         <v>777</v>
       </c>
       <c r="F68" s="1" t="s">
-        <v>120</v>
+        <v>3</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9828,7 +9927,7 @@
         <v>780</v>
       </c>
       <c r="F69" s="1" t="s">
-        <v>120</v>
+        <v>3</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9842,7 +9941,7 @@
         <v>782</v>
       </c>
       <c r="F70" s="1" t="s">
-        <v>120</v>
+        <v>3</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9856,7 +9955,7 @@
         <v>785</v>
       </c>
       <c r="F71" s="1" t="s">
-        <v>120</v>
+        <v>3</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9870,7 +9969,7 @@
         <v>788</v>
       </c>
       <c r="F72" s="1" t="s">
-        <v>120</v>
+        <v>3</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9884,7 +9983,7 @@
         <v>791</v>
       </c>
       <c r="F73" s="1" t="s">
-        <v>120</v>
+        <v>3</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9898,7 +9997,7 @@
         <v>794</v>
       </c>
       <c r="F74" s="1" t="s">
-        <v>120</v>
+        <v>3</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9912,7 +10011,7 @@
         <v>797</v>
       </c>
       <c r="F75" s="1" t="s">
-        <v>120</v>
+        <v>3</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9926,7 +10025,7 @@
         <v>800</v>
       </c>
       <c r="F76" s="1" t="s">
-        <v>120</v>
+        <v>3</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9940,7 +10039,7 @@
         <v>198</v>
       </c>
       <c r="F77" s="1" t="s">
-        <v>120</v>
+        <v>3</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9954,7 +10053,7 @@
         <v>805</v>
       </c>
       <c r="F78" s="1" t="s">
-        <v>120</v>
+        <v>3</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9968,7 +10067,7 @@
         <v>808</v>
       </c>
       <c r="F79" s="1" t="s">
-        <v>120</v>
+        <v>3</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9993,7 +10092,7 @@
         <v>132</v>
       </c>
       <c r="F81" s="1" t="s">
-        <v>120</v>
+        <v>3</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10007,7 +10106,7 @@
         <v>815</v>
       </c>
       <c r="F82" s="1" t="s">
-        <v>120</v>
+        <v>3</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10021,7 +10120,7 @@
         <v>817</v>
       </c>
       <c r="F83" s="1" t="s">
-        <v>120</v>
+        <v>3</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10035,7 +10134,7 @@
         <v>819</v>
       </c>
       <c r="F84" s="1" t="s">
-        <v>120</v>
+        <v>3</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10049,7 +10148,7 @@
         <v>822</v>
       </c>
       <c r="F85" s="1" t="s">
-        <v>120</v>
+        <v>3</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10063,7 +10162,7 @@
         <v>206</v>
       </c>
       <c r="F86" s="1" t="s">
-        <v>120</v>
+        <v>3</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10077,7 +10176,7 @@
         <v>826</v>
       </c>
       <c r="F87" s="1" t="s">
-        <v>120</v>
+        <v>3</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10091,7 +10190,7 @@
         <v>829</v>
       </c>
       <c r="F88" s="1" t="s">
-        <v>120</v>
+        <v>3</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10105,7 +10204,7 @@
         <v>832</v>
       </c>
       <c r="F89" s="1" t="s">
-        <v>120</v>
+        <v>3</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10119,7 +10218,7 @@
         <v>834</v>
       </c>
       <c r="F90" s="1" t="s">
-        <v>120</v>
+        <v>3</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10133,7 +10232,7 @@
         <v>266</v>
       </c>
       <c r="F91" s="1" t="s">
-        <v>120</v>
+        <v>3</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10147,7 +10246,7 @@
         <v>839</v>
       </c>
       <c r="F92" s="1" t="s">
-        <v>120</v>
+        <v>3</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10161,7 +10260,7 @@
         <v>842</v>
       </c>
       <c r="F93" s="1" t="s">
-        <v>120</v>
+        <v>3</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10175,7 +10274,7 @@
         <v>845</v>
       </c>
       <c r="F94" s="1" t="s">
-        <v>120</v>
+        <v>3</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10189,7 +10288,7 @@
         <v>848</v>
       </c>
       <c r="F95" s="1" t="s">
-        <v>120</v>
+        <v>3</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10203,7 +10302,7 @@
         <v>851</v>
       </c>
       <c r="F96" s="1" t="s">
-        <v>120</v>
+        <v>3</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10217,7 +10316,7 @@
         <v>854</v>
       </c>
       <c r="F97" s="1" t="s">
-        <v>120</v>
+        <v>3</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10231,7 +10330,7 @@
         <v>857</v>
       </c>
       <c r="F98" s="1" t="s">
-        <v>120</v>
+        <v>3</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10245,7 +10344,7 @@
         <v>860</v>
       </c>
       <c r="F99" s="1" t="s">
-        <v>120</v>
+        <v>3</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10270,7 +10369,7 @@
         <v>866</v>
       </c>
       <c r="F101" s="1" t="s">
-        <v>120</v>
+        <v>3</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10284,7 +10383,7 @@
         <v>868</v>
       </c>
       <c r="F102" s="1" t="s">
-        <v>120</v>
+        <v>3</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10298,7 +10397,7 @@
         <v>871</v>
       </c>
       <c r="F103" s="1" t="s">
-        <v>120</v>
+        <v>3</v>
       </c>
     </row>
     <row r="104" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10312,7 +10411,7 @@
         <v>874</v>
       </c>
       <c r="F104" s="1" t="s">
-        <v>120</v>
+        <v>3</v>
       </c>
     </row>
     <row r="105" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10326,7 +10425,7 @@
         <v>877</v>
       </c>
       <c r="F105" s="1" t="s">
-        <v>120</v>
+        <v>3</v>
       </c>
     </row>
     <row r="106" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10340,7 +10439,7 @@
         <v>880</v>
       </c>
       <c r="F106" s="1" t="s">
-        <v>120</v>
+        <v>3</v>
       </c>
     </row>
     <row r="107" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10354,7 +10453,7 @@
         <v>883</v>
       </c>
       <c r="F107" s="1" t="s">
-        <v>120</v>
+        <v>3</v>
       </c>
     </row>
     <row r="108" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10368,7 +10467,7 @@
         <v>886</v>
       </c>
       <c r="F108" s="1" t="s">
-        <v>120</v>
+        <v>3</v>
       </c>
     </row>
     <row r="109" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10382,7 +10481,7 @@
         <v>887</v>
       </c>
       <c r="F109" s="1" t="s">
-        <v>120</v>
+        <v>3</v>
       </c>
     </row>
     <row r="110" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10396,7 +10495,7 @@
         <v>889</v>
       </c>
       <c r="F110" s="1" t="s">
-        <v>120</v>
+        <v>3</v>
       </c>
     </row>
     <row r="111" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10410,7 +10509,7 @@
         <v>893</v>
       </c>
       <c r="F111" s="1" t="s">
-        <v>120</v>
+        <v>3</v>
       </c>
     </row>
     <row r="112" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10424,7 +10523,7 @@
         <v>896</v>
       </c>
       <c r="F112" s="1" t="s">
-        <v>120</v>
+        <v>3</v>
       </c>
     </row>
     <row r="113" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10438,7 +10537,7 @@
         <v>899</v>
       </c>
       <c r="F113" s="1" t="s">
-        <v>120</v>
+        <v>3</v>
       </c>
     </row>
     <row r="114" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10452,7 +10551,7 @@
         <v>902</v>
       </c>
       <c r="F114" s="1" t="s">
-        <v>120</v>
+        <v>3</v>
       </c>
     </row>
     <row r="115" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10466,7 +10565,7 @@
         <v>905</v>
       </c>
       <c r="F115" s="1" t="s">
-        <v>120</v>
+        <v>3</v>
       </c>
     </row>
     <row r="116" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10480,7 +10579,7 @@
         <v>908</v>
       </c>
       <c r="F116" s="1" t="s">
-        <v>120</v>
+        <v>3</v>
       </c>
     </row>
     <row r="117" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10494,7 +10593,7 @@
         <v>911</v>
       </c>
       <c r="F117" s="1" t="s">
-        <v>120</v>
+        <v>3</v>
       </c>
     </row>
     <row r="118" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10508,7 +10607,7 @@
         <v>913</v>
       </c>
       <c r="F118" s="1" t="s">
-        <v>120</v>
+        <v>3</v>
       </c>
     </row>
     <row r="119" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10522,7 +10621,7 @@
         <v>916</v>
       </c>
       <c r="F119" s="1" t="s">
-        <v>120</v>
+        <v>3</v>
       </c>
     </row>
     <row r="120" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10547,7 +10646,7 @@
         <v>922</v>
       </c>
       <c r="F121" s="1" t="s">
-        <v>120</v>
+        <v>3</v>
       </c>
     </row>
     <row r="122" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10561,7 +10660,7 @@
         <v>925</v>
       </c>
       <c r="F122" s="1" t="s">
-        <v>120</v>
+        <v>3</v>
       </c>
     </row>
     <row r="123" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10575,7 +10674,7 @@
         <v>928</v>
       </c>
       <c r="F123" s="1" t="s">
-        <v>120</v>
+        <v>3</v>
       </c>
     </row>
     <row r="124" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10589,7 +10688,7 @@
         <v>929</v>
       </c>
       <c r="F124" s="1" t="s">
-        <v>120</v>
+        <v>3</v>
       </c>
     </row>
     <row r="125" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10603,7 +10702,7 @@
         <v>933</v>
       </c>
       <c r="F125" s="1" t="s">
-        <v>120</v>
+        <v>3</v>
       </c>
     </row>
     <row r="126" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10617,7 +10716,7 @@
         <v>936</v>
       </c>
       <c r="F126" s="1" t="s">
-        <v>120</v>
+        <v>3</v>
       </c>
     </row>
     <row r="127" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10631,7 +10730,7 @@
         <v>939</v>
       </c>
       <c r="F127" s="1" t="s">
-        <v>120</v>
+        <v>3</v>
       </c>
     </row>
     <row r="128" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10645,7 +10744,7 @@
         <v>942</v>
       </c>
       <c r="F128" s="1" t="s">
-        <v>120</v>
+        <v>3</v>
       </c>
     </row>
     <row r="129" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10659,7 +10758,7 @@
         <v>945</v>
       </c>
       <c r="F129" s="1" t="s">
-        <v>120</v>
+        <v>3</v>
       </c>
     </row>
     <row r="130" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10673,7 +10772,7 @@
         <v>948</v>
       </c>
       <c r="F130" s="1" t="s">
-        <v>120</v>
+        <v>3</v>
       </c>
     </row>
     <row r="131" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10687,7 +10786,7 @@
         <v>951</v>
       </c>
       <c r="F131" s="1" t="s">
-        <v>120</v>
+        <v>3</v>
       </c>
     </row>
     <row r="132" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10701,7 +10800,7 @@
         <v>954</v>
       </c>
       <c r="F132" s="1" t="s">
-        <v>120</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -10723,8 +10822,8 @@
   </sheetPr>
   <dimension ref="A1:F168"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A115" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F182" activeCellId="0" sqref="F182"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F1" activeCellId="0" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6796875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -10747,9 +10846,6 @@
       <c r="D1" s="1" t="s">
         <v>957</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>120</v>
-      </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
@@ -10762,7 +10858,7 @@
         <v>960</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>120</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10776,7 +10872,7 @@
         <v>963</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>120</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10790,7 +10886,7 @@
         <v>966</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>120</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10804,7 +10900,7 @@
         <v>969</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>120</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10818,7 +10914,7 @@
         <v>972</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>120</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10832,7 +10928,7 @@
         <v>975</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>120</v>
+        <v>3</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10846,7 +10942,7 @@
         <v>978</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>120</v>
+        <v>3</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10860,7 +10956,7 @@
         <v>981</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>120</v>
+        <v>3</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10874,7 +10970,7 @@
         <v>983</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>120</v>
+        <v>3</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10888,7 +10984,7 @@
         <v>986</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>120</v>
+        <v>3</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10902,7 +10998,7 @@
         <v>989</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>120</v>
+        <v>3</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10916,7 +11012,7 @@
         <v>992</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>120</v>
+        <v>3</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10930,7 +11026,7 @@
         <v>995</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>120</v>
+        <v>3</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10944,7 +11040,7 @@
         <v>997</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>120</v>
+        <v>3</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10958,7 +11054,7 @@
         <v>999</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>120</v>
+        <v>3</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10972,7 +11068,7 @@
         <v>1002</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>120</v>
+        <v>3</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10986,7 +11082,7 @@
         <v>997</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>120</v>
+        <v>3</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11000,7 +11096,7 @@
         <v>1006</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>120</v>
+        <v>3</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11025,7 +11121,7 @@
         <v>1011</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>120</v>
+        <v>3</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11039,7 +11135,7 @@
         <v>1014</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>120</v>
+        <v>3</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11053,7 +11149,7 @@
         <v>1017</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>120</v>
+        <v>3</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11067,7 +11163,7 @@
         <v>1020</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>120</v>
+        <v>3</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11081,7 +11177,7 @@
         <v>1023</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>120</v>
+        <v>3</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11095,7 +11191,7 @@
         <v>1026</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>120</v>
+        <v>3</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11109,7 +11205,7 @@
         <v>1029</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>120</v>
+        <v>3</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11123,7 +11219,7 @@
         <v>1032</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>120</v>
+        <v>3</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11137,7 +11233,7 @@
         <v>1035</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>120</v>
+        <v>3</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11151,7 +11247,7 @@
         <v>1038</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>120</v>
+        <v>3</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11165,7 +11261,7 @@
         <v>1041</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>120</v>
+        <v>3</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11179,7 +11275,7 @@
         <v>1043</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>120</v>
+        <v>3</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11193,7 +11289,7 @@
         <v>1046</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>120</v>
+        <v>3</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11207,7 +11303,7 @@
         <v>1049</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>120</v>
+        <v>3</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11221,7 +11317,7 @@
         <v>1052</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>120</v>
+        <v>3</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11235,7 +11331,7 @@
         <v>1055</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>120</v>
+        <v>3</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11249,7 +11345,7 @@
         <v>1058</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>120</v>
+        <v>3</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11263,7 +11359,7 @@
         <v>1061</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>120</v>
+        <v>3</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11277,7 +11373,7 @@
         <v>1064</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>120</v>
+        <v>3</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11302,7 +11398,7 @@
         <v>1070</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>120</v>
+        <v>3</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11316,7 +11412,7 @@
         <v>1073</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>120</v>
+        <v>3</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11330,7 +11426,7 @@
         <v>1075</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>120</v>
+        <v>3</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11344,7 +11440,7 @@
         <v>1078</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>120</v>
+        <v>3</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11358,7 +11454,7 @@
         <v>1081</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>120</v>
+        <v>3</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11372,7 +11468,7 @@
         <v>1084</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>120</v>
+        <v>3</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11386,7 +11482,7 @@
         <v>1087</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>120</v>
+        <v>3</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11400,7 +11496,7 @@
         <v>1090</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>120</v>
+        <v>3</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11414,7 +11510,7 @@
         <v>1093</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>120</v>
+        <v>3</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11428,7 +11524,7 @@
         <v>1096</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>120</v>
+        <v>3</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11442,7 +11538,7 @@
         <v>1098</v>
       </c>
       <c r="F51" s="1" t="s">
-        <v>120</v>
+        <v>3</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11456,7 +11552,7 @@
         <v>1100</v>
       </c>
       <c r="F52" s="1" t="s">
-        <v>120</v>
+        <v>3</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11470,7 +11566,7 @@
         <v>1103</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>120</v>
+        <v>3</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11484,7 +11580,7 @@
         <v>1106</v>
       </c>
       <c r="F54" s="1" t="s">
-        <v>120</v>
+        <v>3</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11498,7 +11594,7 @@
         <v>1109</v>
       </c>
       <c r="F55" s="1" t="s">
-        <v>120</v>
+        <v>3</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11512,7 +11608,7 @@
         <v>1112</v>
       </c>
       <c r="F56" s="1" t="s">
-        <v>120</v>
+        <v>3</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11526,7 +11622,7 @@
         <v>1115</v>
       </c>
       <c r="F57" s="1" t="s">
-        <v>120</v>
+        <v>3</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11540,7 +11636,7 @@
         <v>1118</v>
       </c>
       <c r="F58" s="1" t="s">
-        <v>120</v>
+        <v>3</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11554,7 +11650,7 @@
         <v>1120</v>
       </c>
       <c r="F59" s="1" t="s">
-        <v>120</v>
+        <v>3</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11579,7 +11675,7 @@
         <v>1126</v>
       </c>
       <c r="F61" s="1" t="s">
-        <v>120</v>
+        <v>3</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11593,7 +11689,7 @@
         <v>1128</v>
       </c>
       <c r="F62" s="1" t="s">
-        <v>120</v>
+        <v>3</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11607,7 +11703,7 @@
         <v>1131</v>
       </c>
       <c r="F63" s="1" t="s">
-        <v>120</v>
+        <v>3</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11621,7 +11717,7 @@
         <v>1134</v>
       </c>
       <c r="F64" s="1" t="s">
-        <v>120</v>
+        <v>3</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11635,7 +11731,7 @@
         <v>1137</v>
       </c>
       <c r="F65" s="1" t="s">
-        <v>120</v>
+        <v>3</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11649,7 +11745,7 @@
         <v>1140</v>
       </c>
       <c r="F66" s="1" t="s">
-        <v>120</v>
+        <v>3</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11663,7 +11759,7 @@
         <v>1143</v>
       </c>
       <c r="F67" s="1" t="s">
-        <v>120</v>
+        <v>3</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11677,7 +11773,7 @@
         <v>1146</v>
       </c>
       <c r="F68" s="1" t="s">
-        <v>120</v>
+        <v>3</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11691,7 +11787,7 @@
         <v>1149</v>
       </c>
       <c r="F69" s="1" t="s">
-        <v>120</v>
+        <v>3</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11705,7 +11801,7 @@
         <v>1152</v>
       </c>
       <c r="F70" s="1" t="s">
-        <v>120</v>
+        <v>3</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11719,7 +11815,7 @@
         <v>1155</v>
       </c>
       <c r="F71" s="1" t="s">
-        <v>120</v>
+        <v>3</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11733,7 +11829,7 @@
         <v>1158</v>
       </c>
       <c r="F72" s="1" t="s">
-        <v>120</v>
+        <v>3</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11747,7 +11843,7 @@
         <v>1128</v>
       </c>
       <c r="F73" s="1" t="s">
-        <v>120</v>
+        <v>3</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11761,7 +11857,7 @@
         <v>1161</v>
       </c>
       <c r="F74" s="1" t="s">
-        <v>120</v>
+        <v>3</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11775,7 +11871,7 @@
         <v>1164</v>
       </c>
       <c r="F75" s="1" t="s">
-        <v>120</v>
+        <v>3</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11789,7 +11885,7 @@
         <v>1167</v>
       </c>
       <c r="F76" s="1" t="s">
-        <v>120</v>
+        <v>3</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11803,7 +11899,7 @@
         <v>1128</v>
       </c>
       <c r="F77" s="1" t="s">
-        <v>120</v>
+        <v>3</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11817,7 +11913,7 @@
         <v>1170</v>
       </c>
       <c r="F78" s="1" t="s">
-        <v>120</v>
+        <v>3</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11831,7 +11927,7 @@
         <v>1173</v>
       </c>
       <c r="F79" s="1" t="s">
-        <v>120</v>
+        <v>3</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11856,7 +11952,7 @@
         <v>1179</v>
       </c>
       <c r="F81" s="1" t="s">
-        <v>120</v>
+        <v>3</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11870,7 +11966,7 @@
         <v>1182</v>
       </c>
       <c r="F82" s="1" t="s">
-        <v>120</v>
+        <v>3</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11884,7 +11980,7 @@
         <v>1185</v>
       </c>
       <c r="F83" s="1" t="s">
-        <v>120</v>
+        <v>3</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11898,7 +11994,7 @@
         <v>1188</v>
       </c>
       <c r="F84" s="1" t="s">
-        <v>120</v>
+        <v>3</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11912,7 +12008,7 @@
         <v>1191</v>
       </c>
       <c r="F85" s="1" t="s">
-        <v>120</v>
+        <v>3</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11926,7 +12022,7 @@
         <v>1194</v>
       </c>
       <c r="F86" s="1" t="s">
-        <v>120</v>
+        <v>3</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11940,7 +12036,7 @@
         <v>1197</v>
       </c>
       <c r="F87" s="1" t="s">
-        <v>120</v>
+        <v>3</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11954,7 +12050,7 @@
         <v>1200</v>
       </c>
       <c r="F88" s="1" t="s">
-        <v>120</v>
+        <v>3</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11968,7 +12064,7 @@
         <v>1115</v>
       </c>
       <c r="F89" s="1" t="s">
-        <v>120</v>
+        <v>3</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11982,7 +12078,7 @@
         <v>1203</v>
       </c>
       <c r="F90" s="1" t="s">
-        <v>120</v>
+        <v>3</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11996,7 +12092,7 @@
         <v>1206</v>
       </c>
       <c r="F91" s="1" t="s">
-        <v>120</v>
+        <v>3</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12010,7 +12106,7 @@
         <v>1209</v>
       </c>
       <c r="F92" s="1" t="s">
-        <v>120</v>
+        <v>3</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12024,7 +12120,7 @@
         <v>1210</v>
       </c>
       <c r="F93" s="1" t="s">
-        <v>120</v>
+        <v>3</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12038,7 +12134,7 @@
         <v>1213</v>
       </c>
       <c r="F94" s="1" t="s">
-        <v>120</v>
+        <v>3</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12052,7 +12148,7 @@
         <v>1216</v>
       </c>
       <c r="F95" s="1" t="s">
-        <v>120</v>
+        <v>3</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12066,7 +12162,7 @@
         <v>1219</v>
       </c>
       <c r="F96" s="1" t="s">
-        <v>120</v>
+        <v>3</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12080,7 +12176,7 @@
         <v>1222</v>
       </c>
       <c r="F97" s="1" t="s">
-        <v>120</v>
+        <v>3</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12094,7 +12190,7 @@
         <v>1225</v>
       </c>
       <c r="F98" s="1" t="s">
-        <v>120</v>
+        <v>3</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12108,7 +12204,7 @@
         <v>1227</v>
       </c>
       <c r="F99" s="1" t="s">
-        <v>120</v>
+        <v>3</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12133,7 +12229,7 @@
         <v>1232</v>
       </c>
       <c r="F101" s="1" t="s">
-        <v>120</v>
+        <v>3</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12147,7 +12243,7 @@
         <v>1233</v>
       </c>
       <c r="F102" s="1" t="s">
-        <v>120</v>
+        <v>3</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12161,7 +12257,7 @@
         <v>1237</v>
       </c>
       <c r="F103" s="1" t="s">
-        <v>120</v>
+        <v>3</v>
       </c>
     </row>
     <row r="104" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12175,7 +12271,7 @@
         <v>1239</v>
       </c>
       <c r="F104" s="1" t="s">
-        <v>120</v>
+        <v>3</v>
       </c>
     </row>
     <row r="105" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12189,7 +12285,7 @@
         <v>1240</v>
       </c>
       <c r="F105" s="1" t="s">
-        <v>120</v>
+        <v>3</v>
       </c>
     </row>
     <row r="106" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12203,7 +12299,7 @@
         <v>1243</v>
       </c>
       <c r="F106" s="1" t="s">
-        <v>120</v>
+        <v>3</v>
       </c>
     </row>
     <row r="107" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12217,7 +12313,7 @@
         <v>1246</v>
       </c>
       <c r="F107" s="1" t="s">
-        <v>120</v>
+        <v>3</v>
       </c>
     </row>
     <row r="108" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12231,7 +12327,7 @@
         <v>1249</v>
       </c>
       <c r="F108" s="1" t="s">
-        <v>120</v>
+        <v>3</v>
       </c>
     </row>
     <row r="109" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12245,7 +12341,7 @@
         <v>1252</v>
       </c>
       <c r="F109" s="1" t="s">
-        <v>120</v>
+        <v>3</v>
       </c>
     </row>
     <row r="110" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12259,7 +12355,7 @@
         <v>1255</v>
       </c>
       <c r="F110" s="1" t="s">
-        <v>120</v>
+        <v>3</v>
       </c>
     </row>
     <row r="111" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12273,7 +12369,7 @@
         <v>1258</v>
       </c>
       <c r="F111" s="1" t="s">
-        <v>120</v>
+        <v>3</v>
       </c>
     </row>
     <row r="112" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12287,7 +12383,7 @@
         <v>1261</v>
       </c>
       <c r="F112" s="1" t="s">
-        <v>120</v>
+        <v>3</v>
       </c>
     </row>
     <row r="113" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12301,7 +12397,7 @@
         <v>1264</v>
       </c>
       <c r="F113" s="1" t="s">
-        <v>120</v>
+        <v>3</v>
       </c>
     </row>
     <row r="114" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12315,7 +12411,7 @@
         <v>1267</v>
       </c>
       <c r="F114" s="1" t="s">
-        <v>120</v>
+        <v>3</v>
       </c>
     </row>
     <row r="115" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12329,7 +12425,7 @@
         <v>1270</v>
       </c>
       <c r="F115" s="1" t="s">
-        <v>120</v>
+        <v>3</v>
       </c>
     </row>
     <row r="116" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12343,7 +12439,7 @@
         <v>1176</v>
       </c>
       <c r="F116" s="1" t="s">
-        <v>120</v>
+        <v>3</v>
       </c>
     </row>
     <row r="117" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12357,7 +12453,7 @@
         <v>1273</v>
       </c>
       <c r="F117" s="1" t="s">
-        <v>120</v>
+        <v>3</v>
       </c>
     </row>
     <row r="118" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12371,7 +12467,7 @@
         <v>1276</v>
       </c>
       <c r="F118" s="1" t="s">
-        <v>120</v>
+        <v>3</v>
       </c>
     </row>
     <row r="119" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12385,7 +12481,7 @@
         <v>1279</v>
       </c>
       <c r="F119" s="1" t="s">
-        <v>120</v>
+        <v>3</v>
       </c>
     </row>
     <row r="120" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12410,7 +12506,7 @@
         <v>1285</v>
       </c>
       <c r="F121" s="1" t="s">
-        <v>120</v>
+        <v>3</v>
       </c>
     </row>
     <row r="122" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12424,7 +12520,7 @@
         <v>1288</v>
       </c>
       <c r="F122" s="1" t="s">
-        <v>120</v>
+        <v>3</v>
       </c>
     </row>
     <row r="123" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12438,7 +12534,7 @@
         <v>1290</v>
       </c>
       <c r="F123" s="1" t="s">
-        <v>120</v>
+        <v>3</v>
       </c>
     </row>
     <row r="124" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12452,7 +12548,7 @@
         <v>1009</v>
       </c>
       <c r="F124" s="1" t="s">
-        <v>120</v>
+        <v>3</v>
       </c>
     </row>
     <row r="125" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12466,7 +12562,7 @@
         <v>1293</v>
       </c>
       <c r="F125" s="1" t="s">
-        <v>120</v>
+        <v>3</v>
       </c>
     </row>
     <row r="126" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12480,7 +12576,7 @@
         <v>1296</v>
       </c>
       <c r="F126" s="1" t="s">
-        <v>120</v>
+        <v>3</v>
       </c>
     </row>
     <row r="127" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12494,7 +12590,7 @@
         <v>1299</v>
       </c>
       <c r="F127" s="1" t="s">
-        <v>120</v>
+        <v>3</v>
       </c>
     </row>
     <row r="128" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12508,7 +12604,7 @@
         <v>1302</v>
       </c>
       <c r="F128" s="1" t="s">
-        <v>120</v>
+        <v>3</v>
       </c>
     </row>
     <row r="129" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12522,7 +12618,7 @@
         <v>1305</v>
       </c>
       <c r="F129" s="1" t="s">
-        <v>120</v>
+        <v>3</v>
       </c>
     </row>
     <row r="130" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12536,7 +12632,7 @@
         <v>1307</v>
       </c>
       <c r="F130" s="1" t="s">
-        <v>120</v>
+        <v>3</v>
       </c>
     </row>
     <row r="131" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12550,7 +12646,7 @@
         <v>1308</v>
       </c>
       <c r="F131" s="1" t="s">
-        <v>120</v>
+        <v>3</v>
       </c>
     </row>
     <row r="132" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12564,7 +12660,7 @@
         <v>1312</v>
       </c>
       <c r="F132" s="1" t="s">
-        <v>120</v>
+        <v>3</v>
       </c>
     </row>
     <row r="133" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12578,7 +12674,7 @@
         <v>1314</v>
       </c>
       <c r="F133" s="1" t="s">
-        <v>120</v>
+        <v>3</v>
       </c>
     </row>
     <row r="134" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12592,7 +12688,7 @@
         <v>1315</v>
       </c>
       <c r="F134" s="1" t="s">
-        <v>120</v>
+        <v>3</v>
       </c>
     </row>
     <row r="135" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12606,7 +12702,7 @@
         <v>1318</v>
       </c>
       <c r="F135" s="1" t="s">
-        <v>120</v>
+        <v>3</v>
       </c>
     </row>
     <row r="136" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12620,7 +12716,7 @@
         <v>1321</v>
       </c>
       <c r="F136" s="1" t="s">
-        <v>120</v>
+        <v>3</v>
       </c>
     </row>
     <row r="137" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12634,7 +12730,7 @@
         <v>1324</v>
       </c>
       <c r="F137" s="1" t="s">
-        <v>120</v>
+        <v>3</v>
       </c>
     </row>
     <row r="138" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12648,7 +12744,7 @@
         <v>1327</v>
       </c>
       <c r="F138" s="1" t="s">
-        <v>120</v>
+        <v>3</v>
       </c>
     </row>
     <row r="139" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12662,7 +12758,7 @@
         <v>1330</v>
       </c>
       <c r="F139" s="1" t="s">
-        <v>120</v>
+        <v>3</v>
       </c>
     </row>
     <row r="140" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12687,7 +12783,7 @@
         <v>1336</v>
       </c>
       <c r="F141" s="1" t="s">
-        <v>120</v>
+        <v>3</v>
       </c>
     </row>
     <row r="142" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12701,7 +12797,7 @@
         <v>1339</v>
       </c>
       <c r="F142" s="1" t="s">
-        <v>120</v>
+        <v>3</v>
       </c>
     </row>
     <row r="143" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12715,7 +12811,7 @@
         <v>1342</v>
       </c>
       <c r="F143" s="1" t="s">
-        <v>120</v>
+        <v>3</v>
       </c>
     </row>
     <row r="144" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12729,7 +12825,7 @@
         <v>1345</v>
       </c>
       <c r="F144" s="1" t="s">
-        <v>120</v>
+        <v>3</v>
       </c>
     </row>
     <row r="145" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12743,7 +12839,7 @@
         <v>1348</v>
       </c>
       <c r="F145" s="1" t="s">
-        <v>120</v>
+        <v>3</v>
       </c>
     </row>
     <row r="146" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12757,7 +12853,7 @@
         <v>1351</v>
       </c>
       <c r="F146" s="1" t="s">
-        <v>120</v>
+        <v>3</v>
       </c>
     </row>
     <row r="147" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12771,7 +12867,7 @@
         <v>1354</v>
       </c>
       <c r="F147" s="1" t="s">
-        <v>120</v>
+        <v>3</v>
       </c>
     </row>
     <row r="148" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12785,7 +12881,7 @@
         <v>1357</v>
       </c>
       <c r="F148" s="1" t="s">
-        <v>120</v>
+        <v>3</v>
       </c>
     </row>
     <row r="149" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12799,7 +12895,7 @@
         <v>1360</v>
       </c>
       <c r="F149" s="1" t="s">
-        <v>120</v>
+        <v>3</v>
       </c>
     </row>
     <row r="150" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12813,7 +12909,7 @@
         <v>983</v>
       </c>
       <c r="F150" s="1" t="s">
-        <v>120</v>
+        <v>3</v>
       </c>
     </row>
     <row r="151" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12827,7 +12923,7 @@
         <v>986</v>
       </c>
       <c r="F151" s="1" t="s">
-        <v>120</v>
+        <v>3</v>
       </c>
     </row>
     <row r="152" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12841,7 +12937,7 @@
         <v>1364</v>
       </c>
       <c r="F152" s="1" t="s">
-        <v>120</v>
+        <v>3</v>
       </c>
     </row>
     <row r="153" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12855,7 +12951,7 @@
         <v>1367</v>
       </c>
       <c r="F153" s="1" t="s">
-        <v>120</v>
+        <v>3</v>
       </c>
     </row>
     <row r="154" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12869,7 +12965,7 @@
         <v>1370</v>
       </c>
       <c r="F154" s="1" t="s">
-        <v>120</v>
+        <v>3</v>
       </c>
     </row>
     <row r="155" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12883,7 +12979,7 @@
         <v>1373</v>
       </c>
       <c r="F155" s="1" t="s">
-        <v>120</v>
+        <v>3</v>
       </c>
     </row>
     <row r="156" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12897,7 +12993,7 @@
         <v>1376</v>
       </c>
       <c r="F156" s="1" t="s">
-        <v>120</v>
+        <v>3</v>
       </c>
     </row>
     <row r="157" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12911,7 +13007,7 @@
         <v>1379</v>
       </c>
       <c r="F157" s="1" t="s">
-        <v>120</v>
+        <v>3</v>
       </c>
     </row>
     <row r="158" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12925,7 +13021,7 @@
         <v>1382</v>
       </c>
       <c r="F158" s="1" t="s">
-        <v>120</v>
+        <v>3</v>
       </c>
     </row>
     <row r="159" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12939,7 +13035,7 @@
         <v>1383</v>
       </c>
       <c r="F159" s="1" t="s">
-        <v>120</v>
+        <v>3</v>
       </c>
     </row>
     <row r="160" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12964,7 +13060,7 @@
         <v>1389</v>
       </c>
       <c r="F161" s="1" t="s">
-        <v>120</v>
+        <v>3</v>
       </c>
     </row>
     <row r="162" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12978,7 +13074,7 @@
         <v>1392</v>
       </c>
       <c r="F162" s="1" t="s">
-        <v>120</v>
+        <v>3</v>
       </c>
     </row>
     <row r="163" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12992,7 +13088,7 @@
         <v>1395</v>
       </c>
       <c r="F163" s="1" t="s">
-        <v>120</v>
+        <v>3</v>
       </c>
     </row>
     <row r="164" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13006,7 +13102,7 @@
         <v>1397</v>
       </c>
       <c r="F164" s="1" t="s">
-        <v>120</v>
+        <v>3</v>
       </c>
     </row>
     <row r="165" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13020,7 +13116,7 @@
         <v>1400</v>
       </c>
       <c r="F165" s="1" t="s">
-        <v>120</v>
+        <v>3</v>
       </c>
     </row>
     <row r="166" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13034,7 +13130,7 @@
         <v>1403</v>
       </c>
       <c r="F166" s="1" t="s">
-        <v>120</v>
+        <v>3</v>
       </c>
     </row>
     <row r="167" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13048,7 +13144,7 @@
         <v>1406</v>
       </c>
       <c r="F167" s="1" t="s">
-        <v>120</v>
+        <v>3</v>
       </c>
     </row>
     <row r="168" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13062,7 +13158,7 @@
         <v>1409</v>
       </c>
       <c r="F168" s="1" t="s">
-        <v>120</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -13192,7 +13288,7 @@
         <v>1425</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>120</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13206,7 +13302,7 @@
         <v>1428</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>120</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13220,7 +13316,7 @@
         <v>1431</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>120</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13234,7 +13330,7 @@
         <v>1434</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>120</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13248,7 +13344,7 @@
         <v>1435</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>120</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13262,7 +13358,7 @@
         <v>1439</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>120</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13276,7 +13372,7 @@
         <v>1442</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>120</v>
+        <v>3</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13290,7 +13386,7 @@
         <v>1445</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>120</v>
+        <v>3</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13304,7 +13400,7 @@
         <v>1448</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>120</v>
+        <v>3</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13318,7 +13414,7 @@
         <v>1451</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>120</v>
+        <v>3</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13332,7 +13428,7 @@
         <v>1452</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>120</v>
+        <v>3</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13346,7 +13442,7 @@
         <v>1456</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>120</v>
+        <v>3</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13360,7 +13456,7 @@
         <v>1459</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>120</v>
+        <v>3</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13374,7 +13470,7 @@
         <v>1462</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>120</v>
+        <v>3</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13388,7 +13484,7 @@
         <v>1465</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>120</v>
+        <v>3</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13402,7 +13498,7 @@
         <v>1468</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>120</v>
+        <v>3</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13416,7 +13512,7 @@
         <v>1470</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>120</v>
+        <v>3</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13430,7 +13526,7 @@
         <v>1473</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>120</v>
+        <v>3</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13444,7 +13540,7 @@
         <v>1476</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>120</v>
+        <v>3</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13469,7 +13565,7 @@
         <v>1482</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>120</v>
+        <v>3</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13483,7 +13579,7 @@
         <v>1485</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>120</v>
+        <v>3</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13497,7 +13593,7 @@
         <v>1439</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>120</v>
+        <v>3</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13511,7 +13607,7 @@
         <v>1488</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>120</v>
+        <v>3</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13525,7 +13621,7 @@
         <v>1491</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>120</v>
+        <v>3</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13539,7 +13635,7 @@
         <v>1494</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>120</v>
+        <v>3</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13553,7 +13649,7 @@
         <v>1497</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>120</v>
+        <v>3</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13567,7 +13663,7 @@
         <v>1500</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>120</v>
+        <v>3</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13581,7 +13677,7 @@
         <v>1503</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>120</v>
+        <v>3</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13595,7 +13691,7 @@
         <v>1506</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>120</v>
+        <v>3</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13609,7 +13705,7 @@
         <v>1509</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>120</v>
+        <v>3</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13623,7 +13719,7 @@
         <v>1512</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>120</v>
+        <v>3</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13637,7 +13733,7 @@
         <v>1514</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>120</v>
+        <v>3</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13651,7 +13747,7 @@
         <v>1517</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>120</v>
+        <v>3</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13665,7 +13761,7 @@
         <v>1520</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>120</v>
+        <v>3</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13679,7 +13775,7 @@
         <v>1523</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>120</v>
+        <v>3</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13693,7 +13789,7 @@
         <v>1525</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>120</v>
+        <v>3</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13707,7 +13803,7 @@
         <v>1527</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>120</v>
+        <v>3</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13721,7 +13817,7 @@
         <v>1530</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>120</v>
+        <v>3</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13746,7 +13842,7 @@
         <v>1535</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>120</v>
+        <v>3</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13760,7 +13856,7 @@
         <v>1538</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>120</v>
+        <v>3</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13774,7 +13870,7 @@
         <v>1541</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>120</v>
+        <v>3</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13788,7 +13884,7 @@
         <v>1544</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>120</v>
+        <v>3</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13802,7 +13898,7 @@
         <v>1547</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>120</v>
+        <v>3</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13816,7 +13912,7 @@
         <v>1550</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>120</v>
+        <v>3</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13830,7 +13926,7 @@
         <v>1553</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>120</v>
+        <v>3</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13844,7 +13940,7 @@
         <v>1556</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>120</v>
+        <v>3</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13858,7 +13954,7 @@
         <v>1558</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>120</v>
+        <v>3</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13872,7 +13968,7 @@
         <v>1560</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>120</v>
+        <v>3</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13886,7 +13982,7 @@
         <v>1563</v>
       </c>
       <c r="F51" s="1" t="s">
-        <v>120</v>
+        <v>3</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13900,7 +13996,7 @@
         <v>1566</v>
       </c>
       <c r="F52" s="1" t="s">
-        <v>120</v>
+        <v>3</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13914,7 +14010,7 @@
         <v>1569</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>120</v>
+        <v>3</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13928,7 +14024,7 @@
         <v>1572</v>
       </c>
       <c r="F54" s="1" t="s">
-        <v>120</v>
+        <v>3</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13942,7 +14038,7 @@
         <v>1575</v>
       </c>
       <c r="F55" s="1" t="s">
-        <v>120</v>
+        <v>3</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13956,7 +14052,7 @@
         <v>1578</v>
       </c>
       <c r="F56" s="1" t="s">
-        <v>120</v>
+        <v>3</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13970,7 +14066,7 @@
         <v>1581</v>
       </c>
       <c r="F57" s="1" t="s">
-        <v>120</v>
+        <v>3</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13984,7 +14080,7 @@
         <v>1583</v>
       </c>
       <c r="F58" s="1" t="s">
-        <v>120</v>
+        <v>3</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13998,7 +14094,7 @@
         <v>1585</v>
       </c>
       <c r="F59" s="1" t="s">
-        <v>120</v>
+        <v>3</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14023,7 +14119,7 @@
         <v>1590</v>
       </c>
       <c r="F61" s="1" t="s">
-        <v>120</v>
+        <v>3</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14037,7 +14133,7 @@
         <v>1592</v>
       </c>
       <c r="F62" s="1" t="s">
-        <v>120</v>
+        <v>3</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14051,7 +14147,7 @@
         <v>1595</v>
       </c>
       <c r="F63" s="1" t="s">
-        <v>120</v>
+        <v>3</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14065,7 +14161,7 @@
         <v>1598</v>
       </c>
       <c r="F64" s="1" t="s">
-        <v>120</v>
+        <v>3</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14079,7 +14175,7 @@
         <v>1601</v>
       </c>
       <c r="F65" s="1" t="s">
-        <v>120</v>
+        <v>3</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14093,7 +14189,7 @@
         <v>1604</v>
       </c>
       <c r="F66" s="1" t="s">
-        <v>120</v>
+        <v>3</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14107,7 +14203,7 @@
         <v>1607</v>
       </c>
       <c r="F67" s="1" t="s">
-        <v>120</v>
+        <v>3</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14121,7 +14217,7 @@
         <v>1610</v>
       </c>
       <c r="F68" s="1" t="s">
-        <v>120</v>
+        <v>3</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14135,7 +14231,7 @@
         <v>1612</v>
       </c>
       <c r="F69" s="1" t="s">
-        <v>120</v>
+        <v>3</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14149,7 +14245,7 @@
         <v>1615</v>
       </c>
       <c r="F70" s="1" t="s">
-        <v>120</v>
+        <v>3</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14163,7 +14259,7 @@
         <v>1618</v>
       </c>
       <c r="F71" s="1" t="s">
-        <v>120</v>
+        <v>3</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14177,7 +14273,7 @@
         <v>1620</v>
       </c>
       <c r="F72" s="1" t="s">
-        <v>120</v>
+        <v>3</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14191,7 +14287,7 @@
         <v>1623</v>
       </c>
       <c r="F73" s="1" t="s">
-        <v>120</v>
+        <v>3</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14205,7 +14301,7 @@
         <v>1625</v>
       </c>
       <c r="F74" s="1" t="s">
-        <v>120</v>
+        <v>3</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14219,7 +14315,7 @@
         <v>1628</v>
       </c>
       <c r="F75" s="1" t="s">
-        <v>120</v>
+        <v>3</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14233,7 +14329,7 @@
         <v>1631</v>
       </c>
       <c r="F76" s="1" t="s">
-        <v>120</v>
+        <v>3</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14247,7 +14343,7 @@
         <v>1634</v>
       </c>
       <c r="F77" s="1" t="s">
-        <v>120</v>
+        <v>3</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14261,7 +14357,7 @@
         <v>1636</v>
       </c>
       <c r="F78" s="1" t="s">
-        <v>120</v>
+        <v>3</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14275,7 +14371,7 @@
         <v>1639</v>
       </c>
       <c r="F79" s="1" t="s">
-        <v>120</v>
+        <v>3</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14300,7 +14396,7 @@
         <v>1645</v>
       </c>
       <c r="F81" s="1" t="s">
-        <v>120</v>
+        <v>3</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14314,7 +14410,7 @@
         <v>1648</v>
       </c>
       <c r="F82" s="1" t="s">
-        <v>120</v>
+        <v>3</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14328,7 +14424,7 @@
         <v>1651</v>
       </c>
       <c r="F83" s="1" t="s">
-        <v>120</v>
+        <v>3</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14342,7 +14438,7 @@
         <v>1654</v>
       </c>
       <c r="F84" s="1" t="s">
-        <v>120</v>
+        <v>3</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14356,7 +14452,7 @@
         <v>1657</v>
       </c>
       <c r="F85" s="1" t="s">
-        <v>120</v>
+        <v>3</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14370,7 +14466,7 @@
         <v>1660</v>
       </c>
       <c r="F86" s="1" t="s">
-        <v>120</v>
+        <v>3</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14384,7 +14480,7 @@
         <v>1663</v>
       </c>
       <c r="F87" s="1" t="s">
-        <v>120</v>
+        <v>3</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14398,7 +14494,7 @@
         <v>1666</v>
       </c>
       <c r="F88" s="1" t="s">
-        <v>120</v>
+        <v>3</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14412,7 +14508,7 @@
         <v>1668</v>
       </c>
       <c r="F89" s="1" t="s">
-        <v>120</v>
+        <v>3</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14426,7 +14522,7 @@
         <v>1671</v>
       </c>
       <c r="F90" s="1" t="s">
-        <v>120</v>
+        <v>3</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14440,7 +14536,7 @@
         <v>1674</v>
       </c>
       <c r="F91" s="1" t="s">
-        <v>120</v>
+        <v>3</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14454,7 +14550,7 @@
         <v>1677</v>
       </c>
       <c r="F92" s="1" t="s">
-        <v>120</v>
+        <v>3</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14468,7 +14564,7 @@
         <v>1680</v>
       </c>
       <c r="F93" s="1" t="s">
-        <v>120</v>
+        <v>3</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14482,7 +14578,7 @@
         <v>1683</v>
       </c>
       <c r="F94" s="1" t="s">
-        <v>120</v>
+        <v>3</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14496,7 +14592,7 @@
         <v>1685</v>
       </c>
       <c r="F95" s="1" t="s">
-        <v>120</v>
+        <v>3</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14510,7 +14606,7 @@
         <v>1688</v>
       </c>
       <c r="F96" s="1" t="s">
-        <v>120</v>
+        <v>3</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14524,7 +14620,7 @@
         <v>1691</v>
       </c>
       <c r="F97" s="1" t="s">
-        <v>120</v>
+        <v>3</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14538,7 +14634,7 @@
         <v>1694</v>
       </c>
       <c r="F98" s="1" t="s">
-        <v>120</v>
+        <v>3</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14552,7 +14648,7 @@
         <v>1696</v>
       </c>
       <c r="F99" s="1" t="s">
-        <v>120</v>
+        <v>3</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14577,7 +14673,7 @@
         <v>1702</v>
       </c>
       <c r="F101" s="1" t="s">
-        <v>120</v>
+        <v>3</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14591,7 +14687,7 @@
         <v>1705</v>
       </c>
       <c r="F102" s="1" t="s">
-        <v>120</v>
+        <v>3</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14605,7 +14701,7 @@
         <v>1708</v>
       </c>
       <c r="F103" s="1" t="s">
-        <v>120</v>
+        <v>3</v>
       </c>
     </row>
     <row r="104" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14619,7 +14715,7 @@
         <v>1711</v>
       </c>
       <c r="F104" s="1" t="s">
-        <v>120</v>
+        <v>3</v>
       </c>
     </row>
     <row r="105" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14633,7 +14729,7 @@
         <v>1714</v>
       </c>
       <c r="F105" s="1" t="s">
-        <v>120</v>
+        <v>3</v>
       </c>
     </row>
     <row r="106" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14647,7 +14743,7 @@
         <v>1716</v>
       </c>
       <c r="F106" s="1" t="s">
-        <v>120</v>
+        <v>3</v>
       </c>
     </row>
     <row r="107" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14661,7 +14757,7 @@
         <v>1719</v>
       </c>
       <c r="F107" s="1" t="s">
-        <v>120</v>
+        <v>3</v>
       </c>
     </row>
     <row r="108" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14675,7 +14771,7 @@
         <v>1722</v>
       </c>
       <c r="F108" s="1" t="s">
-        <v>120</v>
+        <v>3</v>
       </c>
     </row>
     <row r="109" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14689,7 +14785,7 @@
         <v>1724</v>
       </c>
       <c r="F109" s="1" t="s">
-        <v>120</v>
+        <v>3</v>
       </c>
     </row>
     <row r="110" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14703,7 +14799,7 @@
         <v>1726</v>
       </c>
       <c r="F110" s="1" t="s">
-        <v>120</v>
+        <v>3</v>
       </c>
     </row>
     <row r="111" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14717,7 +14813,7 @@
         <v>1729</v>
       </c>
       <c r="F111" s="1" t="s">
-        <v>120</v>
+        <v>3</v>
       </c>
     </row>
     <row r="112" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14731,7 +14827,7 @@
         <v>1732</v>
       </c>
       <c r="F112" s="1" t="s">
-        <v>120</v>
+        <v>3</v>
       </c>
     </row>
     <row r="113" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14745,7 +14841,7 @@
         <v>1735</v>
       </c>
       <c r="F113" s="1" t="s">
-        <v>120</v>
+        <v>3</v>
       </c>
     </row>
     <row r="114" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14759,7 +14855,7 @@
         <v>1737</v>
       </c>
       <c r="F114" s="1" t="s">
-        <v>120</v>
+        <v>3</v>
       </c>
     </row>
     <row r="115" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14773,7 +14869,7 @@
         <v>1740</v>
       </c>
       <c r="F115" s="1" t="s">
-        <v>120</v>
+        <v>3</v>
       </c>
     </row>
     <row r="116" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14787,7 +14883,7 @@
         <v>1743</v>
       </c>
       <c r="F116" s="1" t="s">
-        <v>120</v>
+        <v>3</v>
       </c>
     </row>
     <row r="117" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14801,7 +14897,7 @@
         <v>1745</v>
       </c>
       <c r="F117" s="1" t="s">
-        <v>120</v>
+        <v>3</v>
       </c>
     </row>
     <row r="118" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14815,7 +14911,7 @@
         <v>1748</v>
       </c>
       <c r="F118" s="1" t="s">
-        <v>120</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -14837,7 +14933,7 @@
   <dimension ref="A1:F46"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F41" activeCellId="0" sqref="F41"/>
+      <selection pane="topLeft" activeCell="F1" activeCellId="0" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -14858,7 +14954,7 @@
         <v>2</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>120</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14869,10 +14965,10 @@
         <v>1752</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>120</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14883,10 +14979,10 @@
         <v>1754</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>120</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14897,10 +14993,10 @@
         <v>1756</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>120</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14911,10 +15007,10 @@
         <v>1758</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>120</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14925,10 +15021,10 @@
         <v>1760</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>120</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14936,13 +15032,13 @@
         <v>1761</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>120</v>
+        <v>3</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14953,10 +15049,10 @@
         <v>1763</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>120</v>
+        <v>3</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14967,10 +15063,10 @@
         <v>1765</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>120</v>
+        <v>3</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14981,10 +15077,10 @@
         <v>1767</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>120</v>
+        <v>3</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14995,10 +15091,10 @@
         <v>1769</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>120</v>
+        <v>3</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15009,10 +15105,10 @@
         <v>1771</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>120</v>
+        <v>3</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15023,10 +15119,10 @@
         <v>1773</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>120</v>
+        <v>3</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15037,10 +15133,10 @@
         <v>1775</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>120</v>
+        <v>3</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15051,10 +15147,10 @@
         <v>1777</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>120</v>
+        <v>3</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15065,10 +15161,10 @@
         <v>1779</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>120</v>
+        <v>3</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15079,10 +15175,10 @@
         <v>1781</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>120</v>
+        <v>3</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15093,10 +15189,10 @@
         <v>1783</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>120</v>
+        <v>3</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15110,7 +15206,7 @@
         <v>1784</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>120</v>
+        <v>3</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15121,7 +15217,7 @@
         <v>1787</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15132,10 +15228,10 @@
         <v>1789</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>120</v>
+        <v>3</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15149,7 +15245,7 @@
         <v>1790</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>120</v>
+        <v>3</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15160,10 +15256,10 @@
         <v>1793</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>120</v>
+        <v>3</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15174,10 +15270,10 @@
         <v>1795</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>120</v>
+        <v>3</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15188,10 +15284,10 @@
         <v>1797</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="F25" s="3" t="s">
-        <v>120</v>
+        <v>3</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15202,10 +15298,10 @@
         <v>1799</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="F26" s="3" t="s">
-        <v>120</v>
+        <v>3</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15219,7 +15315,7 @@
         <v>1800</v>
       </c>
       <c r="F27" s="3" t="s">
-        <v>120</v>
+        <v>3</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15233,7 +15329,7 @@
         <v>1804</v>
       </c>
       <c r="F28" s="3" t="s">
-        <v>120</v>
+        <v>3</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15247,7 +15343,7 @@
         <v>1807</v>
       </c>
       <c r="F29" s="3" t="s">
-        <v>120</v>
+        <v>3</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15261,7 +15357,7 @@
         <v>1810</v>
       </c>
       <c r="F30" s="3" t="s">
-        <v>120</v>
+        <v>3</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15272,10 +15368,10 @@
         <v>1803</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="F31" s="3" t="s">
-        <v>120</v>
+        <v>3</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15289,7 +15385,7 @@
         <v>1814</v>
       </c>
       <c r="F32" s="3" t="s">
-        <v>120</v>
+        <v>3</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15303,7 +15399,7 @@
         <v>1817</v>
       </c>
       <c r="F33" s="3" t="s">
-        <v>120</v>
+        <v>3</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15317,7 +15413,7 @@
         <v>1820</v>
       </c>
       <c r="F34" s="3" t="s">
-        <v>120</v>
+        <v>3</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15331,7 +15427,7 @@
         <v>1823</v>
       </c>
       <c r="F35" s="3" t="s">
-        <v>120</v>
+        <v>3</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15345,7 +15441,7 @@
         <v>1826</v>
       </c>
       <c r="F36" s="3" t="s">
-        <v>120</v>
+        <v>3</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15359,7 +15455,7 @@
         <v>1829</v>
       </c>
       <c r="F37" s="3" t="s">
-        <v>120</v>
+        <v>3</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15373,7 +15469,7 @@
         <v>1832</v>
       </c>
       <c r="F38" s="3" t="s">
-        <v>120</v>
+        <v>3</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15387,7 +15483,7 @@
         <v>1835</v>
       </c>
       <c r="F39" s="3" t="s">
-        <v>120</v>
+        <v>3</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15409,10 +15505,10 @@
         <v>1806</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="F41" s="3" t="s">
-        <v>120</v>
+        <v>3</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15426,7 +15522,7 @@
         <v>1842</v>
       </c>
       <c r="F42" s="3" t="s">
-        <v>120</v>
+        <v>3</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15440,7 +15536,7 @@
         <v>1845</v>
       </c>
       <c r="F43" s="3" t="s">
-        <v>120</v>
+        <v>3</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15454,7 +15550,7 @@
         <v>1848</v>
       </c>
       <c r="F44" s="3" t="s">
-        <v>120</v>
+        <v>3</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15468,7 +15564,7 @@
         <v>1851</v>
       </c>
       <c r="F45" s="3" t="s">
-        <v>120</v>
+        <v>3</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15482,7 +15578,7 @@
         <v>1854</v>
       </c>
       <c r="F46" s="3" t="s">
-        <v>120</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>
